--- a/每週買賣報表/空單部位變化.xlsx
+++ b/每週買賣報表/空單部位變化.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B374"/>
+  <dimension ref="A1:B1119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -396,7 +396,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>42377</v>
+        <v>37260</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -404,7 +404,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>42384</v>
+        <v>37267</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -412,7 +412,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>42391</v>
+        <v>37274</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -420,7 +420,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>42398</v>
+        <v>37281</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -428,7 +428,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>42405</v>
+        <v>37288</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -436,7 +436,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>42412</v>
+        <v>37295</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -444,7 +444,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>42419</v>
+        <v>37302</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -452,7 +452,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>42426</v>
+        <v>37309</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>42433</v>
+        <v>37316</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>42440</v>
+        <v>37323</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>42447</v>
+        <v>37330</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>42454</v>
+        <v>37337</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>42461</v>
+        <v>37344</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>42468</v>
+        <v>37351</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>42475</v>
+        <v>37358</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>42482</v>
+        <v>37365</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>42489</v>
+        <v>37372</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>42496</v>
+        <v>37379</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>42503</v>
+        <v>37386</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>42510</v>
+        <v>37393</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>42517</v>
+        <v>37400</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>42524</v>
+        <v>37407</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>42531</v>
+        <v>37414</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -580,911 +580,911 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>42538</v>
+        <v>37421</v>
       </c>
       <c r="B25">
-        <v>-32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>42545</v>
+        <v>37428</v>
       </c>
       <c r="B26">
-        <v>-44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>42552</v>
+        <v>37435</v>
       </c>
       <c r="B27">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>42559</v>
+        <v>37442</v>
       </c>
       <c r="B28">
-        <v>-36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>42566</v>
+        <v>37449</v>
       </c>
       <c r="B29">
-        <v>-29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>42573</v>
+        <v>37456</v>
       </c>
       <c r="B30">
-        <v>-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>42580</v>
+        <v>37463</v>
       </c>
       <c r="B31">
-        <v>-26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>42587</v>
+        <v>37470</v>
       </c>
       <c r="B32">
-        <v>-29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>42594</v>
+        <v>37477</v>
       </c>
       <c r="B33">
-        <v>-43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>42601</v>
+        <v>37484</v>
       </c>
       <c r="B34">
-        <v>-51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>42608</v>
+        <v>37491</v>
       </c>
       <c r="B35">
-        <v>-54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>42615</v>
+        <v>37498</v>
       </c>
       <c r="B36">
-        <v>-56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>42622</v>
+        <v>37505</v>
       </c>
       <c r="B37">
-        <v>-35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>42629</v>
+        <v>37512</v>
       </c>
       <c r="B38">
-        <v>-44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>42636</v>
+        <v>37519</v>
       </c>
       <c r="B39">
-        <v>-30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>42643</v>
+        <v>37526</v>
       </c>
       <c r="B40">
-        <v>-25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>42650</v>
+        <v>37533</v>
       </c>
       <c r="B41">
-        <v>-29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>42657</v>
+        <v>37540</v>
       </c>
       <c r="B42">
-        <v>-46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>42664</v>
+        <v>37547</v>
       </c>
       <c r="B43">
-        <v>-45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>42671</v>
+        <v>37554</v>
       </c>
       <c r="B44">
-        <v>-46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>42678</v>
+        <v>37561</v>
       </c>
       <c r="B45">
-        <v>-68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>42685</v>
+        <v>37568</v>
       </c>
       <c r="B46">
-        <v>-80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>42692</v>
+        <v>37575</v>
       </c>
       <c r="B47">
-        <v>-74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>42699</v>
+        <v>37582</v>
       </c>
       <c r="B48">
-        <v>-62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>42706</v>
+        <v>37589</v>
       </c>
       <c r="B49">
-        <v>-59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>42713</v>
+        <v>37596</v>
       </c>
       <c r="B50">
-        <v>-31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>42720</v>
+        <v>37603</v>
       </c>
       <c r="B51">
-        <v>-29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>42727</v>
+        <v>37610</v>
       </c>
       <c r="B52">
-        <v>-57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>42734</v>
+        <v>37617</v>
       </c>
       <c r="B53">
-        <v>-36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>42741</v>
+        <v>37624</v>
       </c>
       <c r="B54">
-        <v>-18</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>42748</v>
+        <v>37631</v>
       </c>
       <c r="B55">
-        <v>-35</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>42755</v>
+        <v>37638</v>
       </c>
       <c r="B56">
-        <v>-40</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>42762</v>
+        <v>37645</v>
       </c>
       <c r="B57">
-        <v>-37</v>
+        <v>-51</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>42769</v>
+        <v>37652</v>
       </c>
       <c r="B58">
-        <v>-33</v>
+        <v>-47</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>42776</v>
+        <v>37659</v>
       </c>
       <c r="B59">
-        <v>-24</v>
+        <v>-52</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>42783</v>
+        <v>37666</v>
       </c>
       <c r="B60">
-        <v>-20</v>
+        <v>-53</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>42790</v>
+        <v>37673</v>
       </c>
       <c r="B61">
-        <v>-22</v>
+        <v>-48</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>42797</v>
+        <v>37680</v>
       </c>
       <c r="B62">
-        <v>-27</v>
+        <v>-46</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>42804</v>
+        <v>37687</v>
       </c>
       <c r="B63">
-        <v>-32</v>
+        <v>-46</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>42811</v>
+        <v>37694</v>
       </c>
       <c r="B64">
-        <v>-24</v>
+        <v>-31</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>42818</v>
+        <v>37701</v>
       </c>
       <c r="B65">
-        <v>-22</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>42825</v>
+        <v>37708</v>
       </c>
       <c r="B66">
-        <v>-27</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>42832</v>
+        <v>37715</v>
       </c>
       <c r="B67">
-        <v>-30</v>
+        <v>-47</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>42839</v>
+        <v>37722</v>
       </c>
       <c r="B68">
-        <v>-41</v>
+        <v>-37</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>42846</v>
+        <v>37729</v>
       </c>
       <c r="B69">
-        <v>-47</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>42853</v>
+        <v>37736</v>
       </c>
       <c r="B70">
-        <v>-43</v>
+        <v>-76</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>42860</v>
+        <v>37743</v>
       </c>
       <c r="B71">
-        <v>-46</v>
+        <v>-78</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>42867</v>
+        <v>37750</v>
       </c>
       <c r="B72">
-        <v>-50</v>
+        <v>-74</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>42874</v>
+        <v>37757</v>
       </c>
       <c r="B73">
-        <v>-48</v>
+        <v>-72</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>42881</v>
+        <v>37764</v>
       </c>
       <c r="B74">
-        <v>-42</v>
+        <v>-59</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>42888</v>
+        <v>37771</v>
       </c>
       <c r="B75">
-        <v>-28</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>42895</v>
+        <v>37778</v>
       </c>
       <c r="B76">
-        <v>-27</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>42902</v>
+        <v>37785</v>
       </c>
       <c r="B77">
-        <v>-28</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>42909</v>
+        <v>37792</v>
       </c>
       <c r="B78">
-        <v>-18</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>42916</v>
+        <v>37799</v>
       </c>
       <c r="B79">
-        <v>-21</v>
+        <v>-41</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>42923</v>
+        <v>37806</v>
       </c>
       <c r="B80">
-        <v>-36</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>42930</v>
+        <v>37813</v>
       </c>
       <c r="B81">
-        <v>-34</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>42937</v>
+        <v>37820</v>
       </c>
       <c r="B82">
-        <v>-41</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>42944</v>
+        <v>37827</v>
       </c>
       <c r="B83">
-        <v>-37</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>42951</v>
+        <v>37834</v>
       </c>
       <c r="B84">
-        <v>-40</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>42958</v>
+        <v>37841</v>
       </c>
       <c r="B85">
-        <v>-81</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>42965</v>
+        <v>37848</v>
       </c>
       <c r="B86">
-        <v>-82</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>42972</v>
+        <v>37855</v>
       </c>
       <c r="B87">
-        <v>-59</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>42979</v>
+        <v>37862</v>
       </c>
       <c r="B88">
-        <v>-44</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>42986</v>
+        <v>37869</v>
       </c>
       <c r="B89">
-        <v>-47</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>42993</v>
+        <v>37876</v>
       </c>
       <c r="B90">
-        <v>-34</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>43000</v>
+        <v>37883</v>
       </c>
       <c r="B91">
-        <v>-46</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>43007</v>
+        <v>37890</v>
       </c>
       <c r="B92">
-        <v>-61</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>43014</v>
+        <v>37897</v>
       </c>
       <c r="B93">
-        <v>-48</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>43021</v>
+        <v>37904</v>
       </c>
       <c r="B94">
-        <v>-38</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>43028</v>
+        <v>37911</v>
       </c>
       <c r="B95">
-        <v>-40</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>43035</v>
+        <v>37918</v>
       </c>
       <c r="B96">
-        <v>-46</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>43042</v>
+        <v>37925</v>
       </c>
       <c r="B97">
-        <v>-41</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2">
-        <v>43049</v>
+        <v>37932</v>
       </c>
       <c r="B98">
-        <v>-55</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2">
-        <v>43056</v>
+        <v>37939</v>
       </c>
       <c r="B99">
-        <v>-68</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>43063</v>
+        <v>37946</v>
       </c>
       <c r="B100">
-        <v>-60</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>43070</v>
+        <v>37953</v>
       </c>
       <c r="B101">
-        <v>-76</v>
+        <v>-28</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>43077</v>
+        <v>37960</v>
       </c>
       <c r="B102">
-        <v>-90</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>43084</v>
+        <v>37967</v>
       </c>
       <c r="B103">
-        <v>-79</v>
+        <v>-29</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>43091</v>
+        <v>37974</v>
       </c>
       <c r="B104">
-        <v>-60</v>
+        <v>-44</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>43098</v>
+        <v>37981</v>
       </c>
       <c r="B105">
-        <v>-50</v>
+        <v>-38</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>43105</v>
+        <v>37988</v>
       </c>
       <c r="B106">
-        <v>-34</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>43112</v>
+        <v>37995</v>
       </c>
       <c r="B107">
-        <v>-50</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>43119</v>
+        <v>38002</v>
       </c>
       <c r="B108">
-        <v>-37</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>43126</v>
+        <v>38009</v>
       </c>
       <c r="B109">
-        <v>-43</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>43133</v>
+        <v>38016</v>
       </c>
       <c r="B110">
-        <v>-58</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>43140</v>
+        <v>38023</v>
       </c>
       <c r="B111">
-        <v>-114</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>43147</v>
+        <v>38030</v>
       </c>
       <c r="B112">
-        <v>-113</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>43154</v>
+        <v>38037</v>
       </c>
       <c r="B113">
-        <v>-77</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>43161</v>
+        <v>38044</v>
       </c>
       <c r="B114">
-        <v>-65</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>43168</v>
+        <v>38051</v>
       </c>
       <c r="B115">
-        <v>-62</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>43175</v>
+        <v>38058</v>
       </c>
       <c r="B116">
-        <v>-41</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>43182</v>
+        <v>38065</v>
       </c>
       <c r="B117">
-        <v>-86</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>43189</v>
+        <v>38072</v>
       </c>
       <c r="B118">
-        <v>-68</v>
+        <v>-28</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>43196</v>
+        <v>38079</v>
       </c>
       <c r="B119">
-        <v>-63</v>
+        <v>-26</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>43203</v>
+        <v>38086</v>
       </c>
       <c r="B120">
-        <v>-85</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>43210</v>
+        <v>38093</v>
       </c>
       <c r="B121">
-        <v>-90</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>43217</v>
+        <v>38100</v>
       </c>
       <c r="B122">
-        <v>-112</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>43224</v>
+        <v>38107</v>
       </c>
       <c r="B123">
-        <v>-110</v>
+        <v>-51</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>43231</v>
+        <v>38114</v>
       </c>
       <c r="B124">
-        <v>-100</v>
+        <v>-51</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>43238</v>
+        <v>38121</v>
       </c>
       <c r="B125">
-        <v>-97</v>
+        <v>-59</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>43245</v>
+        <v>38128</v>
       </c>
       <c r="B126">
-        <v>-74</v>
+        <v>-59</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>43252</v>
+        <v>38135</v>
       </c>
       <c r="B127">
-        <v>-46</v>
+        <v>-54</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>43259</v>
+        <v>38142</v>
       </c>
       <c r="B128">
-        <v>-30</v>
+        <v>-95</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>43266</v>
+        <v>38149</v>
       </c>
       <c r="B129">
-        <v>-52</v>
+        <v>-85</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>43273</v>
+        <v>38156</v>
       </c>
       <c r="B130">
-        <v>-94</v>
+        <v>-98</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>43280</v>
+        <v>38163</v>
       </c>
       <c r="B131">
-        <v>-86</v>
+        <v>-72</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>43287</v>
+        <v>38170</v>
       </c>
       <c r="B132">
-        <v>-110</v>
+        <v>-73</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>43294</v>
+        <v>38177</v>
       </c>
       <c r="B133">
-        <v>-83</v>
+        <v>-78</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>43301</v>
+        <v>38184</v>
       </c>
       <c r="B134">
-        <v>-74</v>
+        <v>-115</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>43308</v>
+        <v>38191</v>
       </c>
       <c r="B135">
-        <v>-54</v>
+        <v>-101</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>43315</v>
+        <v>38198</v>
       </c>
       <c r="B136">
-        <v>-43</v>
+        <v>-83</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>43322</v>
+        <v>38205</v>
       </c>
       <c r="B137">
-        <v>-49</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>43329</v>
+        <v>38212</v>
       </c>
       <c r="B138">
         <v>-81</v>
@@ -1492,663 +1492,663 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>43336</v>
+        <v>38219</v>
       </c>
       <c r="B139">
-        <v>-84</v>
+        <v>-44</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>43343</v>
+        <v>38226</v>
       </c>
       <c r="B140">
-        <v>-71</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>43350</v>
+        <v>38233</v>
       </c>
       <c r="B141">
-        <v>-86</v>
+        <v>-37</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>43357</v>
+        <v>38240</v>
       </c>
       <c r="B142">
-        <v>-80</v>
+        <v>-34</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>43364</v>
+        <v>38247</v>
       </c>
       <c r="B143">
-        <v>-75</v>
+        <v>-38</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>43371</v>
+        <v>38254</v>
       </c>
       <c r="B144">
-        <v>-70</v>
+        <v>-44</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>43378</v>
+        <v>38261</v>
       </c>
       <c r="B145">
-        <v>-83</v>
+        <v>-53</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>43385</v>
+        <v>38268</v>
       </c>
       <c r="B146">
-        <v>-73</v>
+        <v>-47</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>43392</v>
+        <v>38275</v>
       </c>
       <c r="B147">
-        <v>-76</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>43399</v>
+        <v>38282</v>
       </c>
       <c r="B148">
-        <v>-63</v>
+        <v>-72</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>43406</v>
+        <v>38289</v>
       </c>
       <c r="B149">
-        <v>-57</v>
+        <v>-76</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>43413</v>
+        <v>38296</v>
       </c>
       <c r="B150">
-        <v>-46</v>
+        <v>-61</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>43420</v>
+        <v>38303</v>
       </c>
       <c r="B151">
-        <v>-57</v>
+        <v>-51</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>43427</v>
+        <v>38310</v>
       </c>
       <c r="B152">
-        <v>-57</v>
+        <v>-29</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>43434</v>
+        <v>38317</v>
       </c>
       <c r="B153">
-        <v>-18</v>
+        <v>-54</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>43441</v>
+        <v>38324</v>
       </c>
       <c r="B154">
-        <v>-17</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>43448</v>
+        <v>38331</v>
       </c>
       <c r="B155">
-        <v>-67</v>
+        <v>-42</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>43455</v>
+        <v>38338</v>
       </c>
       <c r="B156">
-        <v>-110</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>43462</v>
+        <v>38345</v>
       </c>
       <c r="B157">
-        <v>-110</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>43469</v>
+        <v>38352</v>
       </c>
       <c r="B158">
-        <v>-113</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>43476</v>
+        <v>38359</v>
       </c>
       <c r="B159">
-        <v>-84</v>
+        <v>-43</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>43483</v>
+        <v>38366</v>
       </c>
       <c r="B160">
-        <v>-46</v>
+        <v>-52</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>43490</v>
+        <v>38373</v>
       </c>
       <c r="B161">
-        <v>-23</v>
+        <v>-52</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>43497</v>
+        <v>38380</v>
       </c>
       <c r="B162">
-        <v>-21</v>
+        <v>-62</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>43504</v>
+        <v>38387</v>
       </c>
       <c r="B163">
-        <v>-11</v>
+        <v>-45</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>43511</v>
+        <v>38394</v>
       </c>
       <c r="B164">
-        <v>-15</v>
+        <v>-37</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>43518</v>
+        <v>38401</v>
       </c>
       <c r="B165">
-        <v>-11</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>43525</v>
+        <v>38408</v>
       </c>
       <c r="B166">
-        <v>-11</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>43532</v>
+        <v>38415</v>
       </c>
       <c r="B167">
-        <v>-15</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>43539</v>
+        <v>38422</v>
       </c>
       <c r="B168">
-        <v>-9</v>
+        <v>-31</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>43546</v>
+        <v>38429</v>
       </c>
       <c r="B169">
-        <v>-5</v>
+        <v>-48</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>43553</v>
+        <v>38436</v>
       </c>
       <c r="B170">
-        <v>-4</v>
+        <v>-52</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>43560</v>
+        <v>38443</v>
       </c>
       <c r="B171">
-        <v>-3</v>
+        <v>-55</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>43567</v>
+        <v>38450</v>
       </c>
       <c r="B172">
-        <v>-5</v>
+        <v>-57</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>43574</v>
+        <v>38457</v>
       </c>
       <c r="B173">
-        <v>-5</v>
+        <v>-65</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>43581</v>
+        <v>38464</v>
       </c>
       <c r="B174">
-        <v>-10</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>43588</v>
+        <v>38471</v>
       </c>
       <c r="B175">
-        <v>-12</v>
+        <v>-72</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>43595</v>
+        <v>38478</v>
       </c>
       <c r="B176">
-        <v>-31</v>
+        <v>-64</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>43602</v>
+        <v>38485</v>
       </c>
       <c r="B177">
-        <v>-36</v>
+        <v>-67</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>43609</v>
+        <v>38492</v>
       </c>
       <c r="B178">
-        <v>-37</v>
+        <v>-61</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>43616</v>
+        <v>38499</v>
       </c>
       <c r="B179">
-        <v>-38</v>
+        <v>-55</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>43623</v>
+        <v>38506</v>
       </c>
       <c r="B180">
-        <v>-40</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>43630</v>
+        <v>38513</v>
       </c>
       <c r="B181">
-        <v>-36</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>43637</v>
+        <v>38520</v>
       </c>
       <c r="B182">
-        <v>-10</v>
+        <v>-17</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>43644</v>
+        <v>38527</v>
       </c>
       <c r="B183">
-        <v>-16</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>43651</v>
+        <v>38534</v>
       </c>
       <c r="B184">
-        <v>-9</v>
+        <v>-29</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>43658</v>
+        <v>38541</v>
       </c>
       <c r="B185">
-        <v>-28</v>
+        <v>-43</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>43665</v>
+        <v>38548</v>
       </c>
       <c r="B186">
-        <v>-39</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>43672</v>
+        <v>38555</v>
       </c>
       <c r="B187">
-        <v>-26</v>
+        <v>-27</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>43679</v>
+        <v>38562</v>
       </c>
       <c r="B188">
-        <v>-73</v>
+        <v>-55</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>43686</v>
+        <v>38569</v>
       </c>
       <c r="B189">
-        <v>-84</v>
+        <v>-45</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>43693</v>
+        <v>38576</v>
       </c>
       <c r="B190">
-        <v>-78</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>43700</v>
+        <v>38583</v>
       </c>
       <c r="B191">
-        <v>-64</v>
+        <v>-53</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>43707</v>
+        <v>38590</v>
       </c>
       <c r="B192">
-        <v>-56</v>
+        <v>-54</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>43714</v>
+        <v>38597</v>
       </c>
       <c r="B193">
-        <v>-32</v>
+        <v>-52</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="2">
-        <v>43721</v>
+        <v>38604</v>
       </c>
       <c r="B194">
-        <v>-33</v>
+        <v>-44</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="2">
-        <v>43728</v>
+        <v>38611</v>
       </c>
       <c r="B195">
-        <v>-32</v>
+        <v>-52</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="2">
-        <v>43735</v>
+        <v>38618</v>
       </c>
       <c r="B196">
-        <v>-51</v>
+        <v>-48</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="2">
-        <v>43742</v>
+        <v>38625</v>
       </c>
       <c r="B197">
-        <v>-48</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="2">
-        <v>43749</v>
+        <v>38632</v>
       </c>
       <c r="B198">
-        <v>-55</v>
+        <v>-37</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="2">
-        <v>43756</v>
+        <v>38639</v>
       </c>
       <c r="B199">
-        <v>-38</v>
+        <v>-45</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="2">
-        <v>43763</v>
+        <v>38646</v>
       </c>
       <c r="B200">
-        <v>-22</v>
+        <v>-68</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="2">
-        <v>43770</v>
+        <v>38653</v>
       </c>
       <c r="B201">
-        <v>-32</v>
+        <v>-68</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="2">
-        <v>43777</v>
+        <v>38660</v>
       </c>
       <c r="B202">
-        <v>-35</v>
+        <v>-57</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="2">
-        <v>43784</v>
+        <v>38667</v>
       </c>
       <c r="B203">
-        <v>-43</v>
+        <v>-47</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>43791</v>
+        <v>38674</v>
       </c>
       <c r="B204">
-        <v>-46</v>
+        <v>-41</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>43798</v>
+        <v>38681</v>
       </c>
       <c r="B205">
-        <v>-46</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>43805</v>
+        <v>38688</v>
       </c>
       <c r="B206">
-        <v>-44</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>43812</v>
+        <v>38695</v>
       </c>
       <c r="B207">
-        <v>-57</v>
+        <v>-17</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>43819</v>
+        <v>38702</v>
       </c>
       <c r="B208">
-        <v>-33</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>43826</v>
+        <v>38709</v>
       </c>
       <c r="B209">
-        <v>-27</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>43833</v>
+        <v>38716</v>
       </c>
       <c r="B210">
-        <v>-31</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>43840</v>
+        <v>38723</v>
       </c>
       <c r="B211">
-        <v>-61</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>43847</v>
+        <v>38730</v>
       </c>
       <c r="B212">
-        <v>-38</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>43854</v>
+        <v>38737</v>
       </c>
       <c r="B213">
-        <v>-37</v>
+        <v>-47</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>43861</v>
+        <v>38744</v>
       </c>
       <c r="B214">
-        <v>-75</v>
+        <v>-49</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>43868</v>
+        <v>38751</v>
       </c>
       <c r="B215">
-        <v>-95</v>
+        <v>-48</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>43875</v>
+        <v>38758</v>
       </c>
       <c r="B216">
-        <v>-81</v>
+        <v>-38</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>43882</v>
+        <v>38765</v>
       </c>
       <c r="B217">
-        <v>-76</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>43889</v>
+        <v>38772</v>
       </c>
       <c r="B218">
-        <v>-126</v>
+        <v>-48</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>43896</v>
+        <v>38779</v>
       </c>
       <c r="B219">
-        <v>-106</v>
+        <v>-46</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>43903</v>
+        <v>38786</v>
       </c>
       <c r="B220">
-        <v>-61</v>
+        <v>-48</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>43910</v>
+        <v>38793</v>
       </c>
       <c r="B221">
         <v>-46</v>
@@ -2156,423 +2156,423 @@
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>43917</v>
+        <v>38800</v>
       </c>
       <c r="B222">
-        <v>-45</v>
+        <v>-41</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>43924</v>
+        <v>38807</v>
       </c>
       <c r="B223">
-        <v>-37</v>
+        <v>-31</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>43931</v>
+        <v>38814</v>
       </c>
       <c r="B224">
-        <v>-11</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>43938</v>
+        <v>38821</v>
       </c>
       <c r="B225">
-        <v>-6</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>43945</v>
+        <v>38828</v>
       </c>
       <c r="B226">
-        <v>-25</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>43952</v>
+        <v>38835</v>
       </c>
       <c r="B227">
-        <v>-3</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>43959</v>
+        <v>38842</v>
       </c>
       <c r="B228">
-        <v>-11</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>43966</v>
+        <v>38849</v>
       </c>
       <c r="B229">
-        <v>-98</v>
+        <v>-32</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>43973</v>
+        <v>38856</v>
       </c>
       <c r="B230">
-        <v>-64</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>43980</v>
+        <v>38863</v>
       </c>
       <c r="B231">
-        <v>-50</v>
+        <v>-58</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>43987</v>
+        <v>38870</v>
       </c>
       <c r="B232">
-        <v>-8</v>
+        <v>-58</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>43994</v>
+        <v>38877</v>
       </c>
       <c r="B233">
-        <v>-26</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44001</v>
+        <v>38884</v>
       </c>
       <c r="B234">
-        <v>-26</v>
+        <v>-73</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44008</v>
+        <v>38891</v>
       </c>
       <c r="B235">
-        <v>-19</v>
+        <v>-83</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44015</v>
+        <v>38898</v>
       </c>
       <c r="B236">
-        <v>-11</v>
+        <v>-63</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44022</v>
+        <v>38905</v>
       </c>
       <c r="B237">
-        <v>-17</v>
+        <v>-45</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44029</v>
+        <v>38912</v>
       </c>
       <c r="B238">
-        <v>-16</v>
+        <v>-73</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44036</v>
+        <v>38919</v>
       </c>
       <c r="B239">
-        <v>-23</v>
+        <v>-60</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44043</v>
+        <v>38926</v>
       </c>
       <c r="B240">
-        <v>-25</v>
+        <v>-41</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44050</v>
+        <v>38933</v>
       </c>
       <c r="B241">
-        <v>-17</v>
+        <v>-41</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44057</v>
+        <v>38940</v>
       </c>
       <c r="B242">
-        <v>-15</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44064</v>
+        <v>38947</v>
       </c>
       <c r="B243">
-        <v>-15</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44071</v>
+        <v>38954</v>
       </c>
       <c r="B244">
-        <v>-11</v>
+        <v>-59</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44078</v>
+        <v>38961</v>
       </c>
       <c r="B245">
-        <v>-13</v>
+        <v>-41</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44085</v>
+        <v>38968</v>
       </c>
       <c r="B246">
-        <v>-19</v>
+        <v>-38</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44092</v>
+        <v>38975</v>
       </c>
       <c r="B247">
-        <v>-16</v>
+        <v>-73</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44099</v>
+        <v>38982</v>
       </c>
       <c r="B248">
-        <v>-57</v>
+        <v>-34</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44106</v>
+        <v>38989</v>
       </c>
       <c r="B249">
-        <v>-46</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44113</v>
+        <v>38996</v>
       </c>
       <c r="B250">
-        <v>-28</v>
+        <v>-29</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44120</v>
+        <v>39003</v>
       </c>
       <c r="B251">
-        <v>-35</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44127</v>
+        <v>39010</v>
       </c>
       <c r="B252">
-        <v>-29</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44134</v>
+        <v>39017</v>
       </c>
       <c r="B253">
-        <v>-55</v>
+        <v>-28</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44141</v>
+        <v>39024</v>
       </c>
       <c r="B254">
-        <v>-33</v>
+        <v>-31</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44148</v>
+        <v>39031</v>
       </c>
       <c r="B255">
-        <v>-24</v>
+        <v>-32</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44155</v>
+        <v>39038</v>
       </c>
       <c r="B256">
-        <v>-21</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44162</v>
+        <v>39045</v>
       </c>
       <c r="B257">
-        <v>-25</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44169</v>
+        <v>39052</v>
       </c>
       <c r="B258">
-        <v>-30</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44176</v>
+        <v>39059</v>
       </c>
       <c r="B259">
-        <v>-59</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44183</v>
+        <v>39066</v>
       </c>
       <c r="B260">
-        <v>-50</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44190</v>
+        <v>39073</v>
       </c>
       <c r="B261">
-        <v>-60</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44197</v>
+        <v>39080</v>
       </c>
       <c r="B262">
-        <v>-54</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44204</v>
+        <v>39087</v>
       </c>
       <c r="B263">
-        <v>-43</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44211</v>
+        <v>39094</v>
       </c>
       <c r="B264">
-        <v>-51</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44218</v>
+        <v>39101</v>
       </c>
       <c r="B265">
-        <v>-63</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44225</v>
+        <v>39108</v>
       </c>
       <c r="B266">
-        <v>-74</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44232</v>
+        <v>39115</v>
       </c>
       <c r="B267">
-        <v>-74</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44239</v>
+        <v>39122</v>
       </c>
       <c r="B268">
-        <v>-72</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44246</v>
+        <v>39129</v>
       </c>
       <c r="B269">
-        <v>-20</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44253</v>
+        <v>39136</v>
       </c>
       <c r="B270">
-        <v>-13</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44260</v>
+        <v>39143</v>
       </c>
       <c r="B271">
-        <v>-34</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44267</v>
+        <v>39150</v>
       </c>
       <c r="B272">
-        <v>-24</v>
+        <v>-32</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44274</v>
+        <v>39157</v>
       </c>
       <c r="B273">
-        <v>-26</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44281</v>
+        <v>39164</v>
       </c>
       <c r="B274">
         <v>-25</v>
@@ -2580,495 +2580,495 @@
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44288</v>
+        <v>39171</v>
       </c>
       <c r="B275">
-        <v>-24</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44295</v>
+        <v>39178</v>
       </c>
       <c r="B276">
-        <v>-18</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44302</v>
+        <v>39185</v>
       </c>
       <c r="B277">
-        <v>-28</v>
+        <v>-17</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44309</v>
+        <v>39192</v>
       </c>
       <c r="B278">
-        <v>-42</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44316</v>
+        <v>39199</v>
       </c>
       <c r="B279">
-        <v>-40</v>
+        <v>-31</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44323</v>
+        <v>39206</v>
       </c>
       <c r="B280">
-        <v>-67</v>
+        <v>-45</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44330</v>
+        <v>39213</v>
       </c>
       <c r="B281">
-        <v>-62</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44337</v>
+        <v>39220</v>
       </c>
       <c r="B282">
-        <v>-61</v>
+        <v>-65</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44344</v>
+        <v>39227</v>
       </c>
       <c r="B283">
-        <v>-51</v>
+        <v>-52</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44351</v>
+        <v>39234</v>
       </c>
       <c r="B284">
-        <v>-46</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44358</v>
+        <v>39241</v>
       </c>
       <c r="B285">
-        <v>-41</v>
+        <v>-32</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44365</v>
+        <v>39248</v>
       </c>
       <c r="B286">
-        <v>-23</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44372</v>
+        <v>39255</v>
       </c>
       <c r="B287">
-        <v>-17</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44379</v>
+        <v>39262</v>
       </c>
       <c r="B288">
-        <v>-34</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44386</v>
+        <v>39269</v>
       </c>
       <c r="B289">
-        <v>-35</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44393</v>
+        <v>39276</v>
       </c>
       <c r="B290">
-        <v>-26</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44400</v>
+        <v>39283</v>
       </c>
       <c r="B291">
-        <v>-40</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44407</v>
+        <v>39290</v>
       </c>
       <c r="B292">
-        <v>-75</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44414</v>
+        <v>39297</v>
       </c>
       <c r="B293">
-        <v>-71</v>
+        <v>-28</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44421</v>
+        <v>39304</v>
       </c>
       <c r="B294">
-        <v>-110</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44428</v>
+        <v>39311</v>
       </c>
       <c r="B295">
-        <v>-133</v>
+        <v>-48</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44435</v>
+        <v>39318</v>
       </c>
       <c r="B296">
-        <v>-125</v>
+        <v>-46</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44442</v>
+        <v>39325</v>
       </c>
       <c r="B297">
-        <v>-94</v>
+        <v>-42</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44449</v>
+        <v>39332</v>
       </c>
       <c r="B298">
-        <v>-119</v>
+        <v>-45</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44456</v>
+        <v>39339</v>
       </c>
       <c r="B299">
-        <v>-126</v>
+        <v>-49</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44463</v>
+        <v>39346</v>
       </c>
       <c r="B300">
-        <v>-112</v>
+        <v>-52</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44470</v>
+        <v>39353</v>
       </c>
       <c r="B301">
-        <v>-101</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44477</v>
+        <v>39360</v>
       </c>
       <c r="B302">
-        <v>-100</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44484</v>
+        <v>39367</v>
       </c>
       <c r="B303">
-        <v>-108</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44491</v>
+        <v>39374</v>
       </c>
       <c r="B304">
-        <v>-79</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44498</v>
+        <v>39381</v>
       </c>
       <c r="B305">
-        <v>-35</v>
+        <v>-62</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44505</v>
+        <v>39388</v>
       </c>
       <c r="B306">
-        <v>-28</v>
+        <v>-96</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44512</v>
+        <v>39395</v>
       </c>
       <c r="B307">
-        <v>-42</v>
+        <v>-125</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44519</v>
+        <v>39402</v>
       </c>
       <c r="B308">
-        <v>-55</v>
+        <v>-125</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44526</v>
+        <v>39409</v>
       </c>
       <c r="B309">
-        <v>-86</v>
+        <v>-141</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44533</v>
+        <v>39416</v>
       </c>
       <c r="B310">
-        <v>-64</v>
+        <v>-157</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44540</v>
+        <v>39423</v>
       </c>
       <c r="B311">
-        <v>-80</v>
+        <v>-139</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44547</v>
+        <v>39430</v>
       </c>
       <c r="B312">
-        <v>-100</v>
+        <v>-180</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44554</v>
+        <v>39437</v>
       </c>
       <c r="B313">
-        <v>-73</v>
+        <v>-165</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44561</v>
+        <v>39444</v>
       </c>
       <c r="B314">
-        <v>-39</v>
+        <v>-112</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44568</v>
+        <v>39451</v>
       </c>
       <c r="B315">
-        <v>-80</v>
+        <v>-94</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44575</v>
+        <v>39458</v>
       </c>
       <c r="B316">
-        <v>-122</v>
+        <v>-138</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44582</v>
+        <v>39465</v>
       </c>
       <c r="B317">
-        <v>-134</v>
+        <v>-147</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44589</v>
+        <v>39472</v>
       </c>
       <c r="B318">
-        <v>-150</v>
+        <v>-169</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44596</v>
+        <v>39479</v>
       </c>
       <c r="B319">
-        <v>-150</v>
+        <v>-162</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44603</v>
+        <v>39486</v>
       </c>
       <c r="B320">
-        <v>-50</v>
+        <v>-159</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44610</v>
+        <v>39493</v>
       </c>
       <c r="B321">
-        <v>-37</v>
+        <v>-145</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44617</v>
+        <v>39500</v>
       </c>
       <c r="B322">
-        <v>-73</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44624</v>
+        <v>39507</v>
       </c>
       <c r="B323">
-        <v>-48</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44631</v>
+        <v>39514</v>
       </c>
       <c r="B324">
-        <v>-65</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44638</v>
+        <v>39521</v>
       </c>
       <c r="B325">
-        <v>-68</v>
+        <v>-118</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44645</v>
+        <v>39528</v>
       </c>
       <c r="B326">
-        <v>-62</v>
+        <v>-81</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44652</v>
+        <v>39535</v>
       </c>
       <c r="B327">
-        <v>-66</v>
+        <v>-41</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44659</v>
+        <v>39542</v>
       </c>
       <c r="B328">
-        <v>-103</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44666</v>
+        <v>39549</v>
       </c>
       <c r="B329">
-        <v>-141</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44673</v>
+        <v>39556</v>
       </c>
       <c r="B330">
-        <v>-127</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44680</v>
+        <v>39563</v>
       </c>
       <c r="B331">
-        <v>-148</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44687</v>
+        <v>39570</v>
       </c>
       <c r="B332">
-        <v>-145</v>
+        <v>-27</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44694</v>
+        <v>39577</v>
       </c>
       <c r="B333">
-        <v>-145</v>
+        <v>-29</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44701</v>
+        <v>39584</v>
       </c>
       <c r="B334">
-        <v>-116</v>
+        <v>-17</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44708</v>
+        <v>39591</v>
       </c>
       <c r="B335">
-        <v>-110</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44715</v>
+        <v>39598</v>
       </c>
       <c r="B336">
         <v>-46</v>
@@ -3076,306 +3076,6266 @@
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44722</v>
+        <v>39605</v>
       </c>
       <c r="B337">
-        <v>-60</v>
+        <v>-43</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44729</v>
+        <v>39612</v>
       </c>
       <c r="B338">
-        <v>-126</v>
+        <v>-60</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44736</v>
+        <v>39619</v>
       </c>
       <c r="B339">
-        <v>-114</v>
+        <v>-64</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44743</v>
+        <v>39626</v>
       </c>
       <c r="B340">
-        <v>-91</v>
+        <v>-53</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44750</v>
+        <v>39633</v>
       </c>
       <c r="B341">
-        <v>-86</v>
+        <v>-56</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44757</v>
+        <v>39640</v>
       </c>
       <c r="B342">
-        <v>-77</v>
+        <v>-59</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44764</v>
+        <v>39647</v>
       </c>
       <c r="B343">
-        <v>-45</v>
+        <v>-67</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44771</v>
+        <v>39654</v>
       </c>
       <c r="B344">
-        <v>-29</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44778</v>
+        <v>39661</v>
       </c>
       <c r="B345">
-        <v>-77</v>
+        <v>-57</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44785</v>
+        <v>39668</v>
       </c>
       <c r="B346">
-        <v>-36</v>
+        <v>-48</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44792</v>
+        <v>39675</v>
       </c>
       <c r="B347">
-        <v>-13</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44799</v>
+        <v>39682</v>
       </c>
       <c r="B348">
-        <v>-31</v>
+        <v>-114</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44806</v>
+        <v>39689</v>
       </c>
       <c r="B349">
-        <v>-95</v>
+        <v>-79</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44813</v>
+        <v>39696</v>
       </c>
       <c r="B350">
-        <v>-117</v>
+        <v>-101</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44820</v>
+        <v>39703</v>
       </c>
       <c r="B351">
-        <v>-106</v>
+        <v>-114</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44827</v>
+        <v>39710</v>
       </c>
       <c r="B352">
-        <v>-118</v>
+        <v>-93</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44834</v>
+        <v>39717</v>
       </c>
       <c r="B353">
-        <v>-124</v>
+        <v>-83</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44841</v>
+        <v>39724</v>
       </c>
       <c r="B354">
-        <v>-119</v>
+        <v>-72</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44848</v>
+        <v>39731</v>
       </c>
       <c r="B355">
-        <v>-119</v>
+        <v>-54</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44855</v>
+        <v>39738</v>
       </c>
       <c r="B356">
-        <v>-118</v>
+        <v>-52</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44862</v>
+        <v>39745</v>
       </c>
       <c r="B357">
-        <v>-124</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44869</v>
+        <v>39752</v>
       </c>
       <c r="B358">
-        <v>-57</v>
+        <v>-38</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44876</v>
+        <v>39759</v>
       </c>
       <c r="B359">
-        <v>-20</v>
+        <v>-43</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44883</v>
+        <v>39766</v>
       </c>
       <c r="B360">
-        <v>-13</v>
+        <v>-46</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44890</v>
+        <v>39773</v>
       </c>
       <c r="B361">
-        <v>-13</v>
+        <v>-61</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44897</v>
+        <v>39780</v>
       </c>
       <c r="B362">
-        <v>-2</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44904</v>
+        <v>39787</v>
       </c>
       <c r="B363">
-        <v>-32</v>
+        <v>-56</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44911</v>
+        <v>39794</v>
       </c>
       <c r="B364">
-        <v>-62</v>
+        <v>-44</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44918</v>
+        <v>39801</v>
       </c>
       <c r="B365">
-        <v>-94</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44925</v>
+        <v>39808</v>
       </c>
       <c r="B366">
-        <v>-109</v>
+        <v>-79</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44932</v>
+        <v>39815</v>
       </c>
       <c r="B367">
-        <v>-100</v>
+        <v>-27</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44939</v>
+        <v>39822</v>
       </c>
       <c r="B368">
-        <v>-90</v>
+        <v>-29</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44946</v>
+        <v>39829</v>
       </c>
       <c r="B369">
-        <v>-69</v>
+        <v>-77</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44953</v>
+        <v>39836</v>
       </c>
       <c r="B370">
-        <v>-58</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44960</v>
+        <v>39843</v>
       </c>
       <c r="B371">
-        <v>-5</v>
+        <v>-95</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44967</v>
+        <v>39850</v>
       </c>
       <c r="B372">
-        <v>-4</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44974</v>
+        <v>39857</v>
       </c>
       <c r="B373">
-        <v>-5</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
+        <v>39864</v>
+      </c>
+      <c r="B374">
+        <v>-31</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" s="2">
+        <v>39871</v>
+      </c>
+      <c r="B375">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" s="2">
+        <v>39878</v>
+      </c>
+      <c r="B376">
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" s="2">
+        <v>39885</v>
+      </c>
+      <c r="B377">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" s="2">
+        <v>39892</v>
+      </c>
+      <c r="B378">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" s="2">
+        <v>39899</v>
+      </c>
+      <c r="B379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" s="2">
+        <v>39906</v>
+      </c>
+      <c r="B380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" s="2">
+        <v>39913</v>
+      </c>
+      <c r="B381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" s="2">
+        <v>39920</v>
+      </c>
+      <c r="B382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" s="2">
+        <v>39927</v>
+      </c>
+      <c r="B383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" s="2">
+        <v>39934</v>
+      </c>
+      <c r="B384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" s="2">
+        <v>39941</v>
+      </c>
+      <c r="B385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" s="2">
+        <v>39948</v>
+      </c>
+      <c r="B386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" s="2">
+        <v>39955</v>
+      </c>
+      <c r="B387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" s="2">
+        <v>39962</v>
+      </c>
+      <c r="B388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" s="2">
+        <v>39969</v>
+      </c>
+      <c r="B389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" s="2">
+        <v>39976</v>
+      </c>
+      <c r="B390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" s="2">
+        <v>39983</v>
+      </c>
+      <c r="B391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" s="2">
+        <v>39990</v>
+      </c>
+      <c r="B392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" s="2">
+        <v>39997</v>
+      </c>
+      <c r="B393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" s="2">
+        <v>40004</v>
+      </c>
+      <c r="B394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" s="2">
+        <v>40011</v>
+      </c>
+      <c r="B395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396" s="2">
+        <v>40018</v>
+      </c>
+      <c r="B396">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397" s="2">
+        <v>40025</v>
+      </c>
+      <c r="B397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398" s="2">
+        <v>40032</v>
+      </c>
+      <c r="B398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399" s="2">
+        <v>40039</v>
+      </c>
+      <c r="B399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2">
+      <c r="A400" s="2">
+        <v>40046</v>
+      </c>
+      <c r="B400">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401" s="2">
+        <v>40053</v>
+      </c>
+      <c r="B401">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402" s="2">
+        <v>40060</v>
+      </c>
+      <c r="B402">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" s="2">
+        <v>40067</v>
+      </c>
+      <c r="B403">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="A404" s="2">
+        <v>40074</v>
+      </c>
+      <c r="B404">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405" s="2">
+        <v>40081</v>
+      </c>
+      <c r="B405">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406" s="2">
+        <v>40088</v>
+      </c>
+      <c r="B406">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407" s="2">
+        <v>40095</v>
+      </c>
+      <c r="B407">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408" s="2">
+        <v>40102</v>
+      </c>
+      <c r="B408">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409" s="2">
+        <v>40109</v>
+      </c>
+      <c r="B409">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="A410" s="2">
+        <v>40116</v>
+      </c>
+      <c r="B410">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411" s="2">
+        <v>40123</v>
+      </c>
+      <c r="B411">
+        <v>-31</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412" s="2">
+        <v>40130</v>
+      </c>
+      <c r="B412">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2">
+      <c r="A413" s="2">
+        <v>40137</v>
+      </c>
+      <c r="B413">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2">
+      <c r="A414" s="2">
+        <v>40144</v>
+      </c>
+      <c r="B414">
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="A415" s="2">
+        <v>40151</v>
+      </c>
+      <c r="B415">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2">
+      <c r="A416" s="2">
+        <v>40158</v>
+      </c>
+      <c r="B416">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="A417" s="2">
+        <v>40165</v>
+      </c>
+      <c r="B417">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
+      <c r="A418" s="2">
+        <v>40172</v>
+      </c>
+      <c r="B418">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2">
+      <c r="A419" s="2">
+        <v>40179</v>
+      </c>
+      <c r="B419">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
+      <c r="A420" s="2">
+        <v>40186</v>
+      </c>
+      <c r="B420">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
+      <c r="A421" s="2">
+        <v>40193</v>
+      </c>
+      <c r="B421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2">
+      <c r="A422" s="2">
+        <v>40200</v>
+      </c>
+      <c r="B422">
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
+      <c r="A423" s="2">
+        <v>40207</v>
+      </c>
+      <c r="B423">
+        <v>-31</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="A424" s="2">
+        <v>40214</v>
+      </c>
+      <c r="B424">
+        <v>-54</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2">
+      <c r="A425" s="2">
+        <v>40221</v>
+      </c>
+      <c r="B425">
+        <v>-54</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2">
+      <c r="A426" s="2">
+        <v>40228</v>
+      </c>
+      <c r="B426">
+        <v>-53</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2">
+      <c r="A427" s="2">
+        <v>40235</v>
+      </c>
+      <c r="B427">
+        <v>-89</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2">
+      <c r="A428" s="2">
+        <v>40242</v>
+      </c>
+      <c r="B428">
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2">
+      <c r="A429" s="2">
+        <v>40249</v>
+      </c>
+      <c r="B429">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2">
+      <c r="A430" s="2">
+        <v>40256</v>
+      </c>
+      <c r="B430">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2">
+      <c r="A431" s="2">
+        <v>40263</v>
+      </c>
+      <c r="B431">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2">
+      <c r="A432" s="2">
+        <v>40270</v>
+      </c>
+      <c r="B432">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2">
+      <c r="A433" s="2">
+        <v>40277</v>
+      </c>
+      <c r="B433">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2">
+      <c r="A434" s="2">
+        <v>40284</v>
+      </c>
+      <c r="B434">
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2">
+      <c r="A435" s="2">
+        <v>40291</v>
+      </c>
+      <c r="B435">
+        <v>-41</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
+      <c r="A436" s="2">
+        <v>40298</v>
+      </c>
+      <c r="B436">
+        <v>-63</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2">
+      <c r="A437" s="2">
+        <v>40305</v>
+      </c>
+      <c r="B437">
+        <v>-109</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
+      <c r="A438" s="2">
+        <v>40312</v>
+      </c>
+      <c r="B438">
+        <v>-108</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2">
+      <c r="A439" s="2">
+        <v>40319</v>
+      </c>
+      <c r="B439">
+        <v>-149</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2">
+      <c r="A440" s="2">
+        <v>40326</v>
+      </c>
+      <c r="B440">
+        <v>-151</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2">
+      <c r="A441" s="2">
+        <v>40333</v>
+      </c>
+      <c r="B441">
+        <v>-140</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2">
+      <c r="A442" s="2">
+        <v>40340</v>
+      </c>
+      <c r="B442">
+        <v>-148</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2">
+      <c r="A443" s="2">
+        <v>40347</v>
+      </c>
+      <c r="B443">
+        <v>-89</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2">
+      <c r="A444" s="2">
+        <v>40354</v>
+      </c>
+      <c r="B444">
+        <v>-71</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2">
+      <c r="A445" s="2">
+        <v>40361</v>
+      </c>
+      <c r="B445">
+        <v>-103</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
+      <c r="A446" s="2">
+        <v>40368</v>
+      </c>
+      <c r="B446">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2">
+      <c r="A447" s="2">
+        <v>40375</v>
+      </c>
+      <c r="B447">
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2">
+      <c r="A448" s="2">
+        <v>40382</v>
+      </c>
+      <c r="B448">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2">
+      <c r="A449" s="2">
+        <v>40389</v>
+      </c>
+      <c r="B449">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
+      <c r="A450" s="2">
+        <v>40396</v>
+      </c>
+      <c r="B450">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2">
+      <c r="A451" s="2">
+        <v>40403</v>
+      </c>
+      <c r="B451">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
+      <c r="A452" s="2">
+        <v>40410</v>
+      </c>
+      <c r="B452">
+        <v>-58</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
+      <c r="A453" s="2">
+        <v>40417</v>
+      </c>
+      <c r="B453">
+        <v>-112</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2">
+      <c r="A454" s="2">
+        <v>40424</v>
+      </c>
+      <c r="B454">
+        <v>-115</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2">
+      <c r="A455" s="2">
+        <v>40431</v>
+      </c>
+      <c r="B455">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2">
+      <c r="A456" s="2">
+        <v>40438</v>
+      </c>
+      <c r="B456">
+        <v>-71</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2">
+      <c r="A457" s="2">
+        <v>40445</v>
+      </c>
+      <c r="B457">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2">
+      <c r="A458" s="2">
+        <v>40452</v>
+      </c>
+      <c r="B458">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
+      <c r="A459" s="2">
+        <v>40459</v>
+      </c>
+      <c r="B459">
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2">
+      <c r="A460" s="2">
+        <v>40466</v>
+      </c>
+      <c r="B460">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2">
+      <c r="A461" s="2">
+        <v>40473</v>
+      </c>
+      <c r="B461">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462" s="2">
+        <v>40480</v>
+      </c>
+      <c r="B462">
+        <v>-42</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463" s="2">
+        <v>40487</v>
+      </c>
+      <c r="B463">
+        <v>-51</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2">
+      <c r="A464" s="2">
+        <v>40494</v>
+      </c>
+      <c r="B464">
+        <v>-57</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
+      <c r="A465" s="2">
+        <v>40501</v>
+      </c>
+      <c r="B465">
+        <v>-55</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2">
+      <c r="A466" s="2">
+        <v>40508</v>
+      </c>
+      <c r="B466">
+        <v>-47</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2">
+      <c r="A467" s="2">
+        <v>40515</v>
+      </c>
+      <c r="B467">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
+      <c r="A468" s="2">
+        <v>40522</v>
+      </c>
+      <c r="B468">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="A469" s="2">
+        <v>40529</v>
+      </c>
+      <c r="B469">
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
+      <c r="A470" s="2">
+        <v>40536</v>
+      </c>
+      <c r="B470">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
+      <c r="A471" s="2">
+        <v>40543</v>
+      </c>
+      <c r="B471">
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
+      <c r="A472" s="2">
+        <v>40550</v>
+      </c>
+      <c r="B472">
+        <v>-54</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
+      <c r="A473" s="2">
+        <v>40557</v>
+      </c>
+      <c r="B473">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2">
+      <c r="A474" s="2">
+        <v>40564</v>
+      </c>
+      <c r="B474">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2">
+      <c r="A475" s="2">
+        <v>40571</v>
+      </c>
+      <c r="B475">
+        <v>-52</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2">
+      <c r="A476" s="2">
+        <v>40578</v>
+      </c>
+      <c r="B476">
+        <v>-48</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2">
+      <c r="A477" s="2">
+        <v>40585</v>
+      </c>
+      <c r="B477">
+        <v>-98</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2">
+      <c r="A478" s="2">
+        <v>40592</v>
+      </c>
+      <c r="B478">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
+      <c r="A479" s="2">
+        <v>40599</v>
+      </c>
+      <c r="B479">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
+      <c r="A480" s="2">
+        <v>40606</v>
+      </c>
+      <c r="B480">
+        <v>-116</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2">
+      <c r="A481" s="2">
+        <v>40613</v>
+      </c>
+      <c r="B481">
+        <v>-112</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2">
+      <c r="A482" s="2">
+        <v>40620</v>
+      </c>
+      <c r="B482">
+        <v>-166</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2">
+      <c r="A483" s="2">
+        <v>40627</v>
+      </c>
+      <c r="B483">
+        <v>-124</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2">
+      <c r="A484" s="2">
+        <v>40634</v>
+      </c>
+      <c r="B484">
+        <v>-113</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2">
+      <c r="A485" s="2">
+        <v>40641</v>
+      </c>
+      <c r="B485">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2">
+      <c r="A486" s="2">
+        <v>40648</v>
+      </c>
+      <c r="B486">
+        <v>-69</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2">
+      <c r="A487" s="2">
+        <v>40655</v>
+      </c>
+      <c r="B487">
+        <v>-52</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2">
+      <c r="A488" s="2">
+        <v>40662</v>
+      </c>
+      <c r="B488">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2">
+      <c r="A489" s="2">
+        <v>40669</v>
+      </c>
+      <c r="B489">
+        <v>-78</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2">
+      <c r="A490" s="2">
+        <v>40676</v>
+      </c>
+      <c r="B490">
+        <v>-78</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2">
+      <c r="A491" s="2">
+        <v>40683</v>
+      </c>
+      <c r="B491">
+        <v>-109</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2">
+      <c r="A492" s="2">
+        <v>40690</v>
+      </c>
+      <c r="B492">
+        <v>-108</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2">
+      <c r="A493" s="2">
+        <v>40697</v>
+      </c>
+      <c r="B493">
+        <v>-81</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2">
+      <c r="A494" s="2">
+        <v>40704</v>
+      </c>
+      <c r="B494">
+        <v>-96</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2">
+      <c r="A495" s="2">
+        <v>40711</v>
+      </c>
+      <c r="B495">
+        <v>-144</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2">
+      <c r="A496" s="2">
+        <v>40718</v>
+      </c>
+      <c r="B496">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2">
+      <c r="A497" s="2">
+        <v>40725</v>
+      </c>
+      <c r="B497">
+        <v>-108</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2">
+      <c r="A498" s="2">
+        <v>40732</v>
+      </c>
+      <c r="B498">
+        <v>-98</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2">
+      <c r="A499" s="2">
+        <v>40739</v>
+      </c>
+      <c r="B499">
+        <v>-133</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2">
+      <c r="A500" s="2">
+        <v>40746</v>
+      </c>
+      <c r="B500">
+        <v>-106</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2">
+      <c r="A501" s="2">
+        <v>40753</v>
+      </c>
+      <c r="B501">
+        <v>-114</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2">
+      <c r="A502" s="2">
+        <v>40760</v>
+      </c>
+      <c r="B502">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2">
+      <c r="A503" s="2">
+        <v>40767</v>
+      </c>
+      <c r="B503">
+        <v>-129</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2">
+      <c r="A504" s="2">
+        <v>40774</v>
+      </c>
+      <c r="B504">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2">
+      <c r="A505" s="2">
+        <v>40781</v>
+      </c>
+      <c r="B505">
+        <v>-122</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2">
+      <c r="A506" s="2">
+        <v>40788</v>
+      </c>
+      <c r="B506">
+        <v>-97</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2">
+      <c r="A507" s="2">
+        <v>40795</v>
+      </c>
+      <c r="B507">
+        <v>-96</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2">
+      <c r="A508" s="2">
+        <v>40802</v>
+      </c>
+      <c r="B508">
+        <v>-97</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2">
+      <c r="A509" s="2">
+        <v>40809</v>
+      </c>
+      <c r="B509">
+        <v>-136</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2">
+      <c r="A510" s="2">
+        <v>40816</v>
+      </c>
+      <c r="B510">
+        <v>-129</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2">
+      <c r="A511" s="2">
+        <v>40823</v>
+      </c>
+      <c r="B511">
+        <v>-137</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2">
+      <c r="A512" s="2">
+        <v>40830</v>
+      </c>
+      <c r="B512">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2">
+      <c r="A513" s="2">
+        <v>40837</v>
+      </c>
+      <c r="B513">
+        <v>-93</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2">
+      <c r="A514" s="2">
+        <v>40844</v>
+      </c>
+      <c r="B514">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2">
+      <c r="A515" s="2">
+        <v>40851</v>
+      </c>
+      <c r="B515">
+        <v>-62</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2">
+      <c r="A516" s="2">
+        <v>40858</v>
+      </c>
+      <c r="B516">
+        <v>-123</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2">
+      <c r="A517" s="2">
+        <v>40865</v>
+      </c>
+      <c r="B517">
+        <v>-140</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2">
+      <c r="A518" s="2">
+        <v>40872</v>
+      </c>
+      <c r="B518">
+        <v>-155</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2">
+      <c r="A519" s="2">
+        <v>40879</v>
+      </c>
+      <c r="B519">
+        <v>-142</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2">
+      <c r="A520" s="2">
+        <v>40886</v>
+      </c>
+      <c r="B520">
+        <v>-146</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2">
+      <c r="A521" s="2">
+        <v>40893</v>
+      </c>
+      <c r="B521">
+        <v>-153</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2">
+      <c r="A522" s="2">
+        <v>40900</v>
+      </c>
+      <c r="B522">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2">
+      <c r="A523" s="2">
+        <v>40907</v>
+      </c>
+      <c r="B523">
+        <v>-76</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2">
+      <c r="A524" s="2">
+        <v>40914</v>
+      </c>
+      <c r="B524">
+        <v>-48</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2">
+      <c r="A525" s="2">
+        <v>40921</v>
+      </c>
+      <c r="B525">
+        <v>-59</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2">
+      <c r="A526" s="2">
+        <v>40928</v>
+      </c>
+      <c r="B526">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2">
+      <c r="A527" s="2">
+        <v>40935</v>
+      </c>
+      <c r="B527">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2">
+      <c r="A528" s="2">
+        <v>40942</v>
+      </c>
+      <c r="B528">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2">
+      <c r="A529" s="2">
+        <v>40949</v>
+      </c>
+      <c r="B529">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2">
+      <c r="A530" s="2">
+        <v>40956</v>
+      </c>
+      <c r="B530">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2">
+      <c r="A531" s="2">
+        <v>40963</v>
+      </c>
+      <c r="B531">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2">
+      <c r="A532" s="2">
+        <v>40970</v>
+      </c>
+      <c r="B532">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2">
+      <c r="A533" s="2">
+        <v>40977</v>
+      </c>
+      <c r="B533">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2">
+      <c r="A534" s="2">
+        <v>40984</v>
+      </c>
+      <c r="B534">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2">
+      <c r="A535" s="2">
+        <v>40991</v>
+      </c>
+      <c r="B535">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2">
+      <c r="A536" s="2">
+        <v>40998</v>
+      </c>
+      <c r="B536">
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2">
+      <c r="A537" s="2">
+        <v>41005</v>
+      </c>
+      <c r="B537">
+        <v>-43</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2">
+      <c r="A538" s="2">
+        <v>41012</v>
+      </c>
+      <c r="B538">
+        <v>-43</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2">
+      <c r="A539" s="2">
+        <v>41019</v>
+      </c>
+      <c r="B539">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2">
+      <c r="A540" s="2">
+        <v>41026</v>
+      </c>
+      <c r="B540">
+        <v>-48</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2">
+      <c r="A541" s="2">
+        <v>41033</v>
+      </c>
+      <c r="B541">
+        <v>-33</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2">
+      <c r="A542" s="2">
+        <v>41040</v>
+      </c>
+      <c r="B542">
+        <v>-33</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2">
+      <c r="A543" s="2">
+        <v>41047</v>
+      </c>
+      <c r="B543">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2">
+      <c r="A544" s="2">
+        <v>41054</v>
+      </c>
+      <c r="B544">
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2">
+      <c r="A545" s="2">
+        <v>41061</v>
+      </c>
+      <c r="B545">
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2">
+      <c r="A546" s="2">
+        <v>41068</v>
+      </c>
+      <c r="B546">
+        <v>-37</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2">
+      <c r="A547" s="2">
+        <v>41075</v>
+      </c>
+      <c r="B547">
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2">
+      <c r="A548" s="2">
+        <v>41082</v>
+      </c>
+      <c r="B548">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2">
+      <c r="A549" s="2">
+        <v>41089</v>
+      </c>
+      <c r="B549">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2">
+      <c r="A550" s="2">
+        <v>41096</v>
+      </c>
+      <c r="B550">
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2">
+      <c r="A551" s="2">
+        <v>41103</v>
+      </c>
+      <c r="B551">
+        <v>-68</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2">
+      <c r="A552" s="2">
+        <v>41110</v>
+      </c>
+      <c r="B552">
+        <v>-58</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2">
+      <c r="A553" s="2">
+        <v>41117</v>
+      </c>
+      <c r="B553">
+        <v>-67</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2">
+      <c r="A554" s="2">
+        <v>41124</v>
+      </c>
+      <c r="B554">
+        <v>-57</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2">
+      <c r="A555" s="2">
+        <v>41131</v>
+      </c>
+      <c r="B555">
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2">
+      <c r="A556" s="2">
+        <v>41138</v>
+      </c>
+      <c r="B556">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2">
+      <c r="A557" s="2">
+        <v>41145</v>
+      </c>
+      <c r="B557">
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2">
+      <c r="A558" s="2">
+        <v>41152</v>
+      </c>
+      <c r="B558">
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2">
+      <c r="A559" s="2">
+        <v>41159</v>
+      </c>
+      <c r="B559">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2">
+      <c r="A560" s="2">
+        <v>41166</v>
+      </c>
+      <c r="B560">
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2">
+      <c r="A561" s="2">
+        <v>41173</v>
+      </c>
+      <c r="B561">
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2">
+      <c r="A562" s="2">
+        <v>41180</v>
+      </c>
+      <c r="B562">
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2">
+      <c r="A563" s="2">
+        <v>41187</v>
+      </c>
+      <c r="B563">
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2">
+      <c r="A564" s="2">
+        <v>41194</v>
+      </c>
+      <c r="B564">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2">
+      <c r="A565" s="2">
+        <v>41201</v>
+      </c>
+      <c r="B565">
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2">
+      <c r="A566" s="2">
+        <v>41208</v>
+      </c>
+      <c r="B566">
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2">
+      <c r="A567" s="2">
+        <v>41215</v>
+      </c>
+      <c r="B567">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2">
+      <c r="A568" s="2">
+        <v>41222</v>
+      </c>
+      <c r="B568">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2">
+      <c r="A569" s="2">
+        <v>41229</v>
+      </c>
+      <c r="B569">
+        <v>-41</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2">
+      <c r="A570" s="2">
+        <v>41236</v>
+      </c>
+      <c r="B570">
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2">
+      <c r="A571" s="2">
+        <v>41243</v>
+      </c>
+      <c r="B571">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2">
+      <c r="A572" s="2">
+        <v>41250</v>
+      </c>
+      <c r="B572">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2">
+      <c r="A573" s="2">
+        <v>41257</v>
+      </c>
+      <c r="B573">
+        <v>-27</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2">
+      <c r="A574" s="2">
+        <v>41264</v>
+      </c>
+      <c r="B574">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2">
+      <c r="A575" s="2">
+        <v>41271</v>
+      </c>
+      <c r="B575">
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2">
+      <c r="A576" s="2">
+        <v>41278</v>
+      </c>
+      <c r="B576">
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2">
+      <c r="A577" s="2">
+        <v>41285</v>
+      </c>
+      <c r="B577">
+        <v>-31</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2">
+      <c r="A578" s="2">
+        <v>41292</v>
+      </c>
+      <c r="B578">
+        <v>-56</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2">
+      <c r="A579" s="2">
+        <v>41299</v>
+      </c>
+      <c r="B579">
+        <v>-54</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2">
+      <c r="A580" s="2">
+        <v>41306</v>
+      </c>
+      <c r="B580">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2">
+      <c r="A581" s="2">
+        <v>41313</v>
+      </c>
+      <c r="B581">
+        <v>-42</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2">
+      <c r="A582" s="2">
+        <v>41320</v>
+      </c>
+      <c r="B582">
+        <v>-42</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2">
+      <c r="A583" s="2">
+        <v>41327</v>
+      </c>
+      <c r="B583">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2">
+      <c r="A584" s="2">
+        <v>41334</v>
+      </c>
+      <c r="B584">
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2">
+      <c r="A585" s="2">
+        <v>41341</v>
+      </c>
+      <c r="B585">
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2">
+      <c r="A586" s="2">
+        <v>41348</v>
+      </c>
+      <c r="B586">
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2">
+      <c r="A587" s="2">
+        <v>41355</v>
+      </c>
+      <c r="B587">
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2">
+      <c r="A588" s="2">
+        <v>41362</v>
+      </c>
+      <c r="B588">
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2">
+      <c r="A589" s="2">
+        <v>41369</v>
+      </c>
+      <c r="B589">
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2">
+      <c r="A590" s="2">
+        <v>41376</v>
+      </c>
+      <c r="B590">
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2">
+      <c r="A591" s="2">
+        <v>41383</v>
+      </c>
+      <c r="B591">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2">
+      <c r="A592" s="2">
+        <v>41390</v>
+      </c>
+      <c r="B592">
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2">
+      <c r="A593" s="2">
+        <v>41397</v>
+      </c>
+      <c r="B593">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2">
+      <c r="A594" s="2">
+        <v>41404</v>
+      </c>
+      <c r="B594">
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2">
+      <c r="A595" s="2">
+        <v>41411</v>
+      </c>
+      <c r="B595">
+        <v>-33</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2">
+      <c r="A596" s="2">
+        <v>41418</v>
+      </c>
+      <c r="B596">
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2">
+      <c r="A597" s="2">
+        <v>41425</v>
+      </c>
+      <c r="B597">
+        <v>-31</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2">
+      <c r="A598" s="2">
+        <v>41432</v>
+      </c>
+      <c r="B598">
+        <v>-54</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2">
+      <c r="A599" s="2">
+        <v>41439</v>
+      </c>
+      <c r="B599">
+        <v>-67</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2">
+      <c r="A600" s="2">
+        <v>41446</v>
+      </c>
+      <c r="B600">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2">
+      <c r="A601" s="2">
+        <v>41453</v>
+      </c>
+      <c r="B601">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2">
+      <c r="A602" s="2">
+        <v>41460</v>
+      </c>
+      <c r="B602">
+        <v>-71</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2">
+      <c r="A603" s="2">
+        <v>41467</v>
+      </c>
+      <c r="B603">
+        <v>-57</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2">
+      <c r="A604" s="2">
+        <v>41474</v>
+      </c>
+      <c r="B604">
+        <v>-56</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2">
+      <c r="A605" s="2">
+        <v>41481</v>
+      </c>
+      <c r="B605">
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2">
+      <c r="A606" s="2">
+        <v>41488</v>
+      </c>
+      <c r="B606">
+        <v>-52</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2">
+      <c r="A607" s="2">
+        <v>41495</v>
+      </c>
+      <c r="B607">
+        <v>-66</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2">
+      <c r="A608" s="2">
+        <v>41502</v>
+      </c>
+      <c r="B608">
+        <v>-67</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2">
+      <c r="A609" s="2">
+        <v>41509</v>
+      </c>
+      <c r="B609">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2">
+      <c r="A610" s="2">
+        <v>41516</v>
+      </c>
+      <c r="B610">
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2">
+      <c r="A611" s="2">
+        <v>41523</v>
+      </c>
+      <c r="B611">
+        <v>-47</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2">
+      <c r="A612" s="2">
+        <v>41530</v>
+      </c>
+      <c r="B612">
+        <v>-54</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2">
+      <c r="A613" s="2">
+        <v>41537</v>
+      </c>
+      <c r="B613">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2">
+      <c r="A614" s="2">
+        <v>41544</v>
+      </c>
+      <c r="B614">
+        <v>-37</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2">
+      <c r="A615" s="2">
+        <v>41551</v>
+      </c>
+      <c r="B615">
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2">
+      <c r="A616" s="2">
+        <v>41558</v>
+      </c>
+      <c r="B616">
+        <v>-52</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2">
+      <c r="A617" s="2">
+        <v>41565</v>
+      </c>
+      <c r="B617">
+        <v>-52</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2">
+      <c r="A618" s="2">
+        <v>41572</v>
+      </c>
+      <c r="B618">
+        <v>-56</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2">
+      <c r="A619" s="2">
+        <v>41579</v>
+      </c>
+      <c r="B619">
+        <v>-57</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2">
+      <c r="A620" s="2">
+        <v>41586</v>
+      </c>
+      <c r="B620">
+        <v>-66</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2">
+      <c r="A621" s="2">
+        <v>41593</v>
+      </c>
+      <c r="B621">
+        <v>-74</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2">
+      <c r="A622" s="2">
+        <v>41600</v>
+      </c>
+      <c r="B622">
+        <v>-85</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2">
+      <c r="A623" s="2">
+        <v>41607</v>
+      </c>
+      <c r="B623">
+        <v>-57</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2">
+      <c r="A624" s="2">
+        <v>41614</v>
+      </c>
+      <c r="B624">
+        <v>-52</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2">
+      <c r="A625" s="2">
+        <v>41621</v>
+      </c>
+      <c r="B625">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2">
+      <c r="A626" s="2">
+        <v>41628</v>
+      </c>
+      <c r="B626">
+        <v>-58</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2">
+      <c r="A627" s="2">
+        <v>41635</v>
+      </c>
+      <c r="B627">
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2">
+      <c r="A628" s="2">
+        <v>41642</v>
+      </c>
+      <c r="B628">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2">
+      <c r="A629" s="2">
+        <v>41649</v>
+      </c>
+      <c r="B629">
+        <v>-31</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2">
+      <c r="A630" s="2">
+        <v>41656</v>
+      </c>
+      <c r="B630">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2">
+      <c r="A631" s="2">
+        <v>41663</v>
+      </c>
+      <c r="B631">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2">
+      <c r="A632" s="2">
+        <v>41670</v>
+      </c>
+      <c r="B632">
+        <v>-54</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2">
+      <c r="A633" s="2">
+        <v>41677</v>
+      </c>
+      <c r="B633">
+        <v>-43</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2">
+      <c r="A634" s="2">
+        <v>41684</v>
+      </c>
+      <c r="B634">
+        <v>-41</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2">
+      <c r="A635" s="2">
+        <v>41691</v>
+      </c>
+      <c r="B635">
+        <v>-31</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2">
+      <c r="A636" s="2">
+        <v>41698</v>
+      </c>
+      <c r="B636">
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2">
+      <c r="A637" s="2">
+        <v>41705</v>
+      </c>
+      <c r="B637">
+        <v>-47</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2">
+      <c r="A638" s="2">
+        <v>41712</v>
+      </c>
+      <c r="B638">
+        <v>-44</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2">
+      <c r="A639" s="2">
+        <v>41719</v>
+      </c>
+      <c r="B639">
+        <v>-47</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2">
+      <c r="A640" s="2">
+        <v>41726</v>
+      </c>
+      <c r="B640">
+        <v>-47</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2">
+      <c r="A641" s="2">
+        <v>41733</v>
+      </c>
+      <c r="B641">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2">
+      <c r="A642" s="2">
+        <v>41740</v>
+      </c>
+      <c r="B642">
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2">
+      <c r="A643" s="2">
+        <v>41747</v>
+      </c>
+      <c r="B643">
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2">
+      <c r="A644" s="2">
+        <v>41754</v>
+      </c>
+      <c r="B644">
+        <v>-58</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2">
+      <c r="A645" s="2">
+        <v>41761</v>
+      </c>
+      <c r="B645">
+        <v>-56</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2">
+      <c r="A646" s="2">
+        <v>41768</v>
+      </c>
+      <c r="B646">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2">
+      <c r="A647" s="2">
+        <v>41775</v>
+      </c>
+      <c r="B647">
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2">
+      <c r="A648" s="2">
+        <v>41782</v>
+      </c>
+      <c r="B648">
+        <v>-59</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2">
+      <c r="A649" s="2">
+        <v>41789</v>
+      </c>
+      <c r="B649">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2">
+      <c r="A650" s="2">
+        <v>41796</v>
+      </c>
+      <c r="B650">
+        <v>-44</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2">
+      <c r="A651" s="2">
+        <v>41803</v>
+      </c>
+      <c r="B651">
+        <v>-55</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2">
+      <c r="A652" s="2">
+        <v>41810</v>
+      </c>
+      <c r="B652">
+        <v>-52</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2">
+      <c r="A653" s="2">
+        <v>41817</v>
+      </c>
+      <c r="B653">
+        <v>-51</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2">
+      <c r="A654" s="2">
+        <v>41824</v>
+      </c>
+      <c r="B654">
+        <v>-47</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2">
+      <c r="A655" s="2">
+        <v>41831</v>
+      </c>
+      <c r="B655">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2">
+      <c r="A656" s="2">
+        <v>41838</v>
+      </c>
+      <c r="B656">
+        <v>-64</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2">
+      <c r="A657" s="2">
+        <v>41845</v>
+      </c>
+      <c r="B657">
+        <v>-53</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2">
+      <c r="A658" s="2">
+        <v>41852</v>
+      </c>
+      <c r="B658">
+        <v>-68</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2">
+      <c r="A659" s="2">
+        <v>41859</v>
+      </c>
+      <c r="B659">
+        <v>-111</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2">
+      <c r="A660" s="2">
+        <v>41866</v>
+      </c>
+      <c r="B660">
+        <v>-113</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2">
+      <c r="A661" s="2">
+        <v>41873</v>
+      </c>
+      <c r="B661">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2">
+      <c r="A662" s="2">
+        <v>41880</v>
+      </c>
+      <c r="B662">
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2">
+      <c r="A663" s="2">
+        <v>41887</v>
+      </c>
+      <c r="B663">
+        <v>-86</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2">
+      <c r="A664" s="2">
+        <v>41894</v>
+      </c>
+      <c r="B664">
+        <v>-91</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2">
+      <c r="A665" s="2">
+        <v>41901</v>
+      </c>
+      <c r="B665">
+        <v>-77</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2">
+      <c r="A666" s="2">
+        <v>41908</v>
+      </c>
+      <c r="B666">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2">
+      <c r="A667" s="2">
+        <v>41915</v>
+      </c>
+      <c r="B667">
+        <v>-83</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2">
+      <c r="A668" s="2">
+        <v>41922</v>
+      </c>
+      <c r="B668">
+        <v>-106</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2">
+      <c r="A669" s="2">
+        <v>41929</v>
+      </c>
+      <c r="B669">
+        <v>-144</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2">
+      <c r="A670" s="2">
+        <v>41936</v>
+      </c>
+      <c r="B670">
+        <v>-152</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2">
+      <c r="A671" s="2">
+        <v>41943</v>
+      </c>
+      <c r="B671">
+        <v>-137</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2">
+      <c r="A672" s="2">
+        <v>41950</v>
+      </c>
+      <c r="B672">
+        <v>-122</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2">
+      <c r="A673" s="2">
+        <v>41957</v>
+      </c>
+      <c r="B673">
+        <v>-123</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2">
+      <c r="A674" s="2">
+        <v>41964</v>
+      </c>
+      <c r="B674">
+        <v>-115</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2">
+      <c r="A675" s="2">
+        <v>41971</v>
+      </c>
+      <c r="B675">
+        <v>-94</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2">
+      <c r="A676" s="2">
+        <v>41978</v>
+      </c>
+      <c r="B676">
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2">
+      <c r="A677" s="2">
+        <v>41985</v>
+      </c>
+      <c r="B677">
+        <v>-52</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2">
+      <c r="A678" s="2">
+        <v>41992</v>
+      </c>
+      <c r="B678">
+        <v>-106</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2">
+      <c r="A679" s="2">
+        <v>41999</v>
+      </c>
+      <c r="B679">
+        <v>-41</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2">
+      <c r="A680" s="2">
+        <v>42006</v>
+      </c>
+      <c r="B680">
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2">
+      <c r="A681" s="2">
+        <v>42013</v>
+      </c>
+      <c r="B681">
+        <v>-52</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2">
+      <c r="A682" s="2">
+        <v>42020</v>
+      </c>
+      <c r="B682">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2">
+      <c r="A683" s="2">
+        <v>42027</v>
+      </c>
+      <c r="B683">
+        <v>-48</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2">
+      <c r="A684" s="2">
+        <v>42034</v>
+      </c>
+      <c r="B684">
+        <v>-48</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2">
+      <c r="A685" s="2">
+        <v>42041</v>
+      </c>
+      <c r="B685">
+        <v>-52</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2">
+      <c r="A686" s="2">
+        <v>42048</v>
+      </c>
+      <c r="B686">
+        <v>-69</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2">
+      <c r="A687" s="2">
+        <v>42055</v>
+      </c>
+      <c r="B687">
+        <v>-64</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2">
+      <c r="A688" s="2">
+        <v>42062</v>
+      </c>
+      <c r="B688">
+        <v>-37</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2">
+      <c r="A689" s="2">
+        <v>42069</v>
+      </c>
+      <c r="B689">
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2">
+      <c r="A690" s="2">
+        <v>42076</v>
+      </c>
+      <c r="B690">
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2">
+      <c r="A691" s="2">
+        <v>42083</v>
+      </c>
+      <c r="B691">
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2">
+      <c r="A692" s="2">
+        <v>42090</v>
+      </c>
+      <c r="B692">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2">
+      <c r="A693" s="2">
+        <v>42097</v>
+      </c>
+      <c r="B693">
+        <v>-33</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2">
+      <c r="A694" s="2">
+        <v>42104</v>
+      </c>
+      <c r="B694">
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2">
+      <c r="A695" s="2">
+        <v>42111</v>
+      </c>
+      <c r="B695">
+        <v>-41</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2">
+      <c r="A696" s="2">
+        <v>42118</v>
+      </c>
+      <c r="B696">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2">
+      <c r="A697" s="2">
+        <v>42125</v>
+      </c>
+      <c r="B697">
+        <v>-56</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2">
+      <c r="A698" s="2">
+        <v>42132</v>
+      </c>
+      <c r="B698">
+        <v>-77</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2">
+      <c r="A699" s="2">
+        <v>42139</v>
+      </c>
+      <c r="B699">
+        <v>-92</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2">
+      <c r="A700" s="2">
+        <v>42146</v>
+      </c>
+      <c r="B700">
+        <v>-98</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2">
+      <c r="A701" s="2">
+        <v>42153</v>
+      </c>
+      <c r="B701">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2">
+      <c r="A702" s="2">
+        <v>42160</v>
+      </c>
+      <c r="B702">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2">
+      <c r="A703" s="2">
+        <v>42167</v>
+      </c>
+      <c r="B703">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2">
+      <c r="A704" s="2">
+        <v>42174</v>
+      </c>
+      <c r="B704">
+        <v>-121</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2">
+      <c r="A705" s="2">
+        <v>42181</v>
+      </c>
+      <c r="B705">
+        <v>-101</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2">
+      <c r="A706" s="2">
+        <v>42188</v>
+      </c>
+      <c r="B706">
+        <v>-96</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2">
+      <c r="A707" s="2">
+        <v>42195</v>
+      </c>
+      <c r="B707">
+        <v>-109</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2">
+      <c r="A708" s="2">
+        <v>42202</v>
+      </c>
+      <c r="B708">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2">
+      <c r="A709" s="2">
+        <v>42209</v>
+      </c>
+      <c r="B709">
+        <v>-104</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2">
+      <c r="A710" s="2">
+        <v>42216</v>
+      </c>
+      <c r="B710">
+        <v>-95</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2">
+      <c r="A711" s="2">
+        <v>42223</v>
+      </c>
+      <c r="B711">
+        <v>-91</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2">
+      <c r="A712" s="2">
+        <v>42230</v>
+      </c>
+      <c r="B712">
+        <v>-68</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2">
+      <c r="A713" s="2">
+        <v>42237</v>
+      </c>
+      <c r="B713">
+        <v>-71</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2">
+      <c r="A714" s="2">
+        <v>42244</v>
+      </c>
+      <c r="B714">
+        <v>-83</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2">
+      <c r="A715" s="2">
+        <v>42251</v>
+      </c>
+      <c r="B715">
+        <v>-58</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2">
+      <c r="A716" s="2">
+        <v>42258</v>
+      </c>
+      <c r="B716">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2">
+      <c r="A717" s="2">
+        <v>42265</v>
+      </c>
+      <c r="B717">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2">
+      <c r="A718" s="2">
+        <v>42272</v>
+      </c>
+      <c r="B718">
+        <v>-85</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2">
+      <c r="A719" s="2">
+        <v>42279</v>
+      </c>
+      <c r="B719">
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2">
+      <c r="A720" s="2">
+        <v>42286</v>
+      </c>
+      <c r="B720">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2">
+      <c r="A721" s="2">
+        <v>42293</v>
+      </c>
+      <c r="B721">
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2">
+      <c r="A722" s="2">
+        <v>42300</v>
+      </c>
+      <c r="B722">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2">
+      <c r="A723" s="2">
+        <v>42307</v>
+      </c>
+      <c r="B723">
+        <v>-47</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2">
+      <c r="A724" s="2">
+        <v>42314</v>
+      </c>
+      <c r="B724">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2">
+      <c r="A725" s="2">
+        <v>42321</v>
+      </c>
+      <c r="B725">
+        <v>-91</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2">
+      <c r="A726" s="2">
+        <v>42328</v>
+      </c>
+      <c r="B726">
+        <v>-78</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2">
+      <c r="A727" s="2">
+        <v>42335</v>
+      </c>
+      <c r="B727">
+        <v>-79</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2">
+      <c r="A728" s="2">
+        <v>42342</v>
+      </c>
+      <c r="B728">
+        <v>-72</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2">
+      <c r="A729" s="2">
+        <v>42349</v>
+      </c>
+      <c r="B729">
+        <v>-92</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2">
+      <c r="A730" s="2">
+        <v>42356</v>
+      </c>
+      <c r="B730">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2">
+      <c r="A731" s="2">
+        <v>42363</v>
+      </c>
+      <c r="B731">
+        <v>-54</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2">
+      <c r="A732" s="2">
+        <v>42370</v>
+      </c>
+      <c r="B732">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2">
+      <c r="A733" s="2">
+        <v>42377</v>
+      </c>
+      <c r="B733">
+        <v>-72</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2">
+      <c r="A734" s="2">
+        <v>42384</v>
+      </c>
+      <c r="B734">
+        <v>-69</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2">
+      <c r="A735" s="2">
+        <v>42391</v>
+      </c>
+      <c r="B735">
+        <v>-66</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2">
+      <c r="A736" s="2">
+        <v>42398</v>
+      </c>
+      <c r="B736">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2">
+      <c r="A737" s="2">
+        <v>42405</v>
+      </c>
+      <c r="B737">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2">
+      <c r="A738" s="2">
+        <v>42412</v>
+      </c>
+      <c r="B738">
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2">
+      <c r="A739" s="2">
+        <v>42419</v>
+      </c>
+      <c r="B739">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2">
+      <c r="A740" s="2">
+        <v>42426</v>
+      </c>
+      <c r="B740">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2">
+      <c r="A741" s="2">
+        <v>42433</v>
+      </c>
+      <c r="B741">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2">
+      <c r="A742" s="2">
+        <v>42440</v>
+      </c>
+      <c r="B742">
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2">
+      <c r="A743" s="2">
+        <v>42447</v>
+      </c>
+      <c r="B743">
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2">
+      <c r="A744" s="2">
+        <v>42454</v>
+      </c>
+      <c r="B744">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2">
+      <c r="A745" s="2">
+        <v>42461</v>
+      </c>
+      <c r="B745">
+        <v>-55</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2">
+      <c r="A746" s="2">
+        <v>42468</v>
+      </c>
+      <c r="B746">
+        <v>-59</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2">
+      <c r="A747" s="2">
+        <v>42475</v>
+      </c>
+      <c r="B747">
+        <v>-63</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2">
+      <c r="A748" s="2">
+        <v>42482</v>
+      </c>
+      <c r="B748">
+        <v>-79</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2">
+      <c r="A749" s="2">
+        <v>42489</v>
+      </c>
+      <c r="B749">
+        <v>-87</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2">
+      <c r="A750" s="2">
+        <v>42496</v>
+      </c>
+      <c r="B750">
+        <v>-97</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2">
+      <c r="A751" s="2">
+        <v>42503</v>
+      </c>
+      <c r="B751">
+        <v>-96</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2">
+      <c r="A752" s="2">
+        <v>42510</v>
+      </c>
+      <c r="B752">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2">
+      <c r="A753" s="2">
+        <v>42517</v>
+      </c>
+      <c r="B753">
+        <v>-43</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2">
+      <c r="A754" s="2">
+        <v>42524</v>
+      </c>
+      <c r="B754">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2">
+      <c r="A755" s="2">
+        <v>42531</v>
+      </c>
+      <c r="B755">
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2">
+      <c r="A756" s="2">
+        <v>42538</v>
+      </c>
+      <c r="B756">
+        <v>-41</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2">
+      <c r="A757" s="2">
+        <v>42545</v>
+      </c>
+      <c r="B757">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2">
+      <c r="A758" s="2">
+        <v>42552</v>
+      </c>
+      <c r="B758">
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2">
+      <c r="A759" s="2">
+        <v>42559</v>
+      </c>
+      <c r="B759">
+        <v>-37</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2">
+      <c r="A760" s="2">
+        <v>42566</v>
+      </c>
+      <c r="B760">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2">
+      <c r="A761" s="2">
+        <v>42573</v>
+      </c>
+      <c r="B761">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2">
+      <c r="A762" s="2">
+        <v>42580</v>
+      </c>
+      <c r="B762">
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2">
+      <c r="A763" s="2">
+        <v>42587</v>
+      </c>
+      <c r="B763">
+        <v>-31</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2">
+      <c r="A764" s="2">
+        <v>42594</v>
+      </c>
+      <c r="B764">
+        <v>-46</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2">
+      <c r="A765" s="2">
+        <v>42601</v>
+      </c>
+      <c r="B765">
+        <v>-54</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2">
+      <c r="A766" s="2">
+        <v>42608</v>
+      </c>
+      <c r="B766">
+        <v>-57</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2">
+      <c r="A767" s="2">
+        <v>42615</v>
+      </c>
+      <c r="B767">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2">
+      <c r="A768" s="2">
+        <v>42622</v>
+      </c>
+      <c r="B768">
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2">
+      <c r="A769" s="2">
+        <v>42629</v>
+      </c>
+      <c r="B769">
+        <v>-47</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2">
+      <c r="A770" s="2">
+        <v>42636</v>
+      </c>
+      <c r="B770">
+        <v>-33</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2">
+      <c r="A771" s="2">
+        <v>42643</v>
+      </c>
+      <c r="B771">
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2">
+      <c r="A772" s="2">
+        <v>42650</v>
+      </c>
+      <c r="B772">
+        <v>-31</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2">
+      <c r="A773" s="2">
+        <v>42657</v>
+      </c>
+      <c r="B773">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2">
+      <c r="A774" s="2">
+        <v>42664</v>
+      </c>
+      <c r="B774">
+        <v>-48</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2">
+      <c r="A775" s="2">
+        <v>42671</v>
+      </c>
+      <c r="B775">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2">
+      <c r="A776" s="2">
+        <v>42678</v>
+      </c>
+      <c r="B776">
+        <v>-71</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2">
+      <c r="A777" s="2">
+        <v>42685</v>
+      </c>
+      <c r="B777">
+        <v>-84</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2">
+      <c r="A778" s="2">
+        <v>42692</v>
+      </c>
+      <c r="B778">
+        <v>-77</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2">
+      <c r="A779" s="2">
+        <v>42699</v>
+      </c>
+      <c r="B779">
+        <v>-64</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2">
+      <c r="A780" s="2">
+        <v>42706</v>
+      </c>
+      <c r="B780">
+        <v>-61</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2">
+      <c r="A781" s="2">
+        <v>42713</v>
+      </c>
+      <c r="B781">
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2">
+      <c r="A782" s="2">
+        <v>42720</v>
+      </c>
+      <c r="B782">
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2">
+      <c r="A783" s="2">
+        <v>42727</v>
+      </c>
+      <c r="B783">
+        <v>-59</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2">
+      <c r="A784" s="2">
+        <v>42734</v>
+      </c>
+      <c r="B784">
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2">
+      <c r="A785" s="2">
+        <v>42741</v>
+      </c>
+      <c r="B785">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2">
+      <c r="A786" s="2">
+        <v>42748</v>
+      </c>
+      <c r="B786">
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2">
+      <c r="A787" s="2">
+        <v>42755</v>
+      </c>
+      <c r="B787">
+        <v>-41</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2">
+      <c r="A788" s="2">
+        <v>42762</v>
+      </c>
+      <c r="B788">
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2">
+      <c r="A789" s="2">
+        <v>42769</v>
+      </c>
+      <c r="B789">
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2">
+      <c r="A790" s="2">
+        <v>42776</v>
+      </c>
+      <c r="B790">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2">
+      <c r="A791" s="2">
+        <v>42783</v>
+      </c>
+      <c r="B791">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2">
+      <c r="A792" s="2">
+        <v>42790</v>
+      </c>
+      <c r="B792">
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2">
+      <c r="A793" s="2">
+        <v>42797</v>
+      </c>
+      <c r="B793">
+        <v>-27</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2">
+      <c r="A794" s="2">
+        <v>42804</v>
+      </c>
+      <c r="B794">
+        <v>-33</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2">
+      <c r="A795" s="2">
+        <v>42811</v>
+      </c>
+      <c r="B795">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2">
+      <c r="A796" s="2">
+        <v>42818</v>
+      </c>
+      <c r="B796">
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2">
+      <c r="A797" s="2">
+        <v>42825</v>
+      </c>
+      <c r="B797">
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2">
+      <c r="A798" s="2">
+        <v>42832</v>
+      </c>
+      <c r="B798">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2">
+      <c r="A799" s="2">
+        <v>42839</v>
+      </c>
+      <c r="B799">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2">
+      <c r="A800" s="2">
+        <v>42846</v>
+      </c>
+      <c r="B800">
+        <v>-47</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2">
+      <c r="A801" s="2">
+        <v>42853</v>
+      </c>
+      <c r="B801">
+        <v>-43</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2">
+      <c r="A802" s="2">
+        <v>42860</v>
+      </c>
+      <c r="B802">
+        <v>-47</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2">
+      <c r="A803" s="2">
+        <v>42867</v>
+      </c>
+      <c r="B803">
+        <v>-53</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2">
+      <c r="A804" s="2">
+        <v>42874</v>
+      </c>
+      <c r="B804">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2">
+      <c r="A805" s="2">
+        <v>42881</v>
+      </c>
+      <c r="B805">
+        <v>-44</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2">
+      <c r="A806" s="2">
+        <v>42888</v>
+      </c>
+      <c r="B806">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2">
+      <c r="A807" s="2">
+        <v>42895</v>
+      </c>
+      <c r="B807">
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2">
+      <c r="A808" s="2">
+        <v>42902</v>
+      </c>
+      <c r="B808">
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2">
+      <c r="A809" s="2">
+        <v>42909</v>
+      </c>
+      <c r="B809">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2">
+      <c r="A810" s="2">
+        <v>42916</v>
+      </c>
+      <c r="B810">
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2">
+      <c r="A811" s="2">
+        <v>42923</v>
+      </c>
+      <c r="B811">
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2">
+      <c r="A812" s="2">
+        <v>42930</v>
+      </c>
+      <c r="B812">
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2">
+      <c r="A813" s="2">
+        <v>42937</v>
+      </c>
+      <c r="B813">
+        <v>-43</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2">
+      <c r="A814" s="2">
+        <v>42944</v>
+      </c>
+      <c r="B814">
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2">
+      <c r="A815" s="2">
+        <v>42951</v>
+      </c>
+      <c r="B815">
+        <v>-42</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2">
+      <c r="A816" s="2">
+        <v>42958</v>
+      </c>
+      <c r="B816">
+        <v>-84</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2">
+      <c r="A817" s="2">
+        <v>42965</v>
+      </c>
+      <c r="B817">
+        <v>-85</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2">
+      <c r="A818" s="2">
+        <v>42972</v>
+      </c>
+      <c r="B818">
+        <v>-63</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2">
+      <c r="A819" s="2">
+        <v>42979</v>
+      </c>
+      <c r="B819">
+        <v>-47</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2">
+      <c r="A820" s="2">
+        <v>42986</v>
+      </c>
+      <c r="B820">
+        <v>-48</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2">
+      <c r="A821" s="2">
+        <v>42993</v>
+      </c>
+      <c r="B821">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2">
+      <c r="A822" s="2">
+        <v>43000</v>
+      </c>
+      <c r="B822">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2">
+      <c r="A823" s="2">
+        <v>43007</v>
+      </c>
+      <c r="B823">
+        <v>-64</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2">
+      <c r="A824" s="2">
+        <v>43014</v>
+      </c>
+      <c r="B824">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2">
+      <c r="A825" s="2">
+        <v>43021</v>
+      </c>
+      <c r="B825">
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2">
+      <c r="A826" s="2">
+        <v>43028</v>
+      </c>
+      <c r="B826">
+        <v>-42</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2">
+      <c r="A827" s="2">
+        <v>43035</v>
+      </c>
+      <c r="B827">
+        <v>-47</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2">
+      <c r="A828" s="2">
+        <v>43042</v>
+      </c>
+      <c r="B828">
+        <v>-43</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2">
+      <c r="A829" s="2">
+        <v>43049</v>
+      </c>
+      <c r="B829">
+        <v>-57</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2">
+      <c r="A830" s="2">
+        <v>43056</v>
+      </c>
+      <c r="B830">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2">
+      <c r="A831" s="2">
+        <v>43063</v>
+      </c>
+      <c r="B831">
+        <v>-62</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2">
+      <c r="A832" s="2">
+        <v>43070</v>
+      </c>
+      <c r="B832">
+        <v>-79</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2">
+      <c r="A833" s="2">
+        <v>43077</v>
+      </c>
+      <c r="B833">
+        <v>-93</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2">
+      <c r="A834" s="2">
+        <v>43084</v>
+      </c>
+      <c r="B834">
+        <v>-81</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2">
+      <c r="A835" s="2">
+        <v>43091</v>
+      </c>
+      <c r="B835">
+        <v>-61</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2">
+      <c r="A836" s="2">
+        <v>43098</v>
+      </c>
+      <c r="B836">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2">
+      <c r="A837" s="2">
+        <v>43105</v>
+      </c>
+      <c r="B837">
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2">
+      <c r="A838" s="2">
+        <v>43112</v>
+      </c>
+      <c r="B838">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2">
+      <c r="A839" s="2">
+        <v>43119</v>
+      </c>
+      <c r="B839">
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2">
+      <c r="A840" s="2">
+        <v>43126</v>
+      </c>
+      <c r="B840">
+        <v>-42</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2">
+      <c r="A841" s="2">
+        <v>43133</v>
+      </c>
+      <c r="B841">
+        <v>-59</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2">
+      <c r="A842" s="2">
+        <v>43140</v>
+      </c>
+      <c r="B842">
+        <v>-116</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2">
+      <c r="A843" s="2">
+        <v>43147</v>
+      </c>
+      <c r="B843">
+        <v>-115</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2">
+      <c r="A844" s="2">
+        <v>43154</v>
+      </c>
+      <c r="B844">
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2">
+      <c r="A845" s="2">
+        <v>43161</v>
+      </c>
+      <c r="B845">
+        <v>-67</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2">
+      <c r="A846" s="2">
+        <v>43168</v>
+      </c>
+      <c r="B846">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2">
+      <c r="A847" s="2">
+        <v>43175</v>
+      </c>
+      <c r="B847">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2">
+      <c r="A848" s="2">
+        <v>43182</v>
+      </c>
+      <c r="B848">
+        <v>-86</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2">
+      <c r="A849" s="2">
+        <v>43189</v>
+      </c>
+      <c r="B849">
+        <v>-68</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2">
+      <c r="A850" s="2">
+        <v>43196</v>
+      </c>
+      <c r="B850">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2">
+      <c r="A851" s="2">
+        <v>43203</v>
+      </c>
+      <c r="B851">
+        <v>-85</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2">
+      <c r="A852" s="2">
+        <v>43210</v>
+      </c>
+      <c r="B852">
+        <v>-91</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2">
+      <c r="A853" s="2">
+        <v>43217</v>
+      </c>
+      <c r="B853">
+        <v>-112</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2">
+      <c r="A854" s="2">
+        <v>43224</v>
+      </c>
+      <c r="B854">
+        <v>-111</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2">
+      <c r="A855" s="2">
+        <v>43231</v>
+      </c>
+      <c r="B855">
+        <v>-101</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2">
+      <c r="A856" s="2">
+        <v>43238</v>
+      </c>
+      <c r="B856">
+        <v>-97</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2">
+      <c r="A857" s="2">
+        <v>43245</v>
+      </c>
+      <c r="B857">
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2">
+      <c r="A858" s="2">
+        <v>43252</v>
+      </c>
+      <c r="B858">
+        <v>-46</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2">
+      <c r="A859" s="2">
+        <v>43259</v>
+      </c>
+      <c r="B859">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2">
+      <c r="A860" s="2">
+        <v>43266</v>
+      </c>
+      <c r="B860">
+        <v>-52</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2">
+      <c r="A861" s="2">
+        <v>43273</v>
+      </c>
+      <c r="B861">
+        <v>-96</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2">
+      <c r="A862" s="2">
+        <v>43280</v>
+      </c>
+      <c r="B862">
+        <v>-89</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2">
+      <c r="A863" s="2">
+        <v>43287</v>
+      </c>
+      <c r="B863">
+        <v>-112</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2">
+      <c r="A864" s="2">
+        <v>43294</v>
+      </c>
+      <c r="B864">
+        <v>-85</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2">
+      <c r="A865" s="2">
+        <v>43301</v>
+      </c>
+      <c r="B865">
+        <v>-76</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2">
+      <c r="A866" s="2">
+        <v>43308</v>
+      </c>
+      <c r="B866">
+        <v>-57</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2">
+      <c r="A867" s="2">
+        <v>43315</v>
+      </c>
+      <c r="B867">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2">
+      <c r="A868" s="2">
+        <v>43322</v>
+      </c>
+      <c r="B868">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2">
+      <c r="A869" s="2">
+        <v>43329</v>
+      </c>
+      <c r="B869">
+        <v>-82</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2">
+      <c r="A870" s="2">
+        <v>43336</v>
+      </c>
+      <c r="B870">
+        <v>-85</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2">
+      <c r="A871" s="2">
+        <v>43343</v>
+      </c>
+      <c r="B871">
+        <v>-72</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2">
+      <c r="A872" s="2">
+        <v>43350</v>
+      </c>
+      <c r="B872">
+        <v>-86</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2">
+      <c r="A873" s="2">
+        <v>43357</v>
+      </c>
+      <c r="B873">
+        <v>-81</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2">
+      <c r="A874" s="2">
+        <v>43364</v>
+      </c>
+      <c r="B874">
+        <v>-77</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2">
+      <c r="A875" s="2">
+        <v>43371</v>
+      </c>
+      <c r="B875">
+        <v>-71</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2">
+      <c r="A876" s="2">
+        <v>43378</v>
+      </c>
+      <c r="B876">
+        <v>-84</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2">
+      <c r="A877" s="2">
+        <v>43385</v>
+      </c>
+      <c r="B877">
+        <v>-74</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2">
+      <c r="A878" s="2">
+        <v>43392</v>
+      </c>
+      <c r="B878">
+        <v>-78</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2">
+      <c r="A879" s="2">
+        <v>43399</v>
+      </c>
+      <c r="B879">
+        <v>-63</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2">
+      <c r="A880" s="2">
+        <v>43406</v>
+      </c>
+      <c r="B880">
+        <v>-57</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2">
+      <c r="A881" s="2">
+        <v>43413</v>
+      </c>
+      <c r="B881">
+        <v>-47</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2">
+      <c r="A882" s="2">
+        <v>43420</v>
+      </c>
+      <c r="B882">
+        <v>-58</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2">
+      <c r="A883" s="2">
+        <v>43427</v>
+      </c>
+      <c r="B883">
+        <v>-58</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2">
+      <c r="A884" s="2">
+        <v>43434</v>
+      </c>
+      <c r="B884">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2">
+      <c r="A885" s="2">
+        <v>43441</v>
+      </c>
+      <c r="B885">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2">
+      <c r="A886" s="2">
+        <v>43448</v>
+      </c>
+      <c r="B886">
+        <v>-68</v>
+      </c>
+    </row>
+    <row r="887" spans="1:2">
+      <c r="A887" s="2">
+        <v>43455</v>
+      </c>
+      <c r="B887">
+        <v>-112</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2">
+      <c r="A888" s="2">
+        <v>43462</v>
+      </c>
+      <c r="B888">
+        <v>-112</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2">
+      <c r="A889" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B889">
+        <v>-116</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2">
+      <c r="A890" s="2">
+        <v>43476</v>
+      </c>
+      <c r="B890">
+        <v>-87</v>
+      </c>
+    </row>
+    <row r="891" spans="1:2">
+      <c r="A891" s="2">
+        <v>43483</v>
+      </c>
+      <c r="B891">
+        <v>-48</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2">
+      <c r="A892" s="2">
+        <v>43490</v>
+      </c>
+      <c r="B892">
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="893" spans="1:2">
+      <c r="A893" s="2">
+        <v>43497</v>
+      </c>
+      <c r="B893">
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="894" spans="1:2">
+      <c r="A894" s="2">
+        <v>43504</v>
+      </c>
+      <c r="B894">
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="895" spans="1:2">
+      <c r="A895" s="2">
+        <v>43511</v>
+      </c>
+      <c r="B895">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="896" spans="1:2">
+      <c r="A896" s="2">
+        <v>43518</v>
+      </c>
+      <c r="B896">
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="897" spans="1:2">
+      <c r="A897" s="2">
+        <v>43525</v>
+      </c>
+      <c r="B897">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="898" spans="1:2">
+      <c r="A898" s="2">
+        <v>43532</v>
+      </c>
+      <c r="B898">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="899" spans="1:2">
+      <c r="A899" s="2">
+        <v>43539</v>
+      </c>
+      <c r="B899">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="900" spans="1:2">
+      <c r="A900" s="2">
+        <v>43546</v>
+      </c>
+      <c r="B900">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="901" spans="1:2">
+      <c r="A901" s="2">
+        <v>43553</v>
+      </c>
+      <c r="B901">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="902" spans="1:2">
+      <c r="A902" s="2">
+        <v>43560</v>
+      </c>
+      <c r="B902">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="903" spans="1:2">
+      <c r="A903" s="2">
+        <v>43567</v>
+      </c>
+      <c r="B903">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="904" spans="1:2">
+      <c r="A904" s="2">
+        <v>43574</v>
+      </c>
+      <c r="B904">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="905" spans="1:2">
+      <c r="A905" s="2">
+        <v>43581</v>
+      </c>
+      <c r="B905">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="906" spans="1:2">
+      <c r="A906" s="2">
+        <v>43588</v>
+      </c>
+      <c r="B906">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="907" spans="1:2">
+      <c r="A907" s="2">
+        <v>43595</v>
+      </c>
+      <c r="B907">
+        <v>-31</v>
+      </c>
+    </row>
+    <row r="908" spans="1:2">
+      <c r="A908" s="2">
+        <v>43602</v>
+      </c>
+      <c r="B908">
+        <v>-37</v>
+      </c>
+    </row>
+    <row r="909" spans="1:2">
+      <c r="A909" s="2">
+        <v>43609</v>
+      </c>
+      <c r="B909">
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="910" spans="1:2">
+      <c r="A910" s="2">
+        <v>43616</v>
+      </c>
+      <c r="B910">
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="911" spans="1:2">
+      <c r="A911" s="2">
+        <v>43623</v>
+      </c>
+      <c r="B911">
+        <v>-42</v>
+      </c>
+    </row>
+    <row r="912" spans="1:2">
+      <c r="A912" s="2">
+        <v>43630</v>
+      </c>
+      <c r="B912">
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="913" spans="1:2">
+      <c r="A913" s="2">
+        <v>43637</v>
+      </c>
+      <c r="B913">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="914" spans="1:2">
+      <c r="A914" s="2">
+        <v>43644</v>
+      </c>
+      <c r="B914">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="915" spans="1:2">
+      <c r="A915" s="2">
+        <v>43651</v>
+      </c>
+      <c r="B915">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="916" spans="1:2">
+      <c r="A916" s="2">
+        <v>43658</v>
+      </c>
+      <c r="B916">
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="917" spans="1:2">
+      <c r="A917" s="2">
+        <v>43665</v>
+      </c>
+      <c r="B917">
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="918" spans="1:2">
+      <c r="A918" s="2">
+        <v>43672</v>
+      </c>
+      <c r="B918">
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="919" spans="1:2">
+      <c r="A919" s="2">
+        <v>43679</v>
+      </c>
+      <c r="B919">
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="920" spans="1:2">
+      <c r="A920" s="2">
+        <v>43686</v>
+      </c>
+      <c r="B920">
+        <v>-84</v>
+      </c>
+    </row>
+    <row r="921" spans="1:2">
+      <c r="A921" s="2">
+        <v>43693</v>
+      </c>
+      <c r="B921">
+        <v>-78</v>
+      </c>
+    </row>
+    <row r="922" spans="1:2">
+      <c r="A922" s="2">
+        <v>43700</v>
+      </c>
+      <c r="B922">
+        <v>-64</v>
+      </c>
+    </row>
+    <row r="923" spans="1:2">
+      <c r="A923" s="2">
+        <v>43707</v>
+      </c>
+      <c r="B923">
+        <v>-55</v>
+      </c>
+    </row>
+    <row r="924" spans="1:2">
+      <c r="A924" s="2">
+        <v>43714</v>
+      </c>
+      <c r="B924">
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="925" spans="1:2">
+      <c r="A925" s="2">
+        <v>43721</v>
+      </c>
+      <c r="B925">
+        <v>-33</v>
+      </c>
+    </row>
+    <row r="926" spans="1:2">
+      <c r="A926" s="2">
+        <v>43728</v>
+      </c>
+      <c r="B926">
+        <v>-33</v>
+      </c>
+    </row>
+    <row r="927" spans="1:2">
+      <c r="A927" s="2">
+        <v>43735</v>
+      </c>
+      <c r="B927">
+        <v>-52</v>
+      </c>
+    </row>
+    <row r="928" spans="1:2">
+      <c r="A928" s="2">
+        <v>43742</v>
+      </c>
+      <c r="B928">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="929" spans="1:2">
+      <c r="A929" s="2">
+        <v>43749</v>
+      </c>
+      <c r="B929">
+        <v>-57</v>
+      </c>
+    </row>
+    <row r="930" spans="1:2">
+      <c r="A930" s="2">
+        <v>43756</v>
+      </c>
+      <c r="B930">
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="931" spans="1:2">
+      <c r="A931" s="2">
+        <v>43763</v>
+      </c>
+      <c r="B931">
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="932" spans="1:2">
+      <c r="A932" s="2">
+        <v>43770</v>
+      </c>
+      <c r="B932">
+        <v>-33</v>
+      </c>
+    </row>
+    <row r="933" spans="1:2">
+      <c r="A933" s="2">
+        <v>43777</v>
+      </c>
+      <c r="B933">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="934" spans="1:2">
+      <c r="A934" s="2">
+        <v>43784</v>
+      </c>
+      <c r="B934">
+        <v>-43</v>
+      </c>
+    </row>
+    <row r="935" spans="1:2">
+      <c r="A935" s="2">
+        <v>43791</v>
+      </c>
+      <c r="B935">
+        <v>-47</v>
+      </c>
+    </row>
+    <row r="936" spans="1:2">
+      <c r="A936" s="2">
+        <v>43798</v>
+      </c>
+      <c r="B936">
+        <v>-46</v>
+      </c>
+    </row>
+    <row r="937" spans="1:2">
+      <c r="A937" s="2">
+        <v>43805</v>
+      </c>
+      <c r="B937">
+        <v>-44</v>
+      </c>
+    </row>
+    <row r="938" spans="1:2">
+      <c r="A938" s="2">
+        <v>43812</v>
+      </c>
+      <c r="B938">
+        <v>-58</v>
+      </c>
+    </row>
+    <row r="939" spans="1:2">
+      <c r="A939" s="2">
+        <v>43819</v>
+      </c>
+      <c r="B939">
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="940" spans="1:2">
+      <c r="A940" s="2">
+        <v>43826</v>
+      </c>
+      <c r="B940">
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="941" spans="1:2">
+      <c r="A941" s="2">
+        <v>43833</v>
+      </c>
+      <c r="B941">
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="942" spans="1:2">
+      <c r="A942" s="2">
+        <v>43840</v>
+      </c>
+      <c r="B942">
+        <v>-61</v>
+      </c>
+    </row>
+    <row r="943" spans="1:2">
+      <c r="A943" s="2">
+        <v>43847</v>
+      </c>
+      <c r="B943">
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="944" spans="1:2">
+      <c r="A944" s="2">
+        <v>43854</v>
+      </c>
+      <c r="B944">
+        <v>-37</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2">
+      <c r="A945" s="2">
+        <v>43861</v>
+      </c>
+      <c r="B945">
+        <v>-77</v>
+      </c>
+    </row>
+    <row r="946" spans="1:2">
+      <c r="A946" s="2">
+        <v>43868</v>
+      </c>
+      <c r="B946">
+        <v>-96</v>
+      </c>
+    </row>
+    <row r="947" spans="1:2">
+      <c r="A947" s="2">
+        <v>43875</v>
+      </c>
+      <c r="B947">
+        <v>-81</v>
+      </c>
+    </row>
+    <row r="948" spans="1:2">
+      <c r="A948" s="2">
+        <v>43882</v>
+      </c>
+      <c r="B948">
+        <v>-78</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2">
+      <c r="A949" s="2">
+        <v>43889</v>
+      </c>
+      <c r="B949">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="950" spans="1:2">
+      <c r="A950" s="2">
+        <v>43896</v>
+      </c>
+      <c r="B950">
+        <v>-107</v>
+      </c>
+    </row>
+    <row r="951" spans="1:2">
+      <c r="A951" s="2">
+        <v>43903</v>
+      </c>
+      <c r="B951">
+        <v>-63</v>
+      </c>
+    </row>
+    <row r="952" spans="1:2">
+      <c r="A952" s="2">
+        <v>43910</v>
+      </c>
+      <c r="B952">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="953" spans="1:2">
+      <c r="A953" s="2">
+        <v>43917</v>
+      </c>
+      <c r="B953">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="954" spans="1:2">
+      <c r="A954" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B954">
+        <v>-37</v>
+      </c>
+    </row>
+    <row r="955" spans="1:2">
+      <c r="A955" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B955">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="956" spans="1:2">
+      <c r="A956" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B956">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="957" spans="1:2">
+      <c r="A957" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B957">
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="958" spans="1:2">
+      <c r="A958" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B958">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="959" spans="1:2">
+      <c r="A959" s="2">
+        <v>43959</v>
+      </c>
+      <c r="B959">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="960" spans="1:2">
+      <c r="A960" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B960">
+        <v>-97</v>
+      </c>
+    </row>
+    <row r="961" spans="1:2">
+      <c r="A961" s="2">
+        <v>43973</v>
+      </c>
+      <c r="B961">
+        <v>-64</v>
+      </c>
+    </row>
+    <row r="962" spans="1:2">
+      <c r="A962" s="2">
+        <v>43980</v>
+      </c>
+      <c r="B962">
+        <v>-51</v>
+      </c>
+    </row>
+    <row r="963" spans="1:2">
+      <c r="A963" s="2">
+        <v>43987</v>
+      </c>
+      <c r="B963">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="964" spans="1:2">
+      <c r="A964" s="2">
+        <v>43994</v>
+      </c>
+      <c r="B964">
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="965" spans="1:2">
+      <c r="A965" s="2">
+        <v>44001</v>
+      </c>
+      <c r="B965">
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="966" spans="1:2">
+      <c r="A966" s="2">
+        <v>44008</v>
+      </c>
+      <c r="B966">
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="967" spans="1:2">
+      <c r="A967" s="2">
+        <v>44015</v>
+      </c>
+      <c r="B967">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="968" spans="1:2">
+      <c r="A968" s="2">
+        <v>44022</v>
+      </c>
+      <c r="B968">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="969" spans="1:2">
+      <c r="A969" s="2">
+        <v>44029</v>
+      </c>
+      <c r="B969">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="970" spans="1:2">
+      <c r="A970" s="2">
+        <v>44036</v>
+      </c>
+      <c r="B970">
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="971" spans="1:2">
+      <c r="A971" s="2">
+        <v>44043</v>
+      </c>
+      <c r="B971">
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="972" spans="1:2">
+      <c r="A972" s="2">
+        <v>44050</v>
+      </c>
+      <c r="B972">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="973" spans="1:2">
+      <c r="A973" s="2">
+        <v>44057</v>
+      </c>
+      <c r="B973">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="974" spans="1:2">
+      <c r="A974" s="2">
+        <v>44064</v>
+      </c>
+      <c r="B974">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="975" spans="1:2">
+      <c r="A975" s="2">
+        <v>44071</v>
+      </c>
+      <c r="B975">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="976" spans="1:2">
+      <c r="A976" s="2">
+        <v>44078</v>
+      </c>
+      <c r="B976">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="977" spans="1:2">
+      <c r="A977" s="2">
+        <v>44085</v>
+      </c>
+      <c r="B977">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="978" spans="1:2">
+      <c r="A978" s="2">
+        <v>44092</v>
+      </c>
+      <c r="B978">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="979" spans="1:2">
+      <c r="A979" s="2">
+        <v>44099</v>
+      </c>
+      <c r="B979">
+        <v>-58</v>
+      </c>
+    </row>
+    <row r="980" spans="1:2">
+      <c r="A980" s="2">
+        <v>44106</v>
+      </c>
+      <c r="B980">
+        <v>-46</v>
+      </c>
+    </row>
+    <row r="981" spans="1:2">
+      <c r="A981" s="2">
+        <v>44113</v>
+      </c>
+      <c r="B981">
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="982" spans="1:2">
+      <c r="A982" s="2">
+        <v>44120</v>
+      </c>
+      <c r="B982">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="983" spans="1:2">
+      <c r="A983" s="2">
+        <v>44127</v>
+      </c>
+      <c r="B983">
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="984" spans="1:2">
+      <c r="A984" s="2">
+        <v>44134</v>
+      </c>
+      <c r="B984">
+        <v>-54</v>
+      </c>
+    </row>
+    <row r="985" spans="1:2">
+      <c r="A985" s="2">
+        <v>44141</v>
+      </c>
+      <c r="B985">
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="986" spans="1:2">
+      <c r="A986" s="2">
+        <v>44148</v>
+      </c>
+      <c r="B986">
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="987" spans="1:2">
+      <c r="A987" s="2">
+        <v>44155</v>
+      </c>
+      <c r="B987">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="988" spans="1:2">
+      <c r="A988" s="2">
+        <v>44162</v>
+      </c>
+      <c r="B988">
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="989" spans="1:2">
+      <c r="A989" s="2">
+        <v>44169</v>
+      </c>
+      <c r="B989">
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="990" spans="1:2">
+      <c r="A990" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B990">
+        <v>-59</v>
+      </c>
+    </row>
+    <row r="991" spans="1:2">
+      <c r="A991" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B991">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="992" spans="1:2">
+      <c r="A992" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B992">
+        <v>-61</v>
+      </c>
+    </row>
+    <row r="993" spans="1:2">
+      <c r="A993" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B993">
+        <v>-54</v>
+      </c>
+    </row>
+    <row r="994" spans="1:2">
+      <c r="A994" s="2">
+        <v>44204</v>
+      </c>
+      <c r="B994">
+        <v>-42</v>
+      </c>
+    </row>
+    <row r="995" spans="1:2">
+      <c r="A995" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B995">
+        <v>-51</v>
+      </c>
+    </row>
+    <row r="996" spans="1:2">
+      <c r="A996" s="2">
+        <v>44218</v>
+      </c>
+      <c r="B996">
+        <v>-63</v>
+      </c>
+    </row>
+    <row r="997" spans="1:2">
+      <c r="A997" s="2">
+        <v>44225</v>
+      </c>
+      <c r="B997">
+        <v>-74</v>
+      </c>
+    </row>
+    <row r="998" spans="1:2">
+      <c r="A998" s="2">
+        <v>44232</v>
+      </c>
+      <c r="B998">
+        <v>-72</v>
+      </c>
+    </row>
+    <row r="999" spans="1:2">
+      <c r="A999" s="2">
+        <v>44239</v>
+      </c>
+      <c r="B999">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:2">
+      <c r="A1000" s="2">
+        <v>44246</v>
+      </c>
+      <c r="B1000">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:2">
+      <c r="A1001" s="2">
+        <v>44253</v>
+      </c>
+      <c r="B1001">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:2">
+      <c r="A1002" s="2">
+        <v>44260</v>
+      </c>
+      <c r="B1002">
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:2">
+      <c r="A1003" s="2">
+        <v>44267</v>
+      </c>
+      <c r="B1003">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:2">
+      <c r="A1004" s="2">
+        <v>44274</v>
+      </c>
+      <c r="B1004">
+        <v>-27</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:2">
+      <c r="A1005" s="2">
+        <v>44281</v>
+      </c>
+      <c r="B1005">
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:2">
+      <c r="A1006" s="2">
+        <v>44288</v>
+      </c>
+      <c r="B1006">
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:2">
+      <c r="A1007" s="2">
+        <v>44295</v>
+      </c>
+      <c r="B1007">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:2">
+      <c r="A1008" s="2">
+        <v>44302</v>
+      </c>
+      <c r="B1008">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:2">
+      <c r="A1009" s="2">
+        <v>44309</v>
+      </c>
+      <c r="B1009">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:2">
+      <c r="A1010" s="2">
+        <v>44316</v>
+      </c>
+      <c r="B1010">
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:2">
+      <c r="A1011" s="2">
+        <v>44323</v>
+      </c>
+      <c r="B1011">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:2">
+      <c r="A1012" s="2">
+        <v>44330</v>
+      </c>
+      <c r="B1012">
+        <v>-62</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:2">
+      <c r="A1013" s="2">
+        <v>44337</v>
+      </c>
+      <c r="B1013">
+        <v>-62</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:2">
+      <c r="A1014" s="2">
+        <v>44344</v>
+      </c>
+      <c r="B1014">
+        <v>-52</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:2">
+      <c r="A1015" s="2">
+        <v>44351</v>
+      </c>
+      <c r="B1015">
+        <v>-46</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:2">
+      <c r="A1016" s="2">
+        <v>44358</v>
+      </c>
+      <c r="B1016">
+        <v>-43</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:2">
+      <c r="A1017" s="2">
+        <v>44365</v>
+      </c>
+      <c r="B1017">
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:2">
+      <c r="A1018" s="2">
+        <v>44372</v>
+      </c>
+      <c r="B1018">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:2">
+      <c r="A1019" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B1019">
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:2">
+      <c r="A1020" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B1020">
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:2">
+      <c r="A1021" s="2">
+        <v>44393</v>
+      </c>
+      <c r="B1021">
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:2">
+      <c r="A1022" s="2">
+        <v>44400</v>
+      </c>
+      <c r="B1022">
+        <v>-37</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:2">
+      <c r="A1023" s="2">
+        <v>44407</v>
+      </c>
+      <c r="B1023">
+        <v>-72</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:2">
+      <c r="A1024" s="2">
+        <v>44414</v>
+      </c>
+      <c r="B1024">
+        <v>-68</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:2">
+      <c r="A1025" s="2">
+        <v>44421</v>
+      </c>
+      <c r="B1025">
+        <v>-108</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:2">
+      <c r="A1026" s="2">
+        <v>44428</v>
+      </c>
+      <c r="B1026">
+        <v>-132</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:2">
+      <c r="A1027" s="2">
+        <v>44435</v>
+      </c>
+      <c r="B1027">
+        <v>-123</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:2">
+      <c r="A1028" s="2">
+        <v>44442</v>
+      </c>
+      <c r="B1028">
+        <v>-93</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:2">
+      <c r="A1029" s="2">
+        <v>44449</v>
+      </c>
+      <c r="B1029">
+        <v>-119</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:2">
+      <c r="A1030" s="2">
+        <v>44456</v>
+      </c>
+      <c r="B1030">
+        <v>-126</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:2">
+      <c r="A1031" s="2">
+        <v>44463</v>
+      </c>
+      <c r="B1031">
+        <v>-112</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:2">
+      <c r="A1032" s="2">
+        <v>44470</v>
+      </c>
+      <c r="B1032">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:2">
+      <c r="A1033" s="2">
+        <v>44477</v>
+      </c>
+      <c r="B1033">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:2">
+      <c r="A1034" s="2">
+        <v>44484</v>
+      </c>
+      <c r="B1034">
+        <v>-107</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:2">
+      <c r="A1035" s="2">
+        <v>44491</v>
+      </c>
+      <c r="B1035">
+        <v>-77</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:2">
+      <c r="A1036" s="2">
+        <v>44498</v>
+      </c>
+      <c r="B1036">
+        <v>-33</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:2">
+      <c r="A1037" s="2">
+        <v>44505</v>
+      </c>
+      <c r="B1037">
+        <v>-27</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:2">
+      <c r="A1038" s="2">
+        <v>44512</v>
+      </c>
+      <c r="B1038">
+        <v>-41</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:2">
+      <c r="A1039" s="2">
+        <v>44519</v>
+      </c>
+      <c r="B1039">
+        <v>-54</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:2">
+      <c r="A1040" s="2">
+        <v>44526</v>
+      </c>
+      <c r="B1040">
+        <v>-85</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:2">
+      <c r="A1041" s="2">
+        <v>44533</v>
+      </c>
+      <c r="B1041">
+        <v>-62</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:2">
+      <c r="A1042" s="2">
+        <v>44540</v>
+      </c>
+      <c r="B1042">
+        <v>-78</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:2">
+      <c r="A1043" s="2">
+        <v>44547</v>
+      </c>
+      <c r="B1043">
+        <v>-98</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:2">
+      <c r="A1044" s="2">
+        <v>44554</v>
+      </c>
+      <c r="B1044">
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:2">
+      <c r="A1045" s="2">
+        <v>44561</v>
+      </c>
+      <c r="B1045">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:2">
+      <c r="A1046" s="2">
+        <v>44568</v>
+      </c>
+      <c r="B1046">
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:2">
+      <c r="A1047" s="2">
+        <v>44575</v>
+      </c>
+      <c r="B1047">
+        <v>-121</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:2">
+      <c r="A1048" s="2">
+        <v>44582</v>
+      </c>
+      <c r="B1048">
+        <v>-133</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:2">
+      <c r="A1049" s="2">
+        <v>44589</v>
+      </c>
+      <c r="B1049">
+        <v>-148</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:2">
+      <c r="A1050" s="2">
+        <v>44596</v>
+      </c>
+      <c r="B1050">
+        <v>-148</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:2">
+      <c r="A1051" s="2">
+        <v>44603</v>
+      </c>
+      <c r="B1051">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:2">
+      <c r="A1052" s="2">
+        <v>44610</v>
+      </c>
+      <c r="B1052">
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:2">
+      <c r="A1053" s="2">
+        <v>44617</v>
+      </c>
+      <c r="B1053">
+        <v>-72</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:2">
+      <c r="A1054" s="2">
+        <v>44624</v>
+      </c>
+      <c r="B1054">
+        <v>-47</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:2">
+      <c r="A1055" s="2">
+        <v>44631</v>
+      </c>
+      <c r="B1055">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:2">
+      <c r="A1056" s="2">
+        <v>44638</v>
+      </c>
+      <c r="B1056">
+        <v>-68</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:2">
+      <c r="A1057" s="2">
+        <v>44645</v>
+      </c>
+      <c r="B1057">
+        <v>-62</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:2">
+      <c r="A1058" s="2">
+        <v>44652</v>
+      </c>
+      <c r="B1058">
+        <v>-67</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:2">
+      <c r="A1059" s="2">
+        <v>44659</v>
+      </c>
+      <c r="B1059">
+        <v>-104</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:2">
+      <c r="A1060" s="2">
+        <v>44666</v>
+      </c>
+      <c r="B1060">
+        <v>-142</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:2">
+      <c r="A1061" s="2">
+        <v>44673</v>
+      </c>
+      <c r="B1061">
+        <v>-129</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:2">
+      <c r="A1062" s="2">
+        <v>44680</v>
+      </c>
+      <c r="B1062">
+        <v>-149</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:2">
+      <c r="A1063" s="2">
+        <v>44687</v>
+      </c>
+      <c r="B1063">
+        <v>-145</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:2">
+      <c r="A1064" s="2">
+        <v>44694</v>
+      </c>
+      <c r="B1064">
+        <v>-145</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:2">
+      <c r="A1065" s="2">
+        <v>44701</v>
+      </c>
+      <c r="B1065">
+        <v>-115</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:2">
+      <c r="A1066" s="2">
+        <v>44708</v>
+      </c>
+      <c r="B1066">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:2">
+      <c r="A1067" s="2">
+        <v>44715</v>
+      </c>
+      <c r="B1067">
+        <v>-46</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:2">
+      <c r="A1068" s="2">
+        <v>44722</v>
+      </c>
+      <c r="B1068">
+        <v>-59</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:2">
+      <c r="A1069" s="2">
+        <v>44729</v>
+      </c>
+      <c r="B1069">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:2">
+      <c r="A1070" s="2">
+        <v>44736</v>
+      </c>
+      <c r="B1070">
+        <v>-117</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:2">
+      <c r="A1071" s="2">
+        <v>44743</v>
+      </c>
+      <c r="B1071">
+        <v>-96</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:2">
+      <c r="A1072" s="2">
+        <v>44750</v>
+      </c>
+      <c r="B1072">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:2">
+      <c r="A1073" s="2">
+        <v>44757</v>
+      </c>
+      <c r="B1073">
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:2">
+      <c r="A1074" s="2">
+        <v>44764</v>
+      </c>
+      <c r="B1074">
+        <v>-46</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:2">
+      <c r="A1075" s="2">
+        <v>44771</v>
+      </c>
+      <c r="B1075">
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:2">
+      <c r="A1076" s="2">
+        <v>44778</v>
+      </c>
+      <c r="B1076">
+        <v>-79</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:2">
+      <c r="A1077" s="2">
+        <v>44785</v>
+      </c>
+      <c r="B1077">
+        <v>-37</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:2">
+      <c r="A1078" s="2">
+        <v>44792</v>
+      </c>
+      <c r="B1078">
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:2">
+      <c r="A1079" s="2">
+        <v>44799</v>
+      </c>
+      <c r="B1079">
+        <v>-31</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:2">
+      <c r="A1080" s="2">
+        <v>44806</v>
+      </c>
+      <c r="B1080">
+        <v>-96</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:2">
+      <c r="A1081" s="2">
+        <v>44813</v>
+      </c>
+      <c r="B1081">
+        <v>-118</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:2">
+      <c r="A1082" s="2">
+        <v>44820</v>
+      </c>
+      <c r="B1082">
+        <v>-108</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:2">
+      <c r="A1083" s="2">
+        <v>44827</v>
+      </c>
+      <c r="B1083">
+        <v>-119</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:2">
+      <c r="A1084" s="2">
+        <v>44834</v>
+      </c>
+      <c r="B1084">
+        <v>-125</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:2">
+      <c r="A1085" s="2">
+        <v>44841</v>
+      </c>
+      <c r="B1085">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:2">
+      <c r="A1086" s="2">
+        <v>44848</v>
+      </c>
+      <c r="B1086">
+        <v>-121</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:2">
+      <c r="A1087" s="2">
+        <v>44855</v>
+      </c>
+      <c r="B1087">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:2">
+      <c r="A1088" s="2">
+        <v>44862</v>
+      </c>
+      <c r="B1088">
+        <v>-126</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:2">
+      <c r="A1089" s="2">
+        <v>44869</v>
+      </c>
+      <c r="B1089">
+        <v>-58</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:2">
+      <c r="A1090" s="2">
+        <v>44876</v>
+      </c>
+      <c r="B1090">
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:2">
+      <c r="A1091" s="2">
+        <v>44883</v>
+      </c>
+      <c r="B1091">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:2">
+      <c r="A1092" s="2">
+        <v>44890</v>
+      </c>
+      <c r="B1092">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:2">
+      <c r="A1093" s="2">
+        <v>44897</v>
+      </c>
+      <c r="B1093">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:2">
+      <c r="A1094" s="2">
+        <v>44904</v>
+      </c>
+      <c r="B1094">
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:2">
+      <c r="A1095" s="2">
+        <v>44911</v>
+      </c>
+      <c r="B1095">
+        <v>-64</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:2">
+      <c r="A1096" s="2">
+        <v>44918</v>
+      </c>
+      <c r="B1096">
+        <v>-96</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:2">
+      <c r="A1097" s="2">
+        <v>44925</v>
+      </c>
+      <c r="B1097">
+        <v>-111</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:2">
+      <c r="A1098" s="2">
+        <v>44932</v>
+      </c>
+      <c r="B1098">
+        <v>-102</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:2">
+      <c r="A1099" s="2">
+        <v>44939</v>
+      </c>
+      <c r="B1099">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:2">
+      <c r="A1100" s="2">
+        <v>44946</v>
+      </c>
+      <c r="B1100">
+        <v>-69</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:2">
+      <c r="A1101" s="2">
+        <v>44953</v>
+      </c>
+      <c r="B1101">
+        <v>-58</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:2">
+      <c r="A1102" s="2">
+        <v>44960</v>
+      </c>
+      <c r="B1102">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:2">
+      <c r="A1103" s="2">
+        <v>44967</v>
+      </c>
+      <c r="B1103">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:2">
+      <c r="A1104" s="2">
+        <v>44974</v>
+      </c>
+      <c r="B1104">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:2">
+      <c r="A1105" s="2">
         <v>44981</v>
       </c>
-      <c r="B374">
-        <v>-2</v>
+      <c r="B1105">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:2">
+      <c r="A1106" s="2">
+        <v>44988</v>
+      </c>
+      <c r="B1106">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:2">
+      <c r="A1107" s="2">
+        <v>44995</v>
+      </c>
+      <c r="B1107">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:2">
+      <c r="A1108" s="2">
+        <v>45002</v>
+      </c>
+      <c r="B1108">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:2">
+      <c r="A1109" s="2">
+        <v>45009</v>
+      </c>
+      <c r="B1109">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:2">
+      <c r="A1110" s="2">
+        <v>45016</v>
+      </c>
+      <c r="B1110">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:2">
+      <c r="A1111" s="2">
+        <v>45023</v>
+      </c>
+      <c r="B1111">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:2">
+      <c r="A1112" s="2">
+        <v>45030</v>
+      </c>
+      <c r="B1112">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:2">
+      <c r="A1113" s="2">
+        <v>45037</v>
+      </c>
+      <c r="B1113">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:2">
+      <c r="A1114" s="2">
+        <v>45044</v>
+      </c>
+      <c r="B1114">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:2">
+      <c r="A1115" s="2">
+        <v>45051</v>
+      </c>
+      <c r="B1115">
+        <v>-55</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:2">
+      <c r="A1116" s="2">
+        <v>45058</v>
+      </c>
+      <c r="B1116">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:2">
+      <c r="A1117" s="2">
+        <v>45065</v>
+      </c>
+      <c r="B1117">
+        <v>-56</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:2">
+      <c r="A1118" s="2">
+        <v>45072</v>
+      </c>
+      <c r="B1118">
+        <v>-47</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:2">
+      <c r="A1119" s="2">
+        <v>45079</v>
+      </c>
+      <c r="B1119">
+        <v>-33</v>
       </c>
     </row>
   </sheetData>

--- a/每週買賣報表/空單部位變化.xlsx
+++ b/每週買賣報表/空單部位變化.xlsx
@@ -9335,7 +9335,7 @@
         <v>45079</v>
       </c>
       <c r="B1119">
-        <v>-33</v>
+        <v>-30</v>
       </c>
     </row>
   </sheetData>

--- a/每週買賣報表/空單部位變化.xlsx
+++ b/每週買賣報表/空單部位變化.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1119"/>
+  <dimension ref="A1:B1120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -839,7 +839,7 @@
         <v>37645</v>
       </c>
       <c r="B57">
-        <v>-51</v>
+        <v>-52</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -847,7 +847,7 @@
         <v>37652</v>
       </c>
       <c r="B58">
-        <v>-47</v>
+        <v>-48</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -855,7 +855,7 @@
         <v>37659</v>
       </c>
       <c r="B59">
-        <v>-52</v>
+        <v>-53</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -863,7 +863,7 @@
         <v>37666</v>
       </c>
       <c r="B60">
-        <v>-53</v>
+        <v>-54</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -879,7 +879,7 @@
         <v>37680</v>
       </c>
       <c r="B62">
-        <v>-46</v>
+        <v>-47</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -887,7 +887,7 @@
         <v>37687</v>
       </c>
       <c r="B63">
-        <v>-46</v>
+        <v>-47</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -927,7 +927,7 @@
         <v>37722</v>
       </c>
       <c r="B68">
-        <v>-37</v>
+        <v>-38</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -943,7 +943,7 @@
         <v>37736</v>
       </c>
       <c r="B70">
-        <v>-76</v>
+        <v>-77</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -951,7 +951,7 @@
         <v>37743</v>
       </c>
       <c r="B71">
-        <v>-78</v>
+        <v>-79</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -959,7 +959,7 @@
         <v>37750</v>
       </c>
       <c r="B72">
-        <v>-74</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -967,7 +967,7 @@
         <v>37757</v>
       </c>
       <c r="B73">
-        <v>-72</v>
+        <v>-73</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -975,7 +975,7 @@
         <v>37764</v>
       </c>
       <c r="B74">
-        <v>-59</v>
+        <v>-60</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1023,7 +1023,7 @@
         <v>37806</v>
       </c>
       <c r="B80">
-        <v>-23</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1087,7 +1087,7 @@
         <v>37862</v>
       </c>
       <c r="B88">
-        <v>-16</v>
+        <v>-17</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1095,7 +1095,7 @@
         <v>37869</v>
       </c>
       <c r="B89">
-        <v>-21</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1103,7 +1103,7 @@
         <v>37876</v>
       </c>
       <c r="B90">
-        <v>-20</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1111,7 +1111,7 @@
         <v>37883</v>
       </c>
       <c r="B91">
-        <v>-15</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1119,7 +1119,7 @@
         <v>37890</v>
       </c>
       <c r="B92">
-        <v>-15</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1127,7 +1127,7 @@
         <v>37897</v>
       </c>
       <c r="B93">
-        <v>-14</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1135,7 +1135,7 @@
         <v>37904</v>
       </c>
       <c r="B94">
-        <v>-8</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1143,7 +1143,7 @@
         <v>37911</v>
       </c>
       <c r="B95">
-        <v>-8</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1151,7 +1151,7 @@
         <v>37918</v>
       </c>
       <c r="B96">
-        <v>-15</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1159,7 +1159,7 @@
         <v>37925</v>
       </c>
       <c r="B97">
-        <v>-18</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1167,7 +1167,7 @@
         <v>37932</v>
       </c>
       <c r="B98">
-        <v>-18</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1215,7 +1215,7 @@
         <v>37974</v>
       </c>
       <c r="B104">
-        <v>-44</v>
+        <v>-45</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1223,7 +1223,7 @@
         <v>37981</v>
       </c>
       <c r="B105">
-        <v>-38</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1231,7 +1231,7 @@
         <v>37988</v>
       </c>
       <c r="B106">
-        <v>-24</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1359,7 +1359,7 @@
         <v>38100</v>
       </c>
       <c r="B122">
-        <v>-35</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1367,7 +1367,7 @@
         <v>38107</v>
       </c>
       <c r="B123">
-        <v>-51</v>
+        <v>-53</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1375,7 +1375,7 @@
         <v>38114</v>
       </c>
       <c r="B124">
-        <v>-51</v>
+        <v>-52</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1383,7 +1383,7 @@
         <v>38121</v>
       </c>
       <c r="B125">
-        <v>-59</v>
+        <v>-60</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1391,7 +1391,7 @@
         <v>38128</v>
       </c>
       <c r="B126">
-        <v>-59</v>
+        <v>-60</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1399,7 +1399,7 @@
         <v>38135</v>
       </c>
       <c r="B127">
-        <v>-54</v>
+        <v>-55</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1407,7 +1407,7 @@
         <v>38142</v>
       </c>
       <c r="B128">
-        <v>-95</v>
+        <v>-96</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1415,7 +1415,7 @@
         <v>38149</v>
       </c>
       <c r="B129">
-        <v>-85</v>
+        <v>-86</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1423,7 +1423,7 @@
         <v>38156</v>
       </c>
       <c r="B130">
-        <v>-98</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1431,7 +1431,7 @@
         <v>38163</v>
       </c>
       <c r="B131">
-        <v>-72</v>
+        <v>-73</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1439,7 +1439,7 @@
         <v>38170</v>
       </c>
       <c r="B132">
-        <v>-73</v>
+        <v>-74</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1447,7 +1447,7 @@
         <v>38177</v>
       </c>
       <c r="B133">
-        <v>-78</v>
+        <v>-79</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1455,7 +1455,7 @@
         <v>38184</v>
       </c>
       <c r="B134">
-        <v>-115</v>
+        <v>-116</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1463,7 +1463,7 @@
         <v>38191</v>
       </c>
       <c r="B135">
-        <v>-101</v>
+        <v>-102</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1471,7 +1471,7 @@
         <v>38198</v>
       </c>
       <c r="B136">
-        <v>-83</v>
+        <v>-84</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1479,7 +1479,7 @@
         <v>38205</v>
       </c>
       <c r="B137">
-        <v>-80</v>
+        <v>-81</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1511,7 +1511,7 @@
         <v>38233</v>
       </c>
       <c r="B141">
-        <v>-37</v>
+        <v>-38</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1519,7 +1519,7 @@
         <v>38240</v>
       </c>
       <c r="B142">
-        <v>-34</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1527,7 +1527,7 @@
         <v>38247</v>
       </c>
       <c r="B143">
-        <v>-38</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1535,7 +1535,7 @@
         <v>38254</v>
       </c>
       <c r="B144">
-        <v>-44</v>
+        <v>-45</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1543,7 +1543,7 @@
         <v>38261</v>
       </c>
       <c r="B145">
-        <v>-53</v>
+        <v>-54</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1567,7 +1567,7 @@
         <v>38282</v>
       </c>
       <c r="B148">
-        <v>-72</v>
+        <v>-73</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1575,7 +1575,7 @@
         <v>38289</v>
       </c>
       <c r="B149">
-        <v>-76</v>
+        <v>-77</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1583,7 +1583,7 @@
         <v>38296</v>
       </c>
       <c r="B150">
-        <v>-61</v>
+        <v>-62</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1591,7 +1591,7 @@
         <v>38303</v>
       </c>
       <c r="B151">
-        <v>-51</v>
+        <v>-52</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1599,7 +1599,7 @@
         <v>38310</v>
       </c>
       <c r="B152">
-        <v>-29</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1607,7 +1607,7 @@
         <v>38317</v>
       </c>
       <c r="B153">
-        <v>-54</v>
+        <v>-55</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1615,7 +1615,7 @@
         <v>38324</v>
       </c>
       <c r="B154">
-        <v>-50</v>
+        <v>-51</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1623,7 +1623,7 @@
         <v>38331</v>
       </c>
       <c r="B155">
-        <v>-42</v>
+        <v>-43</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1631,7 +1631,7 @@
         <v>38338</v>
       </c>
       <c r="B156">
-        <v>-16</v>
+        <v>-17</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1639,7 +1639,7 @@
         <v>38345</v>
       </c>
       <c r="B157">
-        <v>-21</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1647,7 +1647,7 @@
         <v>38352</v>
       </c>
       <c r="B158">
-        <v>-15</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1655,7 +1655,7 @@
         <v>38359</v>
       </c>
       <c r="B159">
-        <v>-43</v>
+        <v>-44</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1663,7 +1663,7 @@
         <v>38366</v>
       </c>
       <c r="B160">
-        <v>-52</v>
+        <v>-53</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1671,7 +1671,7 @@
         <v>38373</v>
       </c>
       <c r="B161">
-        <v>-52</v>
+        <v>-53</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1679,7 +1679,7 @@
         <v>38380</v>
       </c>
       <c r="B162">
-        <v>-62</v>
+        <v>-63</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1687,7 +1687,7 @@
         <v>38387</v>
       </c>
       <c r="B163">
-        <v>-45</v>
+        <v>-46</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1695,7 +1695,7 @@
         <v>38394</v>
       </c>
       <c r="B164">
-        <v>-37</v>
+        <v>-38</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1719,7 +1719,7 @@
         <v>38415</v>
       </c>
       <c r="B167">
-        <v>-22</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2039,7 +2039,7 @@
         <v>38695</v>
       </c>
       <c r="B207">
-        <v>-17</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2063,7 +2063,7 @@
         <v>38716</v>
       </c>
       <c r="B210">
-        <v>-10</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2087,7 +2087,7 @@
         <v>38737</v>
       </c>
       <c r="B213">
-        <v>-47</v>
+        <v>-48</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2095,7 +2095,7 @@
         <v>38744</v>
       </c>
       <c r="B214">
-        <v>-49</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2103,7 +2103,7 @@
         <v>38751</v>
       </c>
       <c r="B215">
-        <v>-48</v>
+        <v>-49</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2111,7 +2111,7 @@
         <v>38758</v>
       </c>
       <c r="B216">
-        <v>-38</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2119,7 +2119,7 @@
         <v>38765</v>
       </c>
       <c r="B217">
-        <v>-33</v>
+        <v>-34</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2127,7 +2127,7 @@
         <v>38772</v>
       </c>
       <c r="B218">
-        <v>-48</v>
+        <v>-49</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2199,7 +2199,7 @@
         <v>38835</v>
       </c>
       <c r="B227">
-        <v>-13</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2207,7 +2207,7 @@
         <v>38842</v>
       </c>
       <c r="B228">
-        <v>-21</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2215,7 +2215,7 @@
         <v>38849</v>
       </c>
       <c r="B229">
-        <v>-32</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2223,7 +2223,7 @@
         <v>38856</v>
       </c>
       <c r="B230">
-        <v>-40</v>
+        <v>-42</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2231,7 +2231,7 @@
         <v>38863</v>
       </c>
       <c r="B231">
-        <v>-58</v>
+        <v>-60</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2239,7 +2239,7 @@
         <v>38870</v>
       </c>
       <c r="B232">
-        <v>-58</v>
+        <v>-60</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2247,7 +2247,7 @@
         <v>38877</v>
       </c>
       <c r="B233">
-        <v>-70</v>
+        <v>-71</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2255,7 +2255,7 @@
         <v>38884</v>
       </c>
       <c r="B234">
-        <v>-73</v>
+        <v>-74</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2263,7 +2263,7 @@
         <v>38891</v>
       </c>
       <c r="B235">
-        <v>-83</v>
+        <v>-84</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2271,7 +2271,7 @@
         <v>38898</v>
       </c>
       <c r="B236">
-        <v>-63</v>
+        <v>-64</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2279,7 +2279,7 @@
         <v>38905</v>
       </c>
       <c r="B237">
-        <v>-45</v>
+        <v>-46</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2287,7 +2287,7 @@
         <v>38912</v>
       </c>
       <c r="B238">
-        <v>-73</v>
+        <v>-74</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2295,7 +2295,7 @@
         <v>38919</v>
       </c>
       <c r="B239">
-        <v>-60</v>
+        <v>-61</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2303,7 +2303,7 @@
         <v>38926</v>
       </c>
       <c r="B240">
-        <v>-41</v>
+        <v>-42</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2311,7 +2311,7 @@
         <v>38933</v>
       </c>
       <c r="B241">
-        <v>-41</v>
+        <v>-42</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2815,7 +2815,7 @@
         <v>39374</v>
       </c>
       <c r="B304">
-        <v>-36</v>
+        <v>-37</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2855,7 +2855,7 @@
         <v>39409</v>
       </c>
       <c r="B309">
-        <v>-141</v>
+        <v>-142</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -2879,7 +2879,7 @@
         <v>39430</v>
       </c>
       <c r="B312">
-        <v>-180</v>
+        <v>-181</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -2887,7 +2887,7 @@
         <v>39437</v>
       </c>
       <c r="B313">
-        <v>-165</v>
+        <v>-166</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -2895,7 +2895,7 @@
         <v>39444</v>
       </c>
       <c r="B314">
-        <v>-112</v>
+        <v>-113</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -2903,7 +2903,7 @@
         <v>39451</v>
       </c>
       <c r="B315">
-        <v>-94</v>
+        <v>-95</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -2911,7 +2911,7 @@
         <v>39458</v>
       </c>
       <c r="B316">
-        <v>-138</v>
+        <v>-139</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -2919,7 +2919,7 @@
         <v>39465</v>
       </c>
       <c r="B317">
-        <v>-147</v>
+        <v>-148</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2975,7 +2975,7 @@
         <v>39514</v>
       </c>
       <c r="B324">
-        <v>-25</v>
+        <v>-26</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -3023,7 +3023,7 @@
         <v>39556</v>
       </c>
       <c r="B330">
-        <v>-19</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3039,7 +3039,7 @@
         <v>39570</v>
       </c>
       <c r="B332">
-        <v>-27</v>
+        <v>-28</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3047,7 +3047,7 @@
         <v>39577</v>
       </c>
       <c r="B333">
-        <v>-29</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3055,7 +3055,7 @@
         <v>39584</v>
       </c>
       <c r="B334">
-        <v>-17</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3063,7 +3063,7 @@
         <v>39591</v>
       </c>
       <c r="B335">
-        <v>-24</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3071,7 +3071,7 @@
         <v>39598</v>
       </c>
       <c r="B336">
-        <v>-46</v>
+        <v>-47</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3079,7 +3079,7 @@
         <v>39605</v>
       </c>
       <c r="B337">
-        <v>-43</v>
+        <v>-44</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3175,7 +3175,7 @@
         <v>39689</v>
       </c>
       <c r="B349">
-        <v>-79</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -3183,7 +3183,7 @@
         <v>39696</v>
       </c>
       <c r="B350">
-        <v>-101</v>
+        <v>-102</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -3191,7 +3191,7 @@
         <v>39703</v>
       </c>
       <c r="B351">
-        <v>-114</v>
+        <v>-115</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3199,7 +3199,7 @@
         <v>39710</v>
       </c>
       <c r="B352">
-        <v>-93</v>
+        <v>-94</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -5663,7 +5663,7 @@
         <v>41866</v>
       </c>
       <c r="B660">
-        <v>-113</v>
+        <v>-114</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -5671,7 +5671,7 @@
         <v>41873</v>
       </c>
       <c r="B661">
-        <v>-100</v>
+        <v>-101</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -5679,7 +5679,7 @@
         <v>41880</v>
       </c>
       <c r="B662">
-        <v>-80</v>
+        <v>-81</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -5687,7 +5687,7 @@
         <v>41887</v>
       </c>
       <c r="B663">
-        <v>-86</v>
+        <v>-87</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -5695,7 +5695,7 @@
         <v>41894</v>
       </c>
       <c r="B664">
-        <v>-91</v>
+        <v>-92</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -5703,7 +5703,7 @@
         <v>41901</v>
       </c>
       <c r="B665">
-        <v>-77</v>
+        <v>-78</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -5711,7 +5711,7 @@
         <v>41908</v>
       </c>
       <c r="B666">
-        <v>-99</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -5743,7 +5743,7 @@
         <v>41936</v>
       </c>
       <c r="B670">
-        <v>-152</v>
+        <v>-153</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -5751,7 +5751,7 @@
         <v>41943</v>
       </c>
       <c r="B671">
-        <v>-137</v>
+        <v>-138</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -5759,7 +5759,7 @@
         <v>41950</v>
       </c>
       <c r="B672">
-        <v>-122</v>
+        <v>-123</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -5767,7 +5767,7 @@
         <v>41957</v>
       </c>
       <c r="B673">
-        <v>-123</v>
+        <v>-124</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -5775,7 +5775,7 @@
         <v>41964</v>
       </c>
       <c r="B674">
-        <v>-115</v>
+        <v>-116</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -5783,7 +5783,7 @@
         <v>41971</v>
       </c>
       <c r="B675">
-        <v>-94</v>
+        <v>-95</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -6055,7 +6055,7 @@
         <v>42209</v>
       </c>
       <c r="B709">
-        <v>-104</v>
+        <v>-105</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -6063,7 +6063,7 @@
         <v>42216</v>
       </c>
       <c r="B710">
-        <v>-95</v>
+        <v>-96</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -6071,7 +6071,7 @@
         <v>42223</v>
       </c>
       <c r="B711">
-        <v>-91</v>
+        <v>-92</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -6087,7 +6087,7 @@
         <v>42237</v>
       </c>
       <c r="B713">
-        <v>-71</v>
+        <v>-72</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -6095,7 +6095,7 @@
         <v>42244</v>
       </c>
       <c r="B714">
-        <v>-83</v>
+        <v>-84</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -6103,7 +6103,7 @@
         <v>42251</v>
       </c>
       <c r="B715">
-        <v>-58</v>
+        <v>-59</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -6127,7 +6127,7 @@
         <v>42272</v>
       </c>
       <c r="B718">
-        <v>-85</v>
+        <v>-86</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -6495,7 +6495,7 @@
         <v>42594</v>
       </c>
       <c r="B764">
-        <v>-46</v>
+        <v>-47</v>
       </c>
     </row>
     <row r="765" spans="1:2">
@@ -6895,7 +6895,7 @@
         <v>42944</v>
       </c>
       <c r="B814">
-        <v>-39</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="815" spans="1:2">
@@ -6903,7 +6903,7 @@
         <v>42951</v>
       </c>
       <c r="B815">
-        <v>-42</v>
+        <v>-43</v>
       </c>
     </row>
     <row r="816" spans="1:2">
@@ -6911,7 +6911,7 @@
         <v>42958</v>
       </c>
       <c r="B816">
-        <v>-84</v>
+        <v>-85</v>
       </c>
     </row>
     <row r="817" spans="1:2">
@@ -6919,7 +6919,7 @@
         <v>42965</v>
       </c>
       <c r="B817">
-        <v>-85</v>
+        <v>-86</v>
       </c>
     </row>
     <row r="818" spans="1:2">
@@ -6927,7 +6927,7 @@
         <v>42972</v>
       </c>
       <c r="B818">
-        <v>-63</v>
+        <v>-64</v>
       </c>
     </row>
     <row r="819" spans="1:2">
@@ -6935,7 +6935,7 @@
         <v>42979</v>
       </c>
       <c r="B819">
-        <v>-47</v>
+        <v>-48</v>
       </c>
     </row>
     <row r="820" spans="1:2">
@@ -7015,7 +7015,7 @@
         <v>43049</v>
       </c>
       <c r="B829">
-        <v>-57</v>
+        <v>-58</v>
       </c>
     </row>
     <row r="830" spans="1:2">
@@ -7023,7 +7023,7 @@
         <v>43056</v>
       </c>
       <c r="B830">
-        <v>-70</v>
+        <v>-71</v>
       </c>
     </row>
     <row r="831" spans="1:2">
@@ -7247,7 +7247,7 @@
         <v>43252</v>
       </c>
       <c r="B858">
-        <v>-46</v>
+        <v>-47</v>
       </c>
     </row>
     <row r="859" spans="1:2">
@@ -8479,7 +8479,7 @@
         <v>44330</v>
       </c>
       <c r="B1012">
-        <v>-62</v>
+        <v>-63</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
@@ -8487,7 +8487,7 @@
         <v>44337</v>
       </c>
       <c r="B1013">
-        <v>-62</v>
+        <v>-63</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
@@ -8495,7 +8495,7 @@
         <v>44344</v>
       </c>
       <c r="B1014">
-        <v>-52</v>
+        <v>-53</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
@@ -8503,7 +8503,7 @@
         <v>44351</v>
       </c>
       <c r="B1015">
-        <v>-46</v>
+        <v>-47</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
@@ -8511,7 +8511,7 @@
         <v>44358</v>
       </c>
       <c r="B1016">
-        <v>-43</v>
+        <v>-44</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
@@ -8519,7 +8519,7 @@
         <v>44365</v>
       </c>
       <c r="B1017">
-        <v>-23</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="1018" spans="1:2">
@@ -8591,7 +8591,7 @@
         <v>44428</v>
       </c>
       <c r="B1026">
-        <v>-132</v>
+        <v>-133</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
@@ -8599,7 +8599,7 @@
         <v>44435</v>
       </c>
       <c r="B1027">
-        <v>-123</v>
+        <v>-124</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
@@ -8607,7 +8607,7 @@
         <v>44442</v>
       </c>
       <c r="B1028">
-        <v>-93</v>
+        <v>-94</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
@@ -8615,7 +8615,7 @@
         <v>44449</v>
       </c>
       <c r="B1029">
-        <v>-119</v>
+        <v>-120</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
@@ -8687,7 +8687,7 @@
         <v>44512</v>
       </c>
       <c r="B1038">
-        <v>-41</v>
+        <v>-42</v>
       </c>
     </row>
     <row r="1039" spans="1:2">
@@ -8751,7 +8751,7 @@
         <v>44568</v>
       </c>
       <c r="B1046">
-        <v>-80</v>
+        <v>-81</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
@@ -8759,7 +8759,7 @@
         <v>44575</v>
       </c>
       <c r="B1047">
-        <v>-121</v>
+        <v>-122</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
@@ -8767,7 +8767,7 @@
         <v>44582</v>
       </c>
       <c r="B1048">
-        <v>-133</v>
+        <v>-134</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
@@ -8775,7 +8775,7 @@
         <v>44589</v>
       </c>
       <c r="B1049">
-        <v>-148</v>
+        <v>-149</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
@@ -8783,7 +8783,7 @@
         <v>44596</v>
       </c>
       <c r="B1050">
-        <v>-148</v>
+        <v>-149</v>
       </c>
     </row>
     <row r="1051" spans="1:2">
@@ -8895,7 +8895,7 @@
         <v>44694</v>
       </c>
       <c r="B1064">
-        <v>-145</v>
+        <v>-146</v>
       </c>
     </row>
     <row r="1065" spans="1:2">
@@ -8903,7 +8903,7 @@
         <v>44701</v>
       </c>
       <c r="B1065">
-        <v>-115</v>
+        <v>-116</v>
       </c>
     </row>
     <row r="1066" spans="1:2">
@@ -8911,7 +8911,7 @@
         <v>44708</v>
       </c>
       <c r="B1066">
-        <v>-110</v>
+        <v>-111</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
@@ -8919,7 +8919,7 @@
         <v>44715</v>
       </c>
       <c r="B1067">
-        <v>-46</v>
+        <v>-47</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
@@ -8927,7 +8927,7 @@
         <v>44722</v>
       </c>
       <c r="B1068">
-        <v>-59</v>
+        <v>-60</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
@@ -8935,7 +8935,7 @@
         <v>44729</v>
       </c>
       <c r="B1069">
-        <v>-128</v>
+        <v>-129</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
@@ -8943,7 +8943,7 @@
         <v>44736</v>
       </c>
       <c r="B1070">
-        <v>-117</v>
+        <v>-118</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
@@ -8951,7 +8951,7 @@
         <v>44743</v>
       </c>
       <c r="B1071">
-        <v>-96</v>
+        <v>-97</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
@@ -8959,7 +8959,7 @@
         <v>44750</v>
       </c>
       <c r="B1072">
-        <v>-90</v>
+        <v>-91</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
@@ -9047,7 +9047,7 @@
         <v>44827</v>
       </c>
       <c r="B1083">
-        <v>-119</v>
+        <v>-120</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
@@ -9055,7 +9055,7 @@
         <v>44834</v>
       </c>
       <c r="B1084">
-        <v>-125</v>
+        <v>-126</v>
       </c>
     </row>
     <row r="1085" spans="1:2">
@@ -9063,7 +9063,7 @@
         <v>44841</v>
       </c>
       <c r="B1085">
-        <v>-120</v>
+        <v>-121</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
@@ -9071,7 +9071,7 @@
         <v>44848</v>
       </c>
       <c r="B1086">
-        <v>-121</v>
+        <v>-122</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
@@ -9079,7 +9079,7 @@
         <v>44855</v>
       </c>
       <c r="B1087">
-        <v>-120</v>
+        <v>-121</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
@@ -9087,7 +9087,7 @@
         <v>44862</v>
       </c>
       <c r="B1088">
-        <v>-126</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="1089" spans="1:2">
@@ -9151,7 +9151,7 @@
         <v>44918</v>
       </c>
       <c r="B1096">
-        <v>-96</v>
+        <v>-97</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
@@ -9159,7 +9159,7 @@
         <v>44925</v>
       </c>
       <c r="B1097">
-        <v>-111</v>
+        <v>-112</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
@@ -9167,7 +9167,7 @@
         <v>44932</v>
       </c>
       <c r="B1098">
-        <v>-102</v>
+        <v>-103</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
@@ -9175,7 +9175,7 @@
         <v>44939</v>
       </c>
       <c r="B1099">
-        <v>-90</v>
+        <v>-91</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
@@ -9183,7 +9183,7 @@
         <v>44946</v>
       </c>
       <c r="B1100">
-        <v>-69</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
@@ -9191,7 +9191,7 @@
         <v>44953</v>
       </c>
       <c r="B1101">
-        <v>-58</v>
+        <v>-59</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
@@ -9295,7 +9295,7 @@
         <v>45044</v>
       </c>
       <c r="B1114">
-        <v>-50</v>
+        <v>-51</v>
       </c>
     </row>
     <row r="1115" spans="1:2">
@@ -9303,7 +9303,7 @@
         <v>45051</v>
       </c>
       <c r="B1115">
-        <v>-55</v>
+        <v>-56</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
@@ -9311,7 +9311,7 @@
         <v>45058</v>
       </c>
       <c r="B1116">
-        <v>-70</v>
+        <v>-71</v>
       </c>
     </row>
     <row r="1117" spans="1:2">
@@ -9335,7 +9335,15 @@
         <v>45079</v>
       </c>
       <c r="B1119">
-        <v>-30</v>
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:2">
+      <c r="A1120" s="2">
+        <v>45086</v>
+      </c>
+      <c r="B1120">
+        <v>-14</v>
       </c>
     </row>
   </sheetData>

--- a/每週買賣報表/空單部位變化.xlsx
+++ b/每週買賣報表/空單部位變化.xlsx
@@ -9343,7 +9343,7 @@
         <v>45086</v>
       </c>
       <c r="B1120">
-        <v>-14</v>
+        <v>-16</v>
       </c>
     </row>
   </sheetData>

--- a/每週買賣報表/空單部位變化.xlsx
+++ b/每週買賣報表/空單部位變化.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1120"/>
+  <dimension ref="A1:B1121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9346,6 +9346,14 @@
         <v>-16</v>
       </c>
     </row>
+    <row r="1121" spans="1:2">
+      <c r="A1121" s="2">
+        <v>45093</v>
+      </c>
+      <c r="B1121">
+        <v>-17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/每週買賣報表/空單部位變化.xlsx
+++ b/每週買賣報表/空單部位變化.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1121"/>
+  <dimension ref="A1:B1142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -895,7 +895,7 @@
         <v>37694</v>
       </c>
       <c r="B64">
-        <v>-31</v>
+        <v>-32</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1607,7 +1607,7 @@
         <v>38317</v>
       </c>
       <c r="B153">
-        <v>-55</v>
+        <v>-56</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1703,7 +1703,7 @@
         <v>38401</v>
       </c>
       <c r="B165">
-        <v>-22</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1775,7 +1775,7 @@
         <v>38464</v>
       </c>
       <c r="B174">
-        <v>-75</v>
+        <v>-74</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1783,7 +1783,7 @@
         <v>38471</v>
       </c>
       <c r="B175">
-        <v>-72</v>
+        <v>-71</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1791,7 +1791,7 @@
         <v>38478</v>
       </c>
       <c r="B176">
-        <v>-64</v>
+        <v>-62</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1799,7 +1799,7 @@
         <v>38485</v>
       </c>
       <c r="B177">
-        <v>-67</v>
+        <v>-66</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1807,7 +1807,7 @@
         <v>38492</v>
       </c>
       <c r="B178">
-        <v>-61</v>
+        <v>-60</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1815,7 +1815,7 @@
         <v>38499</v>
       </c>
       <c r="B179">
-        <v>-55</v>
+        <v>-54</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1871,7 +1871,7 @@
         <v>38548</v>
       </c>
       <c r="B186">
-        <v>-35</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1879,7 +1879,7 @@
         <v>38555</v>
       </c>
       <c r="B187">
-        <v>-27</v>
+        <v>-28</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1895,7 +1895,7 @@
         <v>38569</v>
       </c>
       <c r="B189">
-        <v>-45</v>
+        <v>-44</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1903,7 +1903,7 @@
         <v>38576</v>
       </c>
       <c r="B190">
-        <v>-35</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1911,7 +1911,7 @@
         <v>38583</v>
       </c>
       <c r="B191">
-        <v>-53</v>
+        <v>-54</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1919,7 +1919,7 @@
         <v>38590</v>
       </c>
       <c r="B192">
-        <v>-54</v>
+        <v>-55</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1927,7 +1927,7 @@
         <v>38597</v>
       </c>
       <c r="B193">
-        <v>-52</v>
+        <v>-53</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1935,7 +1935,7 @@
         <v>38604</v>
       </c>
       <c r="B194">
-        <v>-44</v>
+        <v>-45</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1959,7 +1959,7 @@
         <v>38625</v>
       </c>
       <c r="B197">
-        <v>-40</v>
+        <v>-41</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1967,7 +1967,7 @@
         <v>38632</v>
       </c>
       <c r="B198">
-        <v>-37</v>
+        <v>-38</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1975,7 +1975,7 @@
         <v>38639</v>
       </c>
       <c r="B199">
-        <v>-45</v>
+        <v>-46</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1983,7 +1983,7 @@
         <v>38646</v>
       </c>
       <c r="B200">
-        <v>-68</v>
+        <v>-67</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1999,7 +1999,7 @@
         <v>38660</v>
       </c>
       <c r="B202">
-        <v>-57</v>
+        <v>-58</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2015,7 +2015,7 @@
         <v>38674</v>
       </c>
       <c r="B204">
-        <v>-41</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2111,7 +2111,7 @@
         <v>38758</v>
       </c>
       <c r="B216">
-        <v>-39</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2119,7 +2119,7 @@
         <v>38765</v>
       </c>
       <c r="B217">
-        <v>-34</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2151,7 +2151,7 @@
         <v>38793</v>
       </c>
       <c r="B221">
-        <v>-46</v>
+        <v>-45</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2303,7 +2303,7 @@
         <v>38926</v>
       </c>
       <c r="B240">
-        <v>-42</v>
+        <v>-43</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2351,7 +2351,7 @@
         <v>38968</v>
       </c>
       <c r="B246">
-        <v>-38</v>
+        <v>-37</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2359,7 +2359,7 @@
         <v>38975</v>
       </c>
       <c r="B247">
-        <v>-73</v>
+        <v>-74</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2591,7 +2591,7 @@
         <v>39178</v>
       </c>
       <c r="B276">
-        <v>-13</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -2615,7 +2615,7 @@
         <v>39199</v>
       </c>
       <c r="B279">
-        <v>-31</v>
+        <v>-32</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2623,7 +2623,7 @@
         <v>39206</v>
       </c>
       <c r="B280">
-        <v>-45</v>
+        <v>-46</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2631,7 +2631,7 @@
         <v>39213</v>
       </c>
       <c r="B281">
-        <v>-50</v>
+        <v>-51</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -2639,7 +2639,7 @@
         <v>39220</v>
       </c>
       <c r="B282">
-        <v>-65</v>
+        <v>-66</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -2647,7 +2647,7 @@
         <v>39227</v>
       </c>
       <c r="B283">
-        <v>-52</v>
+        <v>-53</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -2655,7 +2655,7 @@
         <v>39234</v>
       </c>
       <c r="B284">
-        <v>-36</v>
+        <v>-37</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2663,7 +2663,7 @@
         <v>39241</v>
       </c>
       <c r="B285">
-        <v>-32</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2671,7 +2671,7 @@
         <v>39248</v>
       </c>
       <c r="B286">
-        <v>-21</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -2767,7 +2767,7 @@
         <v>39332</v>
       </c>
       <c r="B298">
-        <v>-45</v>
+        <v>-44</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -2823,7 +2823,7 @@
         <v>39381</v>
       </c>
       <c r="B305">
-        <v>-62</v>
+        <v>-64</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -2831,7 +2831,7 @@
         <v>39388</v>
       </c>
       <c r="B306">
-        <v>-96</v>
+        <v>-97</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -2839,7 +2839,7 @@
         <v>39395</v>
       </c>
       <c r="B307">
-        <v>-125</v>
+        <v>-126</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -2847,7 +2847,7 @@
         <v>39402</v>
       </c>
       <c r="B308">
-        <v>-125</v>
+        <v>-126</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -2855,7 +2855,7 @@
         <v>39409</v>
       </c>
       <c r="B309">
-        <v>-142</v>
+        <v>-143</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -2863,7 +2863,7 @@
         <v>39416</v>
       </c>
       <c r="B310">
-        <v>-157</v>
+        <v>-159</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -2871,7 +2871,7 @@
         <v>39423</v>
       </c>
       <c r="B311">
-        <v>-139</v>
+        <v>-141</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -2879,7 +2879,7 @@
         <v>39430</v>
       </c>
       <c r="B312">
-        <v>-181</v>
+        <v>-180</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -2887,7 +2887,7 @@
         <v>39437</v>
       </c>
       <c r="B313">
-        <v>-166</v>
+        <v>-165</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -2895,7 +2895,7 @@
         <v>39444</v>
       </c>
       <c r="B314">
-        <v>-113</v>
+        <v>-112</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -2903,7 +2903,7 @@
         <v>39451</v>
       </c>
       <c r="B315">
-        <v>-95</v>
+        <v>-94</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -2911,7 +2911,7 @@
         <v>39458</v>
       </c>
       <c r="B316">
-        <v>-139</v>
+        <v>-137</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -2919,7 +2919,7 @@
         <v>39465</v>
       </c>
       <c r="B317">
-        <v>-148</v>
+        <v>-147</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2967,7 +2967,7 @@
         <v>39507</v>
       </c>
       <c r="B323">
-        <v>-8</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -2983,7 +2983,7 @@
         <v>39521</v>
       </c>
       <c r="B325">
-        <v>-118</v>
+        <v>-119</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -3095,7 +3095,7 @@
         <v>39619</v>
       </c>
       <c r="B339">
-        <v>-64</v>
+        <v>-65</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3103,7 +3103,7 @@
         <v>39626</v>
       </c>
       <c r="B340">
-        <v>-53</v>
+        <v>-54</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3111,7 +3111,7 @@
         <v>39633</v>
       </c>
       <c r="B341">
-        <v>-56</v>
+        <v>-57</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3119,7 +3119,7 @@
         <v>39640</v>
       </c>
       <c r="B342">
-        <v>-59</v>
+        <v>-60</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3135,7 +3135,7 @@
         <v>39654</v>
       </c>
       <c r="B344">
-        <v>-30</v>
+        <v>-31</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3143,7 +3143,7 @@
         <v>39661</v>
       </c>
       <c r="B345">
-        <v>-57</v>
+        <v>-58</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3151,7 +3151,7 @@
         <v>39668</v>
       </c>
       <c r="B346">
-        <v>-48</v>
+        <v>-49</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3167,7 +3167,7 @@
         <v>39682</v>
       </c>
       <c r="B348">
-        <v>-114</v>
+        <v>-115</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3183,7 +3183,7 @@
         <v>39696</v>
       </c>
       <c r="B350">
-        <v>-102</v>
+        <v>-103</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -3199,7 +3199,7 @@
         <v>39710</v>
       </c>
       <c r="B352">
-        <v>-94</v>
+        <v>-95</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3207,7 +3207,7 @@
         <v>39717</v>
       </c>
       <c r="B353">
-        <v>-83</v>
+        <v>-84</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3231,7 +3231,7 @@
         <v>39738</v>
       </c>
       <c r="B356">
-        <v>-52</v>
+        <v>-51</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3367,7 +3367,7 @@
         <v>39857</v>
       </c>
       <c r="B373">
-        <v>-19</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -3375,7 +3375,7 @@
         <v>39864</v>
       </c>
       <c r="B374">
-        <v>-31</v>
+        <v>-32</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3655,7 +3655,7 @@
         <v>40109</v>
       </c>
       <c r="B409">
-        <v>-11</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -3671,7 +3671,7 @@
         <v>40123</v>
       </c>
       <c r="B411">
-        <v>-31</v>
+        <v>-32</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -3799,7 +3799,7 @@
         <v>40235</v>
       </c>
       <c r="B427">
-        <v>-89</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -3919,7 +3919,7 @@
         <v>40340</v>
       </c>
       <c r="B442">
-        <v>-148</v>
+        <v>-149</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -3927,7 +3927,7 @@
         <v>40347</v>
       </c>
       <c r="B443">
-        <v>-89</v>
+        <v>-91</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -3935,7 +3935,7 @@
         <v>40354</v>
       </c>
       <c r="B444">
-        <v>-71</v>
+        <v>-72</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -3943,7 +3943,7 @@
         <v>40361</v>
       </c>
       <c r="B445">
-        <v>-103</v>
+        <v>-104</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -3951,7 +3951,7 @@
         <v>40368</v>
       </c>
       <c r="B446">
-        <v>-25</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -3959,7 +3959,7 @@
         <v>40375</v>
       </c>
       <c r="B447">
-        <v>-26</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -3967,7 +3967,7 @@
         <v>40382</v>
       </c>
       <c r="B448">
-        <v>-30</v>
+        <v>-31</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -3975,7 +3975,7 @@
         <v>40389</v>
       </c>
       <c r="B449">
-        <v>-49</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -3983,7 +3983,7 @@
         <v>40396</v>
       </c>
       <c r="B450">
-        <v>-40</v>
+        <v>-41</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -3991,7 +3991,7 @@
         <v>40403</v>
       </c>
       <c r="B451">
-        <v>-50</v>
+        <v>-51</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -3999,7 +3999,7 @@
         <v>40410</v>
       </c>
       <c r="B452">
-        <v>-58</v>
+        <v>-59</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -4007,7 +4007,7 @@
         <v>40417</v>
       </c>
       <c r="B453">
-        <v>-112</v>
+        <v>-113</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -4015,7 +4015,7 @@
         <v>40424</v>
       </c>
       <c r="B454">
-        <v>-115</v>
+        <v>-116</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -4055,7 +4055,7 @@
         <v>40459</v>
       </c>
       <c r="B459">
-        <v>-39</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -4063,7 +4063,7 @@
         <v>40466</v>
       </c>
       <c r="B460">
-        <v>-50</v>
+        <v>-51</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -4071,7 +4071,7 @@
         <v>40473</v>
       </c>
       <c r="B461">
-        <v>-50</v>
+        <v>-51</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -4079,7 +4079,7 @@
         <v>40480</v>
       </c>
       <c r="B462">
-        <v>-42</v>
+        <v>-43</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -4087,7 +4087,7 @@
         <v>40487</v>
       </c>
       <c r="B463">
-        <v>-51</v>
+        <v>-52</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -4095,7 +4095,7 @@
         <v>40494</v>
       </c>
       <c r="B464">
-        <v>-57</v>
+        <v>-58</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -4103,7 +4103,7 @@
         <v>40501</v>
       </c>
       <c r="B465">
-        <v>-55</v>
+        <v>-56</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -4111,7 +4111,7 @@
         <v>40508</v>
       </c>
       <c r="B466">
-        <v>-47</v>
+        <v>-48</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -4119,7 +4119,7 @@
         <v>40515</v>
       </c>
       <c r="B467">
-        <v>-17</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -4199,7 +4199,7 @@
         <v>40585</v>
       </c>
       <c r="B477">
-        <v>-98</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -4207,7 +4207,7 @@
         <v>40592</v>
       </c>
       <c r="B478">
-        <v>-88</v>
+        <v>-89</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -4215,7 +4215,7 @@
         <v>40599</v>
       </c>
       <c r="B479">
-        <v>-120</v>
+        <v>-121</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -4223,7 +4223,7 @@
         <v>40606</v>
       </c>
       <c r="B480">
-        <v>-116</v>
+        <v>-118</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -4231,7 +4231,7 @@
         <v>40613</v>
       </c>
       <c r="B481">
-        <v>-112</v>
+        <v>-114</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -4239,7 +4239,7 @@
         <v>40620</v>
       </c>
       <c r="B482">
-        <v>-166</v>
+        <v>-169</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -4247,7 +4247,7 @@
         <v>40627</v>
       </c>
       <c r="B483">
-        <v>-124</v>
+        <v>-126</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4255,7 +4255,7 @@
         <v>40634</v>
       </c>
       <c r="B484">
-        <v>-113</v>
+        <v>-115</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -4263,7 +4263,7 @@
         <v>40641</v>
       </c>
       <c r="B485">
-        <v>-60</v>
+        <v>-62</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -4271,7 +4271,7 @@
         <v>40648</v>
       </c>
       <c r="B486">
-        <v>-69</v>
+        <v>-71</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -4279,7 +4279,7 @@
         <v>40655</v>
       </c>
       <c r="B487">
-        <v>-52</v>
+        <v>-54</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -4287,7 +4287,7 @@
         <v>40662</v>
       </c>
       <c r="B488">
-        <v>-70</v>
+        <v>-72</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -4295,7 +4295,7 @@
         <v>40669</v>
       </c>
       <c r="B489">
-        <v>-78</v>
+        <v>-79</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -4303,7 +4303,7 @@
         <v>40676</v>
       </c>
       <c r="B490">
-        <v>-78</v>
+        <v>-79</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -4311,7 +4311,7 @@
         <v>40683</v>
       </c>
       <c r="B491">
-        <v>-109</v>
+        <v>-110</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -4319,7 +4319,7 @@
         <v>40690</v>
       </c>
       <c r="B492">
-        <v>-108</v>
+        <v>-109</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -4327,7 +4327,7 @@
         <v>40697</v>
       </c>
       <c r="B493">
-        <v>-81</v>
+        <v>-82</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -4335,7 +4335,7 @@
         <v>40704</v>
       </c>
       <c r="B494">
-        <v>-96</v>
+        <v>-97</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -4343,7 +4343,7 @@
         <v>40711</v>
       </c>
       <c r="B495">
-        <v>-144</v>
+        <v>-146</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -4351,7 +4351,7 @@
         <v>40718</v>
       </c>
       <c r="B496">
-        <v>-150</v>
+        <v>-152</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -4359,7 +4359,7 @@
         <v>40725</v>
       </c>
       <c r="B497">
-        <v>-108</v>
+        <v>-109</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -4383,7 +4383,7 @@
         <v>40746</v>
       </c>
       <c r="B500">
-        <v>-106</v>
+        <v>-109</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -4391,7 +4391,7 @@
         <v>40753</v>
       </c>
       <c r="B501">
-        <v>-114</v>
+        <v>-115</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -4399,7 +4399,7 @@
         <v>40760</v>
       </c>
       <c r="B502">
-        <v>-128</v>
+        <v>-129</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -4407,7 +4407,7 @@
         <v>40767</v>
       </c>
       <c r="B503">
-        <v>-129</v>
+        <v>-131</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -4415,7 +4415,7 @@
         <v>40774</v>
       </c>
       <c r="B504">
-        <v>-120</v>
+        <v>-121</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -4423,7 +4423,7 @@
         <v>40781</v>
       </c>
       <c r="B505">
-        <v>-122</v>
+        <v>-124</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -4431,7 +4431,7 @@
         <v>40788</v>
       </c>
       <c r="B506">
-        <v>-97</v>
+        <v>-98</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -4439,7 +4439,7 @@
         <v>40795</v>
       </c>
       <c r="B507">
-        <v>-96</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -4447,7 +4447,7 @@
         <v>40802</v>
       </c>
       <c r="B508">
-        <v>-97</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -4455,7 +4455,7 @@
         <v>40809</v>
       </c>
       <c r="B509">
-        <v>-136</v>
+        <v>-138</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -4463,7 +4463,7 @@
         <v>40816</v>
       </c>
       <c r="B510">
-        <v>-129</v>
+        <v>-131</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -4471,7 +4471,7 @@
         <v>40823</v>
       </c>
       <c r="B511">
-        <v>-137</v>
+        <v>-139</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -4479,7 +4479,7 @@
         <v>40830</v>
       </c>
       <c r="B512">
-        <v>-99</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -4495,7 +4495,7 @@
         <v>40844</v>
       </c>
       <c r="B514">
-        <v>-60</v>
+        <v>-61</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -4527,7 +4527,7 @@
         <v>40872</v>
       </c>
       <c r="B518">
-        <v>-155</v>
+        <v>-156</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -4535,7 +4535,7 @@
         <v>40879</v>
       </c>
       <c r="B519">
-        <v>-142</v>
+        <v>-143</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -4543,7 +4543,7 @@
         <v>40886</v>
       </c>
       <c r="B520">
-        <v>-146</v>
+        <v>-147</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -4551,7 +4551,7 @@
         <v>40893</v>
       </c>
       <c r="B521">
-        <v>-153</v>
+        <v>-154</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -4559,7 +4559,7 @@
         <v>40900</v>
       </c>
       <c r="B522">
-        <v>-88</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -4567,7 +4567,7 @@
         <v>40907</v>
       </c>
       <c r="B523">
-        <v>-76</v>
+        <v>-78</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -4575,7 +4575,7 @@
         <v>40914</v>
       </c>
       <c r="B524">
-        <v>-48</v>
+        <v>-49</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -4583,7 +4583,7 @@
         <v>40921</v>
       </c>
       <c r="B525">
-        <v>-59</v>
+        <v>-61</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -4679,7 +4679,7 @@
         <v>41005</v>
       </c>
       <c r="B537">
-        <v>-43</v>
+        <v>-44</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -4687,7 +4687,7 @@
         <v>41012</v>
       </c>
       <c r="B538">
-        <v>-43</v>
+        <v>-44</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -4695,7 +4695,7 @@
         <v>41019</v>
       </c>
       <c r="B539">
-        <v>-49</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -4703,7 +4703,7 @@
         <v>41026</v>
       </c>
       <c r="B540">
-        <v>-48</v>
+        <v>-49</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -4711,7 +4711,7 @@
         <v>41033</v>
       </c>
       <c r="B541">
-        <v>-33</v>
+        <v>-34</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -4719,7 +4719,7 @@
         <v>41040</v>
       </c>
       <c r="B542">
-        <v>-33</v>
+        <v>-34</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -4727,7 +4727,7 @@
         <v>41047</v>
       </c>
       <c r="B543">
-        <v>-35</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -4743,7 +4743,7 @@
         <v>41061</v>
       </c>
       <c r="B545">
-        <v>-32</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -4751,7 +4751,7 @@
         <v>41068</v>
       </c>
       <c r="B546">
-        <v>-37</v>
+        <v>-38</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -4759,7 +4759,7 @@
         <v>41075</v>
       </c>
       <c r="B547">
-        <v>-32</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -4823,7 +4823,7 @@
         <v>41131</v>
       </c>
       <c r="B555">
-        <v>-32</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -4847,7 +4847,7 @@
         <v>41152</v>
       </c>
       <c r="B558">
-        <v>-38</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -4879,7 +4879,7 @@
         <v>41180</v>
       </c>
       <c r="B562">
-        <v>-19</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -4887,7 +4887,7 @@
         <v>41187</v>
       </c>
       <c r="B563">
-        <v>-19</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -4895,7 +4895,7 @@
         <v>41194</v>
       </c>
       <c r="B564">
-        <v>-25</v>
+        <v>-26</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -4911,7 +4911,7 @@
         <v>41208</v>
       </c>
       <c r="B566">
-        <v>-32</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -4919,7 +4919,7 @@
         <v>41215</v>
       </c>
       <c r="B567">
-        <v>-40</v>
+        <v>-41</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -4927,7 +4927,7 @@
         <v>41222</v>
       </c>
       <c r="B568">
-        <v>-35</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -4935,7 +4935,7 @@
         <v>41229</v>
       </c>
       <c r="B569">
-        <v>-41</v>
+        <v>-42</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -4959,7 +4959,7 @@
         <v>41250</v>
       </c>
       <c r="B572">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -5175,7 +5175,7 @@
         <v>41439</v>
       </c>
       <c r="B599">
-        <v>-67</v>
+        <v>-68</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -5183,7 +5183,7 @@
         <v>41446</v>
       </c>
       <c r="B600">
-        <v>-70</v>
+        <v>-71</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -5247,7 +5247,7 @@
         <v>41502</v>
       </c>
       <c r="B608">
-        <v>-67</v>
+        <v>-66</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -5255,7 +5255,7 @@
         <v>41509</v>
       </c>
       <c r="B609">
-        <v>-70</v>
+        <v>-69</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -5263,7 +5263,7 @@
         <v>41516</v>
       </c>
       <c r="B610">
-        <v>-73</v>
+        <v>-72</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -5271,7 +5271,7 @@
         <v>41523</v>
       </c>
       <c r="B611">
-        <v>-47</v>
+        <v>-45</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -5279,7 +5279,7 @@
         <v>41530</v>
       </c>
       <c r="B612">
-        <v>-54</v>
+        <v>-52</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -5287,7 +5287,7 @@
         <v>41537</v>
       </c>
       <c r="B613">
-        <v>-40</v>
+        <v>-38</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -5295,7 +5295,7 @@
         <v>41544</v>
       </c>
       <c r="B614">
-        <v>-37</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -5303,7 +5303,7 @@
         <v>41551</v>
       </c>
       <c r="B615">
-        <v>-28</v>
+        <v>-26</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -5311,7 +5311,7 @@
         <v>41558</v>
       </c>
       <c r="B616">
-        <v>-52</v>
+        <v>-51</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -5319,7 +5319,7 @@
         <v>41565</v>
       </c>
       <c r="B617">
-        <v>-52</v>
+        <v>-51</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -5327,7 +5327,7 @@
         <v>41572</v>
       </c>
       <c r="B618">
-        <v>-56</v>
+        <v>-55</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -5335,7 +5335,7 @@
         <v>41579</v>
       </c>
       <c r="B619">
-        <v>-57</v>
+        <v>-56</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -5343,7 +5343,7 @@
         <v>41586</v>
       </c>
       <c r="B620">
-        <v>-66</v>
+        <v>-65</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -5351,7 +5351,7 @@
         <v>41593</v>
       </c>
       <c r="B621">
-        <v>-74</v>
+        <v>-73</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -5359,7 +5359,7 @@
         <v>41600</v>
       </c>
       <c r="B622">
-        <v>-85</v>
+        <v>-84</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -5375,7 +5375,7 @@
         <v>41614</v>
       </c>
       <c r="B624">
-        <v>-52</v>
+        <v>-51</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -5383,7 +5383,7 @@
         <v>41621</v>
       </c>
       <c r="B625">
-        <v>-70</v>
+        <v>-69</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -5391,7 +5391,7 @@
         <v>41628</v>
       </c>
       <c r="B626">
-        <v>-58</v>
+        <v>-57</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -5399,7 +5399,7 @@
         <v>41635</v>
       </c>
       <c r="B627">
-        <v>-24</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -5455,7 +5455,7 @@
         <v>41684</v>
       </c>
       <c r="B634">
-        <v>-41</v>
+        <v>-42</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -5559,7 +5559,7 @@
         <v>41775</v>
       </c>
       <c r="B647">
-        <v>-73</v>
+        <v>-74</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -5567,7 +5567,7 @@
         <v>41782</v>
       </c>
       <c r="B648">
-        <v>-59</v>
+        <v>-58</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -5631,7 +5631,7 @@
         <v>41838</v>
       </c>
       <c r="B656">
-        <v>-64</v>
+        <v>-65</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -5639,7 +5639,7 @@
         <v>41845</v>
       </c>
       <c r="B657">
-        <v>-53</v>
+        <v>-54</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -5671,7 +5671,7 @@
         <v>41873</v>
       </c>
       <c r="B661">
-        <v>-101</v>
+        <v>-102</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -5679,7 +5679,7 @@
         <v>41880</v>
       </c>
       <c r="B662">
-        <v>-81</v>
+        <v>-82</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -5687,7 +5687,7 @@
         <v>41887</v>
       </c>
       <c r="B663">
-        <v>-87</v>
+        <v>-88</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -5695,7 +5695,7 @@
         <v>41894</v>
       </c>
       <c r="B664">
-        <v>-92</v>
+        <v>-93</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -5703,7 +5703,7 @@
         <v>41901</v>
       </c>
       <c r="B665">
-        <v>-78</v>
+        <v>-79</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -5711,7 +5711,7 @@
         <v>41908</v>
       </c>
       <c r="B666">
-        <v>-100</v>
+        <v>-101</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -5719,7 +5719,7 @@
         <v>41915</v>
       </c>
       <c r="B667">
-        <v>-83</v>
+        <v>-84</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -5727,7 +5727,7 @@
         <v>41922</v>
       </c>
       <c r="B668">
-        <v>-106</v>
+        <v>-107</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -5767,7 +5767,7 @@
         <v>41957</v>
       </c>
       <c r="B673">
-        <v>-124</v>
+        <v>-123</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -5775,7 +5775,7 @@
         <v>41964</v>
       </c>
       <c r="B674">
-        <v>-116</v>
+        <v>-114</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -5783,7 +5783,7 @@
         <v>41971</v>
       </c>
       <c r="B675">
-        <v>-95</v>
+        <v>-92</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -5807,7 +5807,7 @@
         <v>41992</v>
       </c>
       <c r="B678">
-        <v>-106</v>
+        <v>-105</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -5815,7 +5815,7 @@
         <v>41999</v>
       </c>
       <c r="B679">
-        <v>-41</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -5823,7 +5823,7 @@
         <v>42006</v>
       </c>
       <c r="B680">
-        <v>-34</v>
+        <v>-32</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -5831,7 +5831,7 @@
         <v>42013</v>
       </c>
       <c r="B681">
-        <v>-52</v>
+        <v>-51</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -5847,7 +5847,7 @@
         <v>42027</v>
       </c>
       <c r="B683">
-        <v>-48</v>
+        <v>-49</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -5855,7 +5855,7 @@
         <v>42034</v>
       </c>
       <c r="B684">
-        <v>-48</v>
+        <v>-49</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -5871,7 +5871,7 @@
         <v>42048</v>
       </c>
       <c r="B686">
-        <v>-69</v>
+        <v>-68</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -5879,7 +5879,7 @@
         <v>42055</v>
       </c>
       <c r="B687">
-        <v>-64</v>
+        <v>-63</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -5887,7 +5887,7 @@
         <v>42062</v>
       </c>
       <c r="B688">
-        <v>-37</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -5895,7 +5895,7 @@
         <v>42069</v>
       </c>
       <c r="B689">
-        <v>-24</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -5903,7 +5903,7 @@
         <v>42076</v>
       </c>
       <c r="B690">
-        <v>-23</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -5911,7 +5911,7 @@
         <v>42083</v>
       </c>
       <c r="B691">
-        <v>-22</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -5919,7 +5919,7 @@
         <v>42090</v>
       </c>
       <c r="B692">
-        <v>-25</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -5927,7 +5927,7 @@
         <v>42097</v>
       </c>
       <c r="B693">
-        <v>-33</v>
+        <v>-31</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -5935,7 +5935,7 @@
         <v>42104</v>
       </c>
       <c r="B694">
-        <v>-38</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -5943,7 +5943,7 @@
         <v>42111</v>
       </c>
       <c r="B695">
-        <v>-41</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -5951,7 +5951,7 @@
         <v>42118</v>
       </c>
       <c r="B696">
-        <v>-50</v>
+        <v>-49</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -5959,7 +5959,7 @@
         <v>42125</v>
       </c>
       <c r="B697">
-        <v>-56</v>
+        <v>-55</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -5967,7 +5967,7 @@
         <v>42132</v>
       </c>
       <c r="B698">
-        <v>-77</v>
+        <v>-76</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -6063,7 +6063,7 @@
         <v>42216</v>
       </c>
       <c r="B710">
-        <v>-96</v>
+        <v>-97</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -6071,7 +6071,7 @@
         <v>42223</v>
       </c>
       <c r="B711">
-        <v>-92</v>
+        <v>-93</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -6079,7 +6079,7 @@
         <v>42230</v>
       </c>
       <c r="B712">
-        <v>-68</v>
+        <v>-69</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -6087,7 +6087,7 @@
         <v>42237</v>
       </c>
       <c r="B713">
-        <v>-72</v>
+        <v>-73</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -6095,7 +6095,7 @@
         <v>42244</v>
       </c>
       <c r="B714">
-        <v>-84</v>
+        <v>-85</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -6103,7 +6103,7 @@
         <v>42251</v>
       </c>
       <c r="B715">
-        <v>-59</v>
+        <v>-60</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -6175,7 +6175,7 @@
         <v>42314</v>
       </c>
       <c r="B724">
-        <v>-35</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -6183,7 +6183,7 @@
         <v>42321</v>
       </c>
       <c r="B725">
-        <v>-91</v>
+        <v>-92</v>
       </c>
     </row>
     <row r="726" spans="1:2">
@@ -6191,7 +6191,7 @@
         <v>42328</v>
       </c>
       <c r="B726">
-        <v>-78</v>
+        <v>-79</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -6199,7 +6199,7 @@
         <v>42335</v>
       </c>
       <c r="B727">
-        <v>-79</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -6231,7 +6231,7 @@
         <v>42363</v>
       </c>
       <c r="B731">
-        <v>-54</v>
+        <v>-55</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -6239,7 +6239,7 @@
         <v>42370</v>
       </c>
       <c r="B732">
-        <v>-49</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -6247,7 +6247,7 @@
         <v>42377</v>
       </c>
       <c r="B733">
-        <v>-72</v>
+        <v>-73</v>
       </c>
     </row>
     <row r="734" spans="1:2">
@@ -6255,7 +6255,7 @@
         <v>42384</v>
       </c>
       <c r="B734">
-        <v>-69</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -6263,7 +6263,7 @@
         <v>42391</v>
       </c>
       <c r="B735">
-        <v>-66</v>
+        <v>-67</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -6271,7 +6271,7 @@
         <v>42398</v>
       </c>
       <c r="B736">
-        <v>-45</v>
+        <v>-46</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -6279,7 +6279,7 @@
         <v>42405</v>
       </c>
       <c r="B737">
-        <v>-35</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -6327,7 +6327,7 @@
         <v>42447</v>
       </c>
       <c r="B743">
-        <v>-29</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -6351,7 +6351,7 @@
         <v>42468</v>
       </c>
       <c r="B746">
-        <v>-59</v>
+        <v>-60</v>
       </c>
     </row>
     <row r="747" spans="1:2">
@@ -6367,7 +6367,7 @@
         <v>42482</v>
       </c>
       <c r="B748">
-        <v>-79</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="749" spans="1:2">
@@ -6375,7 +6375,7 @@
         <v>42489</v>
       </c>
       <c r="B749">
-        <v>-87</v>
+        <v>-88</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -6383,7 +6383,7 @@
         <v>42496</v>
       </c>
       <c r="B750">
-        <v>-97</v>
+        <v>-98</v>
       </c>
     </row>
     <row r="751" spans="1:2">
@@ -6391,7 +6391,7 @@
         <v>42503</v>
       </c>
       <c r="B751">
-        <v>-96</v>
+        <v>-97</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -6399,7 +6399,7 @@
         <v>42510</v>
       </c>
       <c r="B752">
-        <v>-90</v>
+        <v>-91</v>
       </c>
     </row>
     <row r="753" spans="1:2">
@@ -6407,7 +6407,7 @@
         <v>42517</v>
       </c>
       <c r="B753">
-        <v>-43</v>
+        <v>-44</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -6415,7 +6415,7 @@
         <v>42524</v>
       </c>
       <c r="B754">
-        <v>-30</v>
+        <v>-31</v>
       </c>
     </row>
     <row r="755" spans="1:2">
@@ -6431,7 +6431,7 @@
         <v>42538</v>
       </c>
       <c r="B756">
-        <v>-41</v>
+        <v>-42</v>
       </c>
     </row>
     <row r="757" spans="1:2">
@@ -6439,7 +6439,7 @@
         <v>42545</v>
       </c>
       <c r="B757">
-        <v>-49</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="758" spans="1:2">
@@ -6495,7 +6495,7 @@
         <v>42594</v>
       </c>
       <c r="B764">
-        <v>-47</v>
+        <v>-46</v>
       </c>
     </row>
     <row r="765" spans="1:2">
@@ -6655,7 +6655,7 @@
         <v>42734</v>
       </c>
       <c r="B784">
-        <v>-36</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -6943,7 +6943,7 @@
         <v>42986</v>
       </c>
       <c r="B820">
-        <v>-48</v>
+        <v>-47</v>
       </c>
     </row>
     <row r="821" spans="1:2">
@@ -6959,7 +6959,7 @@
         <v>43000</v>
       </c>
       <c r="B822">
-        <v>-49</v>
+        <v>-48</v>
       </c>
     </row>
     <row r="823" spans="1:2">
@@ -6967,7 +6967,7 @@
         <v>43007</v>
       </c>
       <c r="B823">
-        <v>-64</v>
+        <v>-63</v>
       </c>
     </row>
     <row r="824" spans="1:2">
@@ -7023,7 +7023,7 @@
         <v>43056</v>
       </c>
       <c r="B830">
-        <v>-71</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="831" spans="1:2">
@@ -7031,7 +7031,7 @@
         <v>43063</v>
       </c>
       <c r="B831">
-        <v>-62</v>
+        <v>-60</v>
       </c>
     </row>
     <row r="832" spans="1:2">
@@ -7039,7 +7039,7 @@
         <v>43070</v>
       </c>
       <c r="B832">
-        <v>-79</v>
+        <v>-78</v>
       </c>
     </row>
     <row r="833" spans="1:2">
@@ -7047,7 +7047,7 @@
         <v>43077</v>
       </c>
       <c r="B833">
-        <v>-93</v>
+        <v>-92</v>
       </c>
     </row>
     <row r="834" spans="1:2">
@@ -7055,7 +7055,7 @@
         <v>43084</v>
       </c>
       <c r="B834">
-        <v>-81</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="835" spans="1:2">
@@ -7071,7 +7071,7 @@
         <v>43098</v>
       </c>
       <c r="B836">
-        <v>-50</v>
+        <v>-49</v>
       </c>
     </row>
     <row r="837" spans="1:2">
@@ -7159,7 +7159,7 @@
         <v>43175</v>
       </c>
       <c r="B847">
-        <v>-40</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="848" spans="1:2">
@@ -7167,7 +7167,7 @@
         <v>43182</v>
       </c>
       <c r="B848">
-        <v>-86</v>
+        <v>-85</v>
       </c>
     </row>
     <row r="849" spans="1:2">
@@ -7175,7 +7175,7 @@
         <v>43189</v>
       </c>
       <c r="B849">
-        <v>-68</v>
+        <v>-67</v>
       </c>
     </row>
     <row r="850" spans="1:2">
@@ -7183,7 +7183,7 @@
         <v>43196</v>
       </c>
       <c r="B850">
-        <v>-65</v>
+        <v>-63</v>
       </c>
     </row>
     <row r="851" spans="1:2">
@@ -7191,7 +7191,7 @@
         <v>43203</v>
       </c>
       <c r="B851">
-        <v>-85</v>
+        <v>-84</v>
       </c>
     </row>
     <row r="852" spans="1:2">
@@ -7199,7 +7199,7 @@
         <v>43210</v>
       </c>
       <c r="B852">
-        <v>-91</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="853" spans="1:2">
@@ -7207,7 +7207,7 @@
         <v>43217</v>
       </c>
       <c r="B853">
-        <v>-112</v>
+        <v>-111</v>
       </c>
     </row>
     <row r="854" spans="1:2">
@@ -7215,7 +7215,7 @@
         <v>43224</v>
       </c>
       <c r="B854">
-        <v>-111</v>
+        <v>-110</v>
       </c>
     </row>
     <row r="855" spans="1:2">
@@ -7223,7 +7223,7 @@
         <v>43231</v>
       </c>
       <c r="B855">
-        <v>-101</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="856" spans="1:2">
@@ -7255,7 +7255,7 @@
         <v>43259</v>
       </c>
       <c r="B859">
-        <v>-30</v>
+        <v>-31</v>
       </c>
     </row>
     <row r="860" spans="1:2">
@@ -7263,7 +7263,7 @@
         <v>43266</v>
       </c>
       <c r="B860">
-        <v>-52</v>
+        <v>-54</v>
       </c>
     </row>
     <row r="861" spans="1:2">
@@ -7271,7 +7271,7 @@
         <v>43273</v>
       </c>
       <c r="B861">
-        <v>-96</v>
+        <v>-97</v>
       </c>
     </row>
     <row r="862" spans="1:2">
@@ -7279,7 +7279,7 @@
         <v>43280</v>
       </c>
       <c r="B862">
-        <v>-89</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="863" spans="1:2">
@@ -7287,7 +7287,7 @@
         <v>43287</v>
       </c>
       <c r="B863">
-        <v>-112</v>
+        <v>-113</v>
       </c>
     </row>
     <row r="864" spans="1:2">
@@ -7295,7 +7295,7 @@
         <v>43294</v>
       </c>
       <c r="B864">
-        <v>-85</v>
+        <v>-86</v>
       </c>
     </row>
     <row r="865" spans="1:2">
@@ -7319,7 +7319,7 @@
         <v>43315</v>
       </c>
       <c r="B867">
-        <v>-45</v>
+        <v>-43</v>
       </c>
     </row>
     <row r="868" spans="1:2">
@@ -7335,7 +7335,7 @@
         <v>43329</v>
       </c>
       <c r="B869">
-        <v>-82</v>
+        <v>-83</v>
       </c>
     </row>
     <row r="870" spans="1:2">
@@ -7343,7 +7343,7 @@
         <v>43336</v>
       </c>
       <c r="B870">
-        <v>-85</v>
+        <v>-86</v>
       </c>
     </row>
     <row r="871" spans="1:2">
@@ -7351,7 +7351,7 @@
         <v>43343</v>
       </c>
       <c r="B871">
-        <v>-72</v>
+        <v>-74</v>
       </c>
     </row>
     <row r="872" spans="1:2">
@@ -7359,7 +7359,7 @@
         <v>43350</v>
       </c>
       <c r="B872">
-        <v>-86</v>
+        <v>-87</v>
       </c>
     </row>
     <row r="873" spans="1:2">
@@ -7367,7 +7367,7 @@
         <v>43357</v>
       </c>
       <c r="B873">
-        <v>-81</v>
+        <v>-82</v>
       </c>
     </row>
     <row r="874" spans="1:2">
@@ -7375,7 +7375,7 @@
         <v>43364</v>
       </c>
       <c r="B874">
-        <v>-77</v>
+        <v>-78</v>
       </c>
     </row>
     <row r="875" spans="1:2">
@@ -7383,7 +7383,7 @@
         <v>43371</v>
       </c>
       <c r="B875">
-        <v>-71</v>
+        <v>-72</v>
       </c>
     </row>
     <row r="876" spans="1:2">
@@ -7391,7 +7391,7 @@
         <v>43378</v>
       </c>
       <c r="B876">
-        <v>-84</v>
+        <v>-85</v>
       </c>
     </row>
     <row r="877" spans="1:2">
@@ -7399,7 +7399,7 @@
         <v>43385</v>
       </c>
       <c r="B877">
-        <v>-74</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="878" spans="1:2">
@@ -7407,7 +7407,7 @@
         <v>43392</v>
       </c>
       <c r="B878">
-        <v>-78</v>
+        <v>-79</v>
       </c>
     </row>
     <row r="879" spans="1:2">
@@ -7415,7 +7415,7 @@
         <v>43399</v>
       </c>
       <c r="B879">
-        <v>-63</v>
+        <v>-64</v>
       </c>
     </row>
     <row r="880" spans="1:2">
@@ -7423,7 +7423,7 @@
         <v>43406</v>
       </c>
       <c r="B880">
-        <v>-57</v>
+        <v>-58</v>
       </c>
     </row>
     <row r="881" spans="1:2">
@@ -7431,7 +7431,7 @@
         <v>43413</v>
       </c>
       <c r="B881">
-        <v>-47</v>
+        <v>-48</v>
       </c>
     </row>
     <row r="882" spans="1:2">
@@ -7447,7 +7447,7 @@
         <v>43427</v>
       </c>
       <c r="B883">
-        <v>-58</v>
+        <v>-57</v>
       </c>
     </row>
     <row r="884" spans="1:2">
@@ -7455,7 +7455,7 @@
         <v>43434</v>
       </c>
       <c r="B884">
-        <v>-18</v>
+        <v>-17</v>
       </c>
     </row>
     <row r="885" spans="1:2">
@@ -7463,7 +7463,7 @@
         <v>43441</v>
       </c>
       <c r="B885">
-        <v>-18</v>
+        <v>-17</v>
       </c>
     </row>
     <row r="886" spans="1:2">
@@ -7471,7 +7471,7 @@
         <v>43448</v>
       </c>
       <c r="B886">
-        <v>-68</v>
+        <v>-67</v>
       </c>
     </row>
     <row r="887" spans="1:2">
@@ -7479,7 +7479,7 @@
         <v>43455</v>
       </c>
       <c r="B887">
-        <v>-112</v>
+        <v>-111</v>
       </c>
     </row>
     <row r="888" spans="1:2">
@@ -7487,7 +7487,7 @@
         <v>43462</v>
       </c>
       <c r="B888">
-        <v>-112</v>
+        <v>-111</v>
       </c>
     </row>
     <row r="889" spans="1:2">
@@ -7503,7 +7503,7 @@
         <v>43476</v>
       </c>
       <c r="B890">
-        <v>-87</v>
+        <v>-86</v>
       </c>
     </row>
     <row r="891" spans="1:2">
@@ -7543,7 +7543,7 @@
         <v>43511</v>
       </c>
       <c r="B895">
-        <v>-17</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="896" spans="1:2">
@@ -7831,7 +7831,7 @@
         <v>43763</v>
       </c>
       <c r="B931">
-        <v>-23</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="932" spans="1:2">
@@ -7895,7 +7895,7 @@
         <v>43819</v>
       </c>
       <c r="B939">
-        <v>-34</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="940" spans="1:2">
@@ -7935,7 +7935,7 @@
         <v>43854</v>
       </c>
       <c r="B944">
-        <v>-37</v>
+        <v>-38</v>
       </c>
     </row>
     <row r="945" spans="1:2">
@@ -7943,7 +7943,7 @@
         <v>43861</v>
       </c>
       <c r="B945">
-        <v>-77</v>
+        <v>-78</v>
       </c>
     </row>
     <row r="946" spans="1:2">
@@ -7951,7 +7951,7 @@
         <v>43868</v>
       </c>
       <c r="B946">
-        <v>-96</v>
+        <v>-97</v>
       </c>
     </row>
     <row r="947" spans="1:2">
@@ -7959,7 +7959,7 @@
         <v>43875</v>
       </c>
       <c r="B947">
-        <v>-81</v>
+        <v>-82</v>
       </c>
     </row>
     <row r="948" spans="1:2">
@@ -7967,7 +7967,7 @@
         <v>43882</v>
       </c>
       <c r="B948">
-        <v>-78</v>
+        <v>-79</v>
       </c>
     </row>
     <row r="949" spans="1:2">
@@ -8063,7 +8063,7 @@
         <v>43966</v>
       </c>
       <c r="B960">
-        <v>-97</v>
+        <v>-96</v>
       </c>
     </row>
     <row r="961" spans="1:2">
@@ -8071,7 +8071,7 @@
         <v>43973</v>
       </c>
       <c r="B961">
-        <v>-64</v>
+        <v>-63</v>
       </c>
     </row>
     <row r="962" spans="1:2">
@@ -8079,7 +8079,7 @@
         <v>43980</v>
       </c>
       <c r="B962">
-        <v>-51</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="963" spans="1:2">
@@ -8263,7 +8263,7 @@
         <v>44141</v>
       </c>
       <c r="B985">
-        <v>-32</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="986" spans="1:2">
@@ -8351,7 +8351,7 @@
         <v>44218</v>
       </c>
       <c r="B996">
-        <v>-63</v>
+        <v>-64</v>
       </c>
     </row>
     <row r="997" spans="1:2">
@@ -8359,7 +8359,7 @@
         <v>44225</v>
       </c>
       <c r="B997">
-        <v>-74</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="998" spans="1:2">
@@ -8367,7 +8367,7 @@
         <v>44232</v>
       </c>
       <c r="B998">
-        <v>-72</v>
+        <v>-73</v>
       </c>
     </row>
     <row r="999" spans="1:2">
@@ -8375,7 +8375,7 @@
         <v>44239</v>
       </c>
       <c r="B999">
-        <v>-70</v>
+        <v>-71</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
@@ -8551,7 +8551,7 @@
         <v>44393</v>
       </c>
       <c r="B1021">
-        <v>-22</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="1022" spans="1:2">
@@ -8575,7 +8575,7 @@
         <v>44414</v>
       </c>
       <c r="B1024">
-        <v>-68</v>
+        <v>-67</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
@@ -8607,7 +8607,7 @@
         <v>44442</v>
       </c>
       <c r="B1028">
-        <v>-94</v>
+        <v>-93</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
@@ -8615,7 +8615,7 @@
         <v>44449</v>
       </c>
       <c r="B1029">
-        <v>-120</v>
+        <v>-119</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
@@ -8623,7 +8623,7 @@
         <v>44456</v>
       </c>
       <c r="B1030">
-        <v>-126</v>
+        <v>-125</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
@@ -8631,7 +8631,7 @@
         <v>44463</v>
       </c>
       <c r="B1031">
-        <v>-112</v>
+        <v>-111</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
@@ -8695,7 +8695,7 @@
         <v>44519</v>
       </c>
       <c r="B1039">
-        <v>-54</v>
+        <v>-53</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
@@ -8703,7 +8703,7 @@
         <v>44526</v>
       </c>
       <c r="B1040">
-        <v>-85</v>
+        <v>-84</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
@@ -8727,7 +8727,7 @@
         <v>44547</v>
       </c>
       <c r="B1043">
-        <v>-98</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
@@ -8735,7 +8735,7 @@
         <v>44554</v>
       </c>
       <c r="B1044">
-        <v>-73</v>
+        <v>-74</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
@@ -8743,7 +8743,7 @@
         <v>44561</v>
       </c>
       <c r="B1045">
-        <v>-40</v>
+        <v>-42</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
@@ -8751,7 +8751,7 @@
         <v>44568</v>
       </c>
       <c r="B1046">
-        <v>-81</v>
+        <v>-83</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
@@ -8759,7 +8759,7 @@
         <v>44575</v>
       </c>
       <c r="B1047">
-        <v>-122</v>
+        <v>-124</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
@@ -8767,7 +8767,7 @@
         <v>44582</v>
       </c>
       <c r="B1048">
-        <v>-134</v>
+        <v>-135</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
@@ -8775,7 +8775,7 @@
         <v>44589</v>
       </c>
       <c r="B1049">
-        <v>-149</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
@@ -8783,7 +8783,7 @@
         <v>44596</v>
       </c>
       <c r="B1050">
-        <v>-149</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="1051" spans="1:2">
@@ -8807,7 +8807,7 @@
         <v>44617</v>
       </c>
       <c r="B1053">
-        <v>-72</v>
+        <v>-73</v>
       </c>
     </row>
     <row r="1054" spans="1:2">
@@ -8831,7 +8831,7 @@
         <v>44638</v>
       </c>
       <c r="B1056">
-        <v>-68</v>
+        <v>-67</v>
       </c>
     </row>
     <row r="1057" spans="1:2">
@@ -8839,7 +8839,7 @@
         <v>44645</v>
       </c>
       <c r="B1057">
-        <v>-62</v>
+        <v>-61</v>
       </c>
     </row>
     <row r="1058" spans="1:2">
@@ -8855,7 +8855,7 @@
         <v>44659</v>
       </c>
       <c r="B1059">
-        <v>-104</v>
+        <v>-105</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
@@ -8863,7 +8863,7 @@
         <v>44666</v>
       </c>
       <c r="B1060">
-        <v>-142</v>
+        <v>-143</v>
       </c>
     </row>
     <row r="1061" spans="1:2">
@@ -8871,7 +8871,7 @@
         <v>44673</v>
       </c>
       <c r="B1061">
-        <v>-129</v>
+        <v>-130</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
@@ -8967,7 +8967,7 @@
         <v>44757</v>
       </c>
       <c r="B1073">
-        <v>-80</v>
+        <v>-81</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
@@ -8975,7 +8975,7 @@
         <v>44764</v>
       </c>
       <c r="B1074">
-        <v>-46</v>
+        <v>-47</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
@@ -8983,7 +8983,7 @@
         <v>44771</v>
       </c>
       <c r="B1075">
-        <v>-32</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
@@ -8991,7 +8991,7 @@
         <v>44778</v>
       </c>
       <c r="B1076">
-        <v>-79</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
@@ -8999,7 +8999,7 @@
         <v>44785</v>
       </c>
       <c r="B1077">
-        <v>-37</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
@@ -9007,7 +9007,7 @@
         <v>44792</v>
       </c>
       <c r="B1078">
-        <v>-13</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
@@ -9031,7 +9031,7 @@
         <v>44813</v>
       </c>
       <c r="B1081">
-        <v>-118</v>
+        <v>-117</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
@@ -9039,7 +9039,7 @@
         <v>44820</v>
       </c>
       <c r="B1082">
-        <v>-108</v>
+        <v>-107</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
@@ -9047,7 +9047,7 @@
         <v>44827</v>
       </c>
       <c r="B1083">
-        <v>-120</v>
+        <v>-119</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
@@ -9055,7 +9055,7 @@
         <v>44834</v>
       </c>
       <c r="B1084">
-        <v>-126</v>
+        <v>-125</v>
       </c>
     </row>
     <row r="1085" spans="1:2">
@@ -9063,7 +9063,7 @@
         <v>44841</v>
       </c>
       <c r="B1085">
-        <v>-121</v>
+        <v>-120</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
@@ -9071,7 +9071,7 @@
         <v>44848</v>
       </c>
       <c r="B1086">
-        <v>-122</v>
+        <v>-121</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
@@ -9167,7 +9167,7 @@
         <v>44932</v>
       </c>
       <c r="B1098">
-        <v>-103</v>
+        <v>-102</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
@@ -9175,7 +9175,7 @@
         <v>44939</v>
       </c>
       <c r="B1099">
-        <v>-91</v>
+        <v>-92</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
@@ -9183,7 +9183,7 @@
         <v>44946</v>
       </c>
       <c r="B1100">
-        <v>-70</v>
+        <v>-72</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
@@ -9191,7 +9191,7 @@
         <v>44953</v>
       </c>
       <c r="B1101">
-        <v>-59</v>
+        <v>-60</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
@@ -9319,7 +9319,7 @@
         <v>45065</v>
       </c>
       <c r="B1117">
-        <v>-56</v>
+        <v>-59</v>
       </c>
     </row>
     <row r="1118" spans="1:2">
@@ -9351,7 +9351,175 @@
         <v>45093</v>
       </c>
       <c r="B1121">
-        <v>-17</v>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:2">
+      <c r="A1122" s="2">
+        <v>45100</v>
+      </c>
+      <c r="B1122">
+        <v>-27</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:2">
+      <c r="A1123" s="2">
+        <v>45107</v>
+      </c>
+      <c r="B1123">
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:2">
+      <c r="A1124" s="2">
+        <v>45114</v>
+      </c>
+      <c r="B1124">
+        <v>-51</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:2">
+      <c r="A1125" s="2">
+        <v>45121</v>
+      </c>
+      <c r="B1125">
+        <v>-63</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:2">
+      <c r="A1126" s="2">
+        <v>45128</v>
+      </c>
+      <c r="B1126">
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:2">
+      <c r="A1127" s="2">
+        <v>45135</v>
+      </c>
+      <c r="B1127">
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:2">
+      <c r="A1128" s="2">
+        <v>45142</v>
+      </c>
+      <c r="B1128">
+        <v>-84</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:2">
+      <c r="A1129" s="2">
+        <v>45149</v>
+      </c>
+      <c r="B1129">
+        <v>-112</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:2">
+      <c r="A1130" s="2">
+        <v>45156</v>
+      </c>
+      <c r="B1130">
+        <v>-119</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:2">
+      <c r="A1131" s="2">
+        <v>45163</v>
+      </c>
+      <c r="B1131">
+        <v>-114</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:2">
+      <c r="A1132" s="2">
+        <v>45170</v>
+      </c>
+      <c r="B1132">
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:2">
+      <c r="A1133" s="2">
+        <v>45177</v>
+      </c>
+      <c r="B1133">
+        <v>-72</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:2">
+      <c r="A1134" s="2">
+        <v>45184</v>
+      </c>
+      <c r="B1134">
+        <v>-47</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:2">
+      <c r="A1135" s="2">
+        <v>45191</v>
+      </c>
+      <c r="B1135">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:2">
+      <c r="A1136" s="2">
+        <v>45198</v>
+      </c>
+      <c r="B1136">
+        <v>-77</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:2">
+      <c r="A1137" s="2">
+        <v>45205</v>
+      </c>
+      <c r="B1137">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:2">
+      <c r="A1138" s="2">
+        <v>45212</v>
+      </c>
+      <c r="B1138">
+        <v>-69</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:2">
+      <c r="A1139" s="2">
+        <v>45219</v>
+      </c>
+      <c r="B1139">
+        <v>-106</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:2">
+      <c r="A1140" s="2">
+        <v>45226</v>
+      </c>
+      <c r="B1140">
+        <v>-115</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:2">
+      <c r="A1141" s="2">
+        <v>45233</v>
+      </c>
+      <c r="B1141">
+        <v>-89</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:2">
+      <c r="A1142" s="2">
+        <v>45240</v>
+      </c>
+      <c r="B1142">
+        <v>-56</v>
       </c>
     </row>
   </sheetData>

--- a/每週買賣報表/空單部位變化.xlsx
+++ b/每週買賣報表/空單部位變化.xlsx
@@ -9519,7 +9519,7 @@
         <v>45240</v>
       </c>
       <c r="B1142">
-        <v>-56</v>
+        <v>-64</v>
       </c>
     </row>
   </sheetData>

--- a/每週買賣報表/空單部位變化.xlsx
+++ b/每週買賣報表/空單部位變化.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1142"/>
+  <dimension ref="A1:B1146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6023,7 +6023,7 @@
         <v>42181</v>
       </c>
       <c r="B705">
-        <v>-101</v>
+        <v>-102</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -6031,7 +6031,7 @@
         <v>42188</v>
       </c>
       <c r="B706">
-        <v>-96</v>
+        <v>-97</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -6039,7 +6039,7 @@
         <v>42195</v>
       </c>
       <c r="B707">
-        <v>-109</v>
+        <v>-110</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -6047,7 +6047,7 @@
         <v>42202</v>
       </c>
       <c r="B708">
-        <v>-100</v>
+        <v>-101</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -6055,7 +6055,7 @@
         <v>42209</v>
       </c>
       <c r="B709">
-        <v>-105</v>
+        <v>-106</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -6063,7 +6063,7 @@
         <v>42216</v>
       </c>
       <c r="B710">
-        <v>-97</v>
+        <v>-98</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -6071,7 +6071,7 @@
         <v>42223</v>
       </c>
       <c r="B711">
-        <v>-93</v>
+        <v>-94</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -6079,7 +6079,7 @@
         <v>42230</v>
       </c>
       <c r="B712">
-        <v>-69</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -6087,7 +6087,7 @@
         <v>42237</v>
       </c>
       <c r="B713">
-        <v>-73</v>
+        <v>-74</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -6095,7 +6095,7 @@
         <v>42244</v>
       </c>
       <c r="B714">
-        <v>-85</v>
+        <v>-86</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -8543,7 +8543,7 @@
         <v>44386</v>
       </c>
       <c r="B1020">
-        <v>-32</v>
+        <v>-31</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
@@ -8567,7 +8567,7 @@
         <v>44407</v>
       </c>
       <c r="B1023">
-        <v>-72</v>
+        <v>-71</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
@@ -8575,7 +8575,7 @@
         <v>44414</v>
       </c>
       <c r="B1024">
-        <v>-67</v>
+        <v>-66</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
@@ -8583,7 +8583,7 @@
         <v>44421</v>
       </c>
       <c r="B1025">
-        <v>-108</v>
+        <v>-107</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
@@ -9415,7 +9415,7 @@
         <v>45149</v>
       </c>
       <c r="B1129">
-        <v>-112</v>
+        <v>-111</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
@@ -9423,7 +9423,7 @@
         <v>45156</v>
       </c>
       <c r="B1130">
-        <v>-119</v>
+        <v>-118</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
@@ -9431,7 +9431,7 @@
         <v>45163</v>
       </c>
       <c r="B1131">
-        <v>-114</v>
+        <v>-113</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
@@ -9439,7 +9439,7 @@
         <v>45170</v>
       </c>
       <c r="B1132">
-        <v>-80</v>
+        <v>-79</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
@@ -9447,7 +9447,7 @@
         <v>45177</v>
       </c>
       <c r="B1133">
-        <v>-72</v>
+        <v>-71</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
@@ -9519,7 +9519,39 @@
         <v>45240</v>
       </c>
       <c r="B1142">
-        <v>-64</v>
+        <v>-87</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:2">
+      <c r="A1143" s="2">
+        <v>45247</v>
+      </c>
+      <c r="B1143">
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:2">
+      <c r="A1144" s="2">
+        <v>45254</v>
+      </c>
+      <c r="B1144">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:2">
+      <c r="A1145" s="2">
+        <v>45261</v>
+      </c>
+      <c r="B1145">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:2">
+      <c r="A1146" s="2">
+        <v>45268</v>
+      </c>
+      <c r="B1146">
+        <v>-26</v>
       </c>
     </row>
   </sheetData>

--- a/每週買賣報表/空單部位變化.xlsx
+++ b/每週買賣報表/空單部位變化.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1146"/>
+  <dimension ref="A1:B1147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2935,7 +2935,7 @@
         <v>39479</v>
       </c>
       <c r="B319">
-        <v>-162</v>
+        <v>-163</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -2943,7 +2943,7 @@
         <v>39486</v>
       </c>
       <c r="B320">
-        <v>-159</v>
+        <v>-160</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2951,7 +2951,7 @@
         <v>39493</v>
       </c>
       <c r="B321">
-        <v>-145</v>
+        <v>-146</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -2983,7 +2983,7 @@
         <v>39521</v>
       </c>
       <c r="B325">
-        <v>-119</v>
+        <v>-120</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -3623,7 +3623,7 @@
         <v>40081</v>
       </c>
       <c r="B405">
-        <v>-8</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -4511,7 +4511,7 @@
         <v>40858</v>
       </c>
       <c r="B516">
-        <v>-123</v>
+        <v>-124</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -4519,7 +4519,7 @@
         <v>40865</v>
       </c>
       <c r="B517">
-        <v>-140</v>
+        <v>-141</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -4527,7 +4527,7 @@
         <v>40872</v>
       </c>
       <c r="B518">
-        <v>-156</v>
+        <v>-157</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -4535,7 +4535,7 @@
         <v>40879</v>
       </c>
       <c r="B519">
-        <v>-143</v>
+        <v>-144</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -4543,7 +4543,7 @@
         <v>40886</v>
       </c>
       <c r="B520">
-        <v>-147</v>
+        <v>-148</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -4551,7 +4551,7 @@
         <v>40893</v>
       </c>
       <c r="B521">
-        <v>-154</v>
+        <v>-155</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -4559,7 +4559,7 @@
         <v>40900</v>
       </c>
       <c r="B522">
-        <v>-90</v>
+        <v>-91</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -5151,7 +5151,7 @@
         <v>41418</v>
       </c>
       <c r="B596">
-        <v>-34</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -5159,7 +5159,7 @@
         <v>41425</v>
       </c>
       <c r="B597">
-        <v>-31</v>
+        <v>-32</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -5167,7 +5167,7 @@
         <v>41432</v>
       </c>
       <c r="B598">
-        <v>-54</v>
+        <v>-55</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -5607,7 +5607,7 @@
         <v>41817</v>
       </c>
       <c r="B653">
-        <v>-51</v>
+        <v>-52</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -5615,7 +5615,7 @@
         <v>41824</v>
       </c>
       <c r="B654">
-        <v>-47</v>
+        <v>-48</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -5623,7 +5623,7 @@
         <v>41831</v>
       </c>
       <c r="B655">
-        <v>-70</v>
+        <v>-71</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -5631,7 +5631,7 @@
         <v>41838</v>
       </c>
       <c r="B656">
-        <v>-65</v>
+        <v>-66</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -5639,7 +5639,7 @@
         <v>41845</v>
       </c>
       <c r="B657">
-        <v>-54</v>
+        <v>-55</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -5647,7 +5647,7 @@
         <v>41852</v>
       </c>
       <c r="B658">
-        <v>-68</v>
+        <v>-69</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -5671,7 +5671,7 @@
         <v>41873</v>
       </c>
       <c r="B661">
-        <v>-102</v>
+        <v>-103</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -5679,7 +5679,7 @@
         <v>41880</v>
       </c>
       <c r="B662">
-        <v>-82</v>
+        <v>-83</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -5687,7 +5687,7 @@
         <v>41887</v>
       </c>
       <c r="B663">
-        <v>-88</v>
+        <v>-89</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -5695,7 +5695,7 @@
         <v>41894</v>
       </c>
       <c r="B664">
-        <v>-93</v>
+        <v>-94</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -5703,7 +5703,7 @@
         <v>41901</v>
       </c>
       <c r="B665">
-        <v>-79</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -5711,7 +5711,7 @@
         <v>41908</v>
       </c>
       <c r="B666">
-        <v>-101</v>
+        <v>-102</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -5719,7 +5719,7 @@
         <v>41915</v>
       </c>
       <c r="B667">
-        <v>-84</v>
+        <v>-85</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -5727,7 +5727,7 @@
         <v>41922</v>
       </c>
       <c r="B668">
-        <v>-107</v>
+        <v>-108</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -5735,7 +5735,7 @@
         <v>41929</v>
       </c>
       <c r="B669">
-        <v>-144</v>
+        <v>-145</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -5743,7 +5743,7 @@
         <v>41936</v>
       </c>
       <c r="B670">
-        <v>-153</v>
+        <v>-154</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -5751,7 +5751,7 @@
         <v>41943</v>
       </c>
       <c r="B671">
-        <v>-138</v>
+        <v>-139</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -5759,7 +5759,7 @@
         <v>41950</v>
       </c>
       <c r="B672">
-        <v>-123</v>
+        <v>-125</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -5767,7 +5767,7 @@
         <v>41957</v>
       </c>
       <c r="B673">
-        <v>-123</v>
+        <v>-125</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -5775,7 +5775,7 @@
         <v>41964</v>
       </c>
       <c r="B674">
-        <v>-114</v>
+        <v>-116</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -5783,7 +5783,7 @@
         <v>41971</v>
       </c>
       <c r="B675">
-        <v>-92</v>
+        <v>-94</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -5791,7 +5791,7 @@
         <v>41978</v>
       </c>
       <c r="B676">
-        <v>-36</v>
+        <v>-37</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -5799,7 +5799,7 @@
         <v>41985</v>
       </c>
       <c r="B677">
-        <v>-52</v>
+        <v>-53</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -5807,7 +5807,7 @@
         <v>41992</v>
       </c>
       <c r="B678">
-        <v>-105</v>
+        <v>-106</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -5831,7 +5831,7 @@
         <v>42013</v>
       </c>
       <c r="B681">
-        <v>-51</v>
+        <v>-52</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -5839,7 +5839,7 @@
         <v>42020</v>
       </c>
       <c r="B682">
-        <v>-75</v>
+        <v>-76</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -5847,7 +5847,7 @@
         <v>42027</v>
       </c>
       <c r="B683">
-        <v>-49</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -5975,7 +5975,7 @@
         <v>42139</v>
       </c>
       <c r="B699">
-        <v>-92</v>
+        <v>-93</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -5983,7 +5983,7 @@
         <v>42146</v>
       </c>
       <c r="B700">
-        <v>-98</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -5991,7 +5991,7 @@
         <v>42153</v>
       </c>
       <c r="B701">
-        <v>-90</v>
+        <v>-91</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -5999,7 +5999,7 @@
         <v>42160</v>
       </c>
       <c r="B702">
-        <v>-120</v>
+        <v>-121</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -6007,7 +6007,7 @@
         <v>42167</v>
       </c>
       <c r="B703">
-        <v>-128</v>
+        <v>-129</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -6015,7 +6015,7 @@
         <v>42174</v>
       </c>
       <c r="B704">
-        <v>-121</v>
+        <v>-122</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -6023,7 +6023,7 @@
         <v>42181</v>
       </c>
       <c r="B705">
-        <v>-102</v>
+        <v>-103</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -6039,7 +6039,7 @@
         <v>42195</v>
       </c>
       <c r="B707">
-        <v>-110</v>
+        <v>-111</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -6047,7 +6047,7 @@
         <v>42202</v>
       </c>
       <c r="B708">
-        <v>-101</v>
+        <v>-102</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -6055,7 +6055,7 @@
         <v>42209</v>
       </c>
       <c r="B709">
-        <v>-106</v>
+        <v>-107</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -6063,7 +6063,7 @@
         <v>42216</v>
       </c>
       <c r="B710">
-        <v>-98</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -6071,7 +6071,7 @@
         <v>42223</v>
       </c>
       <c r="B711">
-        <v>-94</v>
+        <v>-96</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -6079,7 +6079,7 @@
         <v>42230</v>
       </c>
       <c r="B712">
-        <v>-70</v>
+        <v>-72</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -6087,7 +6087,7 @@
         <v>42237</v>
       </c>
       <c r="B713">
-        <v>-74</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -6151,7 +6151,7 @@
         <v>42293</v>
       </c>
       <c r="B721">
-        <v>-28</v>
+        <v>-29</v>
       </c>
     </row>
     <row r="722" spans="1:2">
@@ -6159,7 +6159,7 @@
         <v>42300</v>
       </c>
       <c r="B722">
-        <v>-35</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -6295,7 +6295,7 @@
         <v>42419</v>
       </c>
       <c r="B739">
-        <v>-18</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -6303,7 +6303,7 @@
         <v>42426</v>
       </c>
       <c r="B740">
-        <v>-8</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -6359,7 +6359,7 @@
         <v>42475</v>
       </c>
       <c r="B747">
-        <v>-63</v>
+        <v>-64</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -6367,7 +6367,7 @@
         <v>42482</v>
       </c>
       <c r="B748">
-        <v>-80</v>
+        <v>-81</v>
       </c>
     </row>
     <row r="749" spans="1:2">
@@ -6911,7 +6911,7 @@
         <v>42958</v>
       </c>
       <c r="B816">
-        <v>-85</v>
+        <v>-86</v>
       </c>
     </row>
     <row r="817" spans="1:2">
@@ -6927,7 +6927,7 @@
         <v>42972</v>
       </c>
       <c r="B818">
-        <v>-64</v>
+        <v>-63</v>
       </c>
     </row>
     <row r="819" spans="1:2">
@@ -6935,7 +6935,7 @@
         <v>42979</v>
       </c>
       <c r="B819">
-        <v>-48</v>
+        <v>-47</v>
       </c>
     </row>
     <row r="820" spans="1:2">
@@ -6943,7 +6943,7 @@
         <v>42986</v>
       </c>
       <c r="B820">
-        <v>-47</v>
+        <v>-46</v>
       </c>
     </row>
     <row r="821" spans="1:2">
@@ -6951,7 +6951,7 @@
         <v>42993</v>
       </c>
       <c r="B821">
-        <v>-35</v>
+        <v>-34</v>
       </c>
     </row>
     <row r="822" spans="1:2">
@@ -6959,7 +6959,7 @@
         <v>43000</v>
       </c>
       <c r="B822">
-        <v>-48</v>
+        <v>-47</v>
       </c>
     </row>
     <row r="823" spans="1:2">
@@ -6967,7 +6967,7 @@
         <v>43007</v>
       </c>
       <c r="B823">
-        <v>-63</v>
+        <v>-62</v>
       </c>
     </row>
     <row r="824" spans="1:2">
@@ -6991,7 +6991,7 @@
         <v>43028</v>
       </c>
       <c r="B826">
-        <v>-42</v>
+        <v>-41</v>
       </c>
     </row>
     <row r="827" spans="1:2">
@@ -6999,7 +6999,7 @@
         <v>43035</v>
       </c>
       <c r="B827">
-        <v>-47</v>
+        <v>-46</v>
       </c>
     </row>
     <row r="828" spans="1:2">
@@ -7007,7 +7007,7 @@
         <v>43042</v>
       </c>
       <c r="B828">
-        <v>-43</v>
+        <v>-42</v>
       </c>
     </row>
     <row r="829" spans="1:2">
@@ -7015,7 +7015,7 @@
         <v>43049</v>
       </c>
       <c r="B829">
-        <v>-58</v>
+        <v>-57</v>
       </c>
     </row>
     <row r="830" spans="1:2">
@@ -7023,7 +7023,7 @@
         <v>43056</v>
       </c>
       <c r="B830">
-        <v>-70</v>
+        <v>-69</v>
       </c>
     </row>
     <row r="831" spans="1:2">
@@ -7031,7 +7031,7 @@
         <v>43063</v>
       </c>
       <c r="B831">
-        <v>-60</v>
+        <v>-59</v>
       </c>
     </row>
     <row r="832" spans="1:2">
@@ -7039,7 +7039,7 @@
         <v>43070</v>
       </c>
       <c r="B832">
-        <v>-78</v>
+        <v>-77</v>
       </c>
     </row>
     <row r="833" spans="1:2">
@@ -7119,7 +7119,7 @@
         <v>43140</v>
       </c>
       <c r="B842">
-        <v>-116</v>
+        <v>-115</v>
       </c>
     </row>
     <row r="843" spans="1:2">
@@ -7167,7 +7167,7 @@
         <v>43182</v>
       </c>
       <c r="B848">
-        <v>-85</v>
+        <v>-84</v>
       </c>
     </row>
     <row r="849" spans="1:2">
@@ -7399,7 +7399,7 @@
         <v>43385</v>
       </c>
       <c r="B877">
-        <v>-75</v>
+        <v>-76</v>
       </c>
     </row>
     <row r="878" spans="1:2">
@@ -7407,7 +7407,7 @@
         <v>43392</v>
       </c>
       <c r="B878">
-        <v>-79</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="879" spans="1:2">
@@ -7415,7 +7415,7 @@
         <v>43399</v>
       </c>
       <c r="B879">
-        <v>-64</v>
+        <v>-65</v>
       </c>
     </row>
     <row r="880" spans="1:2">
@@ -7423,7 +7423,7 @@
         <v>43406</v>
       </c>
       <c r="B880">
-        <v>-58</v>
+        <v>-59</v>
       </c>
     </row>
     <row r="881" spans="1:2">
@@ -7431,7 +7431,7 @@
         <v>43413</v>
       </c>
       <c r="B881">
-        <v>-48</v>
+        <v>-49</v>
       </c>
     </row>
     <row r="882" spans="1:2">
@@ -7479,7 +7479,7 @@
         <v>43455</v>
       </c>
       <c r="B887">
-        <v>-111</v>
+        <v>-110</v>
       </c>
     </row>
     <row r="888" spans="1:2">
@@ -7487,7 +7487,7 @@
         <v>43462</v>
       </c>
       <c r="B888">
-        <v>-111</v>
+        <v>-110</v>
       </c>
     </row>
     <row r="889" spans="1:2">
@@ -7495,7 +7495,7 @@
         <v>43469</v>
       </c>
       <c r="B889">
-        <v>-116</v>
+        <v>-115</v>
       </c>
     </row>
     <row r="890" spans="1:2">
@@ -7503,7 +7503,7 @@
         <v>43476</v>
       </c>
       <c r="B890">
-        <v>-86</v>
+        <v>-85</v>
       </c>
     </row>
     <row r="891" spans="1:2">
@@ -7951,7 +7951,7 @@
         <v>43868</v>
       </c>
       <c r="B946">
-        <v>-97</v>
+        <v>-98</v>
       </c>
     </row>
     <row r="947" spans="1:2">
@@ -7959,7 +7959,7 @@
         <v>43875</v>
       </c>
       <c r="B947">
-        <v>-82</v>
+        <v>-83</v>
       </c>
     </row>
     <row r="948" spans="1:2">
@@ -7967,7 +7967,7 @@
         <v>43882</v>
       </c>
       <c r="B948">
-        <v>-79</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="949" spans="1:2">
@@ -7975,7 +7975,7 @@
         <v>43889</v>
       </c>
       <c r="B949">
-        <v>-128</v>
+        <v>-129</v>
       </c>
     </row>
     <row r="950" spans="1:2">
@@ -7983,7 +7983,7 @@
         <v>43896</v>
       </c>
       <c r="B950">
-        <v>-107</v>
+        <v>-108</v>
       </c>
     </row>
     <row r="951" spans="1:2">
@@ -7991,7 +7991,7 @@
         <v>43903</v>
       </c>
       <c r="B951">
-        <v>-63</v>
+        <v>-64</v>
       </c>
     </row>
     <row r="952" spans="1:2">
@@ -8303,7 +8303,7 @@
         <v>44176</v>
       </c>
       <c r="B990">
-        <v>-59</v>
+        <v>-58</v>
       </c>
     </row>
     <row r="991" spans="1:2">
@@ -8311,7 +8311,7 @@
         <v>44183</v>
       </c>
       <c r="B991">
-        <v>-50</v>
+        <v>-49</v>
       </c>
     </row>
     <row r="992" spans="1:2">
@@ -8319,7 +8319,7 @@
         <v>44190</v>
       </c>
       <c r="B992">
-        <v>-61</v>
+        <v>-60</v>
       </c>
     </row>
     <row r="993" spans="1:2">
@@ -8327,7 +8327,7 @@
         <v>44197</v>
       </c>
       <c r="B993">
-        <v>-54</v>
+        <v>-53</v>
       </c>
     </row>
     <row r="994" spans="1:2">
@@ -8335,7 +8335,7 @@
         <v>44204</v>
       </c>
       <c r="B994">
-        <v>-42</v>
+        <v>-41</v>
       </c>
     </row>
     <row r="995" spans="1:2">
@@ -8343,7 +8343,7 @@
         <v>44211</v>
       </c>
       <c r="B995">
-        <v>-51</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="996" spans="1:2">
@@ -8351,7 +8351,7 @@
         <v>44218</v>
       </c>
       <c r="B996">
-        <v>-64</v>
+        <v>-63</v>
       </c>
     </row>
     <row r="997" spans="1:2">
@@ -8359,7 +8359,7 @@
         <v>44225</v>
       </c>
       <c r="B997">
-        <v>-75</v>
+        <v>-74</v>
       </c>
     </row>
     <row r="998" spans="1:2">
@@ -8367,7 +8367,7 @@
         <v>44232</v>
       </c>
       <c r="B998">
-        <v>-73</v>
+        <v>-72</v>
       </c>
     </row>
     <row r="999" spans="1:2">
@@ -8375,7 +8375,7 @@
         <v>44239</v>
       </c>
       <c r="B999">
-        <v>-71</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
@@ -8407,7 +8407,7 @@
         <v>44267</v>
       </c>
       <c r="B1003">
-        <v>-25</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
@@ -8455,7 +8455,7 @@
         <v>44309</v>
       </c>
       <c r="B1009">
-        <v>-40</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
@@ -8463,7 +8463,7 @@
         <v>44316</v>
       </c>
       <c r="B1010">
-        <v>-39</v>
+        <v>-38</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
@@ -8471,7 +8471,7 @@
         <v>44323</v>
       </c>
       <c r="B1011">
-        <v>-65</v>
+        <v>-64</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
@@ -8527,7 +8527,7 @@
         <v>44372</v>
       </c>
       <c r="B1018">
-        <v>-17</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
@@ -8535,7 +8535,7 @@
         <v>44379</v>
       </c>
       <c r="B1019">
-        <v>-32</v>
+        <v>-31</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
@@ -8559,7 +8559,7 @@
         <v>44400</v>
       </c>
       <c r="B1022">
-        <v>-37</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
@@ -8567,7 +8567,7 @@
         <v>44407</v>
       </c>
       <c r="B1023">
-        <v>-71</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
@@ -8575,7 +8575,7 @@
         <v>44414</v>
       </c>
       <c r="B1024">
-        <v>-66</v>
+        <v>-65</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
@@ -8615,7 +8615,7 @@
         <v>44449</v>
       </c>
       <c r="B1029">
-        <v>-119</v>
+        <v>-118</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
@@ -8623,7 +8623,7 @@
         <v>44456</v>
       </c>
       <c r="B1030">
-        <v>-125</v>
+        <v>-124</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
@@ -8631,7 +8631,7 @@
         <v>44463</v>
       </c>
       <c r="B1031">
-        <v>-111</v>
+        <v>-110</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
@@ -8639,7 +8639,7 @@
         <v>44470</v>
       </c>
       <c r="B1032">
-        <v>-99</v>
+        <v>-98</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
@@ -8647,7 +8647,7 @@
         <v>44477</v>
       </c>
       <c r="B1033">
-        <v>-99</v>
+        <v>-98</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
@@ -8655,7 +8655,7 @@
         <v>44484</v>
       </c>
       <c r="B1034">
-        <v>-107</v>
+        <v>-106</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
@@ -8687,7 +8687,7 @@
         <v>44512</v>
       </c>
       <c r="B1038">
-        <v>-42</v>
+        <v>-41</v>
       </c>
     </row>
     <row r="1039" spans="1:2">
@@ -8759,7 +8759,7 @@
         <v>44575</v>
       </c>
       <c r="B1047">
-        <v>-124</v>
+        <v>-123</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
@@ -8767,7 +8767,7 @@
         <v>44582</v>
       </c>
       <c r="B1048">
-        <v>-135</v>
+        <v>-134</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
@@ -8775,7 +8775,7 @@
         <v>44589</v>
       </c>
       <c r="B1049">
-        <v>-150</v>
+        <v>-149</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
@@ -8783,7 +8783,7 @@
         <v>44596</v>
       </c>
       <c r="B1050">
-        <v>-150</v>
+        <v>-149</v>
       </c>
     </row>
     <row r="1051" spans="1:2">
@@ -8983,7 +8983,7 @@
         <v>44771</v>
       </c>
       <c r="B1075">
-        <v>-33</v>
+        <v>-32</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
@@ -8991,7 +8991,7 @@
         <v>44778</v>
       </c>
       <c r="B1076">
-        <v>-80</v>
+        <v>-79</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
@@ -9031,7 +9031,7 @@
         <v>44813</v>
       </c>
       <c r="B1081">
-        <v>-117</v>
+        <v>-116</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
@@ -9039,7 +9039,7 @@
         <v>44820</v>
       </c>
       <c r="B1082">
-        <v>-107</v>
+        <v>-106</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
@@ -9047,7 +9047,7 @@
         <v>44827</v>
       </c>
       <c r="B1083">
-        <v>-119</v>
+        <v>-118</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
@@ -9055,7 +9055,7 @@
         <v>44834</v>
       </c>
       <c r="B1084">
-        <v>-125</v>
+        <v>-124</v>
       </c>
     </row>
     <row r="1085" spans="1:2">
@@ -9063,7 +9063,7 @@
         <v>44841</v>
       </c>
       <c r="B1085">
-        <v>-120</v>
+        <v>-119</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
@@ -9311,7 +9311,7 @@
         <v>45058</v>
       </c>
       <c r="B1116">
-        <v>-71</v>
+        <v>-72</v>
       </c>
     </row>
     <row r="1117" spans="1:2">
@@ -9319,7 +9319,7 @@
         <v>45065</v>
       </c>
       <c r="B1117">
-        <v>-59</v>
+        <v>-60</v>
       </c>
     </row>
     <row r="1118" spans="1:2">
@@ -9327,7 +9327,7 @@
         <v>45072</v>
       </c>
       <c r="B1118">
-        <v>-47</v>
+        <v>-48</v>
       </c>
     </row>
     <row r="1119" spans="1:2">
@@ -9335,7 +9335,7 @@
         <v>45079</v>
       </c>
       <c r="B1119">
-        <v>-28</v>
+        <v>-29</v>
       </c>
     </row>
     <row r="1120" spans="1:2">
@@ -9343,7 +9343,7 @@
         <v>45086</v>
       </c>
       <c r="B1120">
-        <v>-16</v>
+        <v>-17</v>
       </c>
     </row>
     <row r="1121" spans="1:2">
@@ -9351,7 +9351,7 @@
         <v>45093</v>
       </c>
       <c r="B1121">
-        <v>-16</v>
+        <v>-17</v>
       </c>
     </row>
     <row r="1122" spans="1:2">
@@ -9359,7 +9359,7 @@
         <v>45100</v>
       </c>
       <c r="B1122">
-        <v>-27</v>
+        <v>-28</v>
       </c>
     </row>
     <row r="1123" spans="1:2">
@@ -9367,7 +9367,7 @@
         <v>45107</v>
       </c>
       <c r="B1123">
-        <v>-36</v>
+        <v>-37</v>
       </c>
     </row>
     <row r="1124" spans="1:2">
@@ -9375,7 +9375,7 @@
         <v>45114</v>
       </c>
       <c r="B1124">
-        <v>-51</v>
+        <v>-52</v>
       </c>
     </row>
     <row r="1125" spans="1:2">
@@ -9383,7 +9383,7 @@
         <v>45121</v>
       </c>
       <c r="B1125">
-        <v>-63</v>
+        <v>-64</v>
       </c>
     </row>
     <row r="1126" spans="1:2">
@@ -9391,7 +9391,7 @@
         <v>45128</v>
       </c>
       <c r="B1126">
-        <v>-73</v>
+        <v>-74</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
@@ -9399,7 +9399,7 @@
         <v>45135</v>
       </c>
       <c r="B1127">
-        <v>-73</v>
+        <v>-74</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
@@ -9415,7 +9415,7 @@
         <v>45149</v>
       </c>
       <c r="B1129">
-        <v>-111</v>
+        <v>-112</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
@@ -9423,7 +9423,7 @@
         <v>45156</v>
       </c>
       <c r="B1130">
-        <v>-118</v>
+        <v>-119</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
@@ -9431,7 +9431,7 @@
         <v>45163</v>
       </c>
       <c r="B1131">
-        <v>-113</v>
+        <v>-114</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
@@ -9439,7 +9439,7 @@
         <v>45170</v>
       </c>
       <c r="B1132">
-        <v>-79</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
@@ -9447,7 +9447,7 @@
         <v>45177</v>
       </c>
       <c r="B1133">
-        <v>-71</v>
+        <v>-72</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
@@ -9519,7 +9519,7 @@
         <v>45240</v>
       </c>
       <c r="B1142">
-        <v>-87</v>
+        <v>-88</v>
       </c>
     </row>
     <row r="1143" spans="1:2">
@@ -9551,7 +9551,15 @@
         <v>45268</v>
       </c>
       <c r="B1146">
-        <v>-26</v>
+        <v>-42</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:2">
+      <c r="A1147" s="2">
+        <v>45275</v>
+      </c>
+      <c r="B1147">
+        <v>-47</v>
       </c>
     </row>
   </sheetData>
